--- a/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
+++ b/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naresh\project-pareto\pareto\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0F4D50-E2D0-406F-B7CE-90876BDE2C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF29819-BA35-4CE5-939C-B6C7EC53FCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="834" firstSheet="2" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" firstSheet="76" activeTab="82" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -38,65 +38,74 @@
     <sheet name="NKA" sheetId="60" r:id="rId23"/>
     <sheet name="NRA" sheetId="61" r:id="rId24"/>
     <sheet name="NSA" sheetId="76" r:id="rId25"/>
-    <sheet name="SNA" sheetId="77" r:id="rId26"/>
-    <sheet name="FCA" sheetId="41" r:id="rId27"/>
-    <sheet name="RCA" sheetId="83" r:id="rId28"/>
-    <sheet name="RSA" sheetId="96" r:id="rId29"/>
-    <sheet name="SCA" sheetId="97" r:id="rId30"/>
-    <sheet name="RNA" sheetId="62" r:id="rId31"/>
-    <sheet name="PCT" sheetId="42" r:id="rId32"/>
-    <sheet name="FCT" sheetId="70" r:id="rId33"/>
-    <sheet name="PKT" sheetId="43" r:id="rId34"/>
-    <sheet name="CKT" sheetId="44" r:id="rId35"/>
-    <sheet name="CCT" sheetId="74" r:id="rId36"/>
-    <sheet name="CST" sheetId="64" r:id="rId37"/>
-    <sheet name="Elevation" sheetId="117" r:id="rId38"/>
-    <sheet name="CompletionsDemand" sheetId="8" r:id="rId39"/>
-    <sheet name="PadRates" sheetId="65" r:id="rId40"/>
-    <sheet name="FlowbackRates" sheetId="75" r:id="rId41"/>
-    <sheet name="WellPressure" sheetId="118" r:id="rId42"/>
-    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId43"/>
-    <sheet name="InitialPipelineDiameters" sheetId="119" r:id="rId44"/>
-    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId45"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId46"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId47"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId48"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId49"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId50"/>
-    <sheet name="NodeCapacities" sheetId="107" r:id="rId51"/>
-    <sheet name="DisposalOperatingCapacity" sheetId="111" r:id="rId52"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId53"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId54"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId55"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId56"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId57"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId58"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId59"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId60"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId61"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId62"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId63"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId64"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId65"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId66"/>
-    <sheet name="PipelineExpansionDistance" sheetId="103" r:id="rId67"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="101" r:id="rId68"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="100" r:id="rId69"/>
-    <sheet name="PipelineDiameterValues" sheetId="93" r:id="rId70"/>
-    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId71"/>
-    <sheet name="RemovalEfficiency" sheetId="116" r:id="rId72"/>
-    <sheet name="DesalinationTechnologies" sheetId="112" r:id="rId73"/>
-    <sheet name="DesalinationSites" sheetId="114" r:id="rId74"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="113" r:id="rId75"/>
-    <sheet name="Hydraulics" sheetId="95" r:id="rId76"/>
-    <sheet name="Economics" sheetId="99" r:id="rId77"/>
-    <sheet name="PadWaterQuality" sheetId="104" r:id="rId78"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId79"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId80"/>
+    <sheet name="NOA" sheetId="120" r:id="rId26"/>
+    <sheet name="SNA" sheetId="77" r:id="rId27"/>
+    <sheet name="SOA" sheetId="121" r:id="rId28"/>
+    <sheet name="FCA" sheetId="41" r:id="rId29"/>
+    <sheet name="RCA" sheetId="83" r:id="rId30"/>
+    <sheet name="RSA" sheetId="96" r:id="rId31"/>
+    <sheet name="SCA" sheetId="97" r:id="rId32"/>
+    <sheet name="RNA" sheetId="62" r:id="rId33"/>
+    <sheet name="ROA" sheetId="122" r:id="rId34"/>
+    <sheet name="PCT" sheetId="42" r:id="rId35"/>
+    <sheet name="FCT" sheetId="70" r:id="rId36"/>
+    <sheet name="PKT" sheetId="43" r:id="rId37"/>
+    <sheet name="CKT" sheetId="44" r:id="rId38"/>
+    <sheet name="CCT" sheetId="74" r:id="rId39"/>
+    <sheet name="CST" sheetId="64" r:id="rId40"/>
+    <sheet name="RST" sheetId="123" r:id="rId41"/>
+    <sheet name="ROT" sheetId="124" r:id="rId42"/>
+    <sheet name="SOT" sheetId="125" r:id="rId43"/>
+    <sheet name="Elevation" sheetId="117" r:id="rId44"/>
+    <sheet name="CompletionsDemand" sheetId="8" r:id="rId45"/>
+    <sheet name="PadRates" sheetId="65" r:id="rId46"/>
+    <sheet name="FlowbackRates" sheetId="75" r:id="rId47"/>
+    <sheet name="WellPressure" sheetId="118" r:id="rId48"/>
+    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId49"/>
+    <sheet name="InitialPipelineDiameters" sheetId="119" r:id="rId50"/>
+    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId51"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId52"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId53"/>
+    <sheet name="ReuseMinimum" sheetId="126" r:id="rId54"/>
+    <sheet name="ReuseCapacity" sheetId="127" r:id="rId55"/>
+    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId56"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId57"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId58"/>
+    <sheet name="NodeCapacities" sheetId="107" r:id="rId59"/>
+    <sheet name="DisposalOperatingCapacity" sheetId="111" r:id="rId60"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId61"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId62"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId63"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId64"/>
+    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId65"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId66"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId67"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId68"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId69"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId70"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId71"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId72"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId73"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId74"/>
+    <sheet name="PipelineExpansionDistance" sheetId="103" r:id="rId75"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="101" r:id="rId76"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="100" r:id="rId77"/>
+    <sheet name="PipelineDiameterValues" sheetId="93" r:id="rId78"/>
+    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId79"/>
+    <sheet name="RemovalEfficiency" sheetId="116" r:id="rId80"/>
+    <sheet name="DesalinationTechnologies" sheetId="112" r:id="rId81"/>
+    <sheet name="DesalinationSites" sheetId="114" r:id="rId82"/>
+    <sheet name="BeneficialReuseCredit" sheetId="128" r:id="rId83"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="113" r:id="rId84"/>
+    <sheet name="Hydraulics" sheetId="95" r:id="rId85"/>
+    <sheet name="Economics" sheetId="99" r:id="rId86"/>
+    <sheet name="PadWaterQuality" sheetId="104" r:id="rId87"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId88"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId89"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="66" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="66">PipelineExpansionDistance!$O$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="74" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="74">PipelineExpansionDistance!$O$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -119,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3674" uniqueCount="308">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1025,6 +1034,24 @@
   </si>
   <si>
     <t>Elevation of a network node (including all sites)</t>
+  </si>
+  <si>
+    <t>Network Nodes to Beneficial Reuse Piping Arcs [-]</t>
+  </si>
+  <si>
+    <t>Storage Sites to Beneficial Reuse Piping Arcs [-]</t>
+  </si>
+  <si>
+    <t>Storage Sites to Beneficial Reuse Piping Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>Treatment to Storage Sites Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>Treatment Sites to Beneficial Reuse Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>Storage Sites to Beneficial Reuse Trucking Arcs [-]</t>
   </si>
 </sst>
 </file>
@@ -6435,6 +6462,29 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BDDCF2-8703-4830-B9E7-D3EE6304DB46}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E548F62-97B3-424F-8681-D1975DE263A9}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6480,7 +6530,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84811564-E4BD-401D-B042-93D89607376A}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BC2D47-F187-4A8D-891B-85F0F5A9A73D}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6596,123 +6669,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05F6C2E-9295-44C7-B492-F6D27B8F0C30}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A1AE0C-960A-4D78-B379-4A547CF947AD}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFF715F-3E15-4648-BE2E-5DDD5729CBA6}">
   <sheetPr>
@@ -6720,7 +6676,7 @@
   </sheetPr>
   <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -7100,6 +7056,123 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05F6C2E-9295-44C7-B492-F6D27B8F0C30}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A1AE0C-960A-4D78-B379-4A547CF947AD}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E3F424-AF67-40EA-B112-0E5B2FC8462D}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7171,7 +7244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3F673B-ABE6-40C2-BA6B-F7AEA69D03F8}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7217,7 +7290,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4854EF-5B43-4334-B4BA-805768EC59B0}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ED8ED-0A77-4974-A7C2-D2B875DA1401}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7396,7 +7492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F615298C-1D1C-4004-91BA-05C3C07D8B7C}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7527,7 +7623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE275C-BC38-44C0-8EFB-EA0A3ABCF1EE}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7777,7 +7873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90457C74-863B-4C67-B58B-571271FAEA0E}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7873,7 +7969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37622F2B-1E4B-46C9-B210-3150CCBB5892}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7952,7 +8048,116 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899A76A8-5CE6-4878-A6D7-FB5DF8BDAFB4}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A52059-0CB1-474F-ACFF-2997470BE1E9}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7996,7 +8201,105 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7671FE8C-53C8-47E3-8F66-0CDFF992F8F0}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="29"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA0172C-9C06-4AFA-A735-EDA51E2D806D}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD3490E-F249-4CEC-A79A-88A8E596A07B}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789E7D10-DA84-4E98-A491-162D17B0E3FF}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8536,7 +8839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FA210-6C83-4CC4-AF45-F41CDC53F769}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -9054,116 +9357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899A76A8-5CE6-4878-A6D7-FB5DF8BDAFB4}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF4E1D-6CE0-4F02-8B9E-F2818C0A814C}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -12550,7 +12744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68666333-AE69-4574-92B2-6BE3A00DF612}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -13234,7 +13428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE870389-1558-469D-A4C0-FFF0CB6EF3E1}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -16523,7 +16717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE628BF-A05C-42C8-8EC7-63FF3B624ADC}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -19256,7 +19450,113 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FE18E-3C30-49FC-B6A0-0A6D3F02EBB0}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AB3CAC-DE83-4E65-8BC7-386D18A19803}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -23403,7 +23703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -23462,7 +23762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -23514,7 +23814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -23574,7 +23874,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71161610-124C-4EF0-9AD2-EA56457B2C52}">
+  <sheetPr>
+    <tabColor rgb="FFD9C6FE"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>_xlfn.CONCAT( "Table of Beneficial Reuse minimum required flow [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Beneficial Reuse minimum required flow [bbl/week]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93770ED0-6BFC-4696-92DB-4CEBACB9D35D}">
+  <sheetPr>
+    <tabColor rgb="FFD9C6FE"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>_xlfn.CONCAT( "Table of Beneficial Reuse Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Beneficial Reuse Capacity [bbl/week]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -25054,7 +25402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -25122,113 +25470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FE18E-3C30-49FC-B6A0-0A6D3F02EBB0}">
-  <dimension ref="A1:O15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -25296,7 +25538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D80780D-32E5-452A-A6C3-3B8E431097FA}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -25333,1617 +25575,6 @@
       <c r="B3" s="37"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F424B69F-B42E-4A8C-B24F-D4CE4D83DFA9}">
-  <sheetPr>
-    <tabColor rgb="FFD9C6FE"/>
-  </sheetPr>
-  <dimension ref="A1:BD10"/>
-  <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="53" width="9" style="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Operating Capacity of Disposal Site [%]")</f>
-        <v>Operating Capacity of Disposal Site [%]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="86" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="86" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="86" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" s="86" t="s">
-        <v>171</v>
-      </c>
-      <c r="H2" s="86" t="s">
-        <v>172</v>
-      </c>
-      <c r="I2" s="86" t="s">
-        <v>173</v>
-      </c>
-      <c r="J2" s="86" t="s">
-        <v>174</v>
-      </c>
-      <c r="K2" s="86" t="s">
-        <v>153</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>154</v>
-      </c>
-      <c r="M2" s="86" t="s">
-        <v>155</v>
-      </c>
-      <c r="N2" s="86" t="s">
-        <v>156</v>
-      </c>
-      <c r="O2" s="86" t="s">
-        <v>157</v>
-      </c>
-      <c r="P2" s="86" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q2" s="86" t="s">
-        <v>159</v>
-      </c>
-      <c r="R2" s="86" t="s">
-        <v>160</v>
-      </c>
-      <c r="S2" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="T2" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="U2" s="86" t="s">
-        <v>163</v>
-      </c>
-      <c r="V2" s="86" t="s">
-        <v>164</v>
-      </c>
-      <c r="W2" s="86" t="s">
-        <v>165</v>
-      </c>
-      <c r="X2" s="86" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y2" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z2" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA2" s="86" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB2" s="86" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC2" s="86" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD2" s="86" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE2" s="86" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF2" s="86" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG2" s="86" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH2" s="86" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI2" s="86" t="s">
-        <v>188</v>
-      </c>
-      <c r="AJ2" s="86" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK2" s="86" t="s">
-        <v>190</v>
-      </c>
-      <c r="AL2" s="86" t="s">
-        <v>191</v>
-      </c>
-      <c r="AM2" s="86" t="s">
-        <v>192</v>
-      </c>
-      <c r="AN2" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="AO2" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="AP2" s="86" t="s">
-        <v>195</v>
-      </c>
-      <c r="AQ2" s="86" t="s">
-        <v>196</v>
-      </c>
-      <c r="AR2" s="86" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS2" s="86" t="s">
-        <v>198</v>
-      </c>
-      <c r="AT2" s="86" t="s">
-        <v>199</v>
-      </c>
-      <c r="AU2" s="86" t="s">
-        <v>200</v>
-      </c>
-      <c r="AV2" s="86" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW2" s="86" t="s">
-        <v>202</v>
-      </c>
-      <c r="AX2" s="86" t="s">
-        <v>203</v>
-      </c>
-      <c r="AY2" s="86" t="s">
-        <v>204</v>
-      </c>
-      <c r="AZ2" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="BA2" s="87" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="88">
-        <v>1</v>
-      </c>
-      <c r="C3" s="88">
-        <v>1</v>
-      </c>
-      <c r="D3" s="88">
-        <v>1</v>
-      </c>
-      <c r="E3" s="88">
-        <v>1</v>
-      </c>
-      <c r="F3" s="88">
-        <v>1</v>
-      </c>
-      <c r="G3" s="88">
-        <v>1</v>
-      </c>
-      <c r="H3" s="88">
-        <v>1</v>
-      </c>
-      <c r="I3" s="88">
-        <v>1</v>
-      </c>
-      <c r="J3" s="88">
-        <v>1</v>
-      </c>
-      <c r="K3" s="88">
-        <v>1</v>
-      </c>
-      <c r="L3" s="88">
-        <v>1</v>
-      </c>
-      <c r="M3" s="88">
-        <v>1</v>
-      </c>
-      <c r="N3" s="88">
-        <v>1</v>
-      </c>
-      <c r="O3" s="88">
-        <v>1</v>
-      </c>
-      <c r="P3" s="88">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="88">
-        <v>1</v>
-      </c>
-      <c r="R3" s="88">
-        <v>1</v>
-      </c>
-      <c r="S3" s="88">
-        <v>1</v>
-      </c>
-      <c r="T3" s="88">
-        <v>1</v>
-      </c>
-      <c r="U3" s="88">
-        <v>1</v>
-      </c>
-      <c r="V3" s="88">
-        <v>1</v>
-      </c>
-      <c r="W3" s="88">
-        <v>1</v>
-      </c>
-      <c r="X3" s="88">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="88">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="88">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="88">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7">
-        <v>1</v>
-      </c>
-      <c r="L4" s="7">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1</v>
-      </c>
-      <c r="O4" s="7">
-        <v>1</v>
-      </c>
-      <c r="P4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>1</v>
-      </c>
-      <c r="R4" s="7">
-        <v>1</v>
-      </c>
-      <c r="S4" s="7">
-        <v>1</v>
-      </c>
-      <c r="T4" s="7">
-        <v>1</v>
-      </c>
-      <c r="U4" s="7">
-        <v>1</v>
-      </c>
-      <c r="V4" s="7">
-        <v>1</v>
-      </c>
-      <c r="W4" s="7">
-        <v>1</v>
-      </c>
-      <c r="X4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="7">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:56" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8">
-        <v>1</v>
-      </c>
-      <c r="L5" s="8">
-        <v>1</v>
-      </c>
-      <c r="M5" s="8">
-        <v>1</v>
-      </c>
-      <c r="N5" s="8">
-        <v>1</v>
-      </c>
-      <c r="O5" s="8">
-        <v>1</v>
-      </c>
-      <c r="P5" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>1</v>
-      </c>
-      <c r="R5" s="8">
-        <v>1</v>
-      </c>
-      <c r="S5" s="8">
-        <v>1</v>
-      </c>
-      <c r="T5" s="8">
-        <v>1</v>
-      </c>
-      <c r="U5" s="8">
-        <v>1</v>
-      </c>
-      <c r="V5" s="8">
-        <v>1</v>
-      </c>
-      <c r="W5" s="8">
-        <v>1</v>
-      </c>
-      <c r="X5" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AO5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="8">
-        <v>1</v>
-      </c>
-      <c r="BA5" s="9">
-        <v>1</v>
-      </c>
-      <c r="BD5" s="72"/>
-    </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="B9" s="73"/>
-    </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F10" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Disposal Operational Cost [USD/bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="29">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="29">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Treatment Operational Cost [USD/bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3" s="32">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" s="32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>278</v>
-      </c>
-      <c r="C5" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Reuse Operational Cost [USD/bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" style="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Freshwater Souring Cost [USD/bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="29">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="29">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="29">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="29">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="29">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="29">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="29">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="9">
-        <v>1.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", "hour","]")</f>
-        <v>Table of Trucking Hourly Cost [USD/hour]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="29">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="29">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="29">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="29">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="29">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="29">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="29">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="29">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="29">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="29">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="29">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="29">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="29">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="92">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="29">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="29">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="92">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="29">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="29">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="29">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="29">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="29">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" s="29">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="29">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="9">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="7">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="D3" s="29">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2</v>
-      </c>
-      <c r="D4" s="29">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="7">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7">
-        <v>4</v>
-      </c>
-      <c r="D6" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="C7" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="D7" s="29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="7">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7">
-        <v>9.5</v>
-      </c>
-      <c r="D8" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="7">
-        <v>8.5</v>
-      </c>
-      <c r="C9" s="7">
-        <v>9</v>
-      </c>
-      <c r="D9" s="29">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="7">
-        <v>12</v>
-      </c>
-      <c r="C10" s="7">
-        <v>12.5</v>
-      </c>
-      <c r="D10" s="29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="7">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7">
-        <v>9.5</v>
-      </c>
-      <c r="D11" s="29">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="7">
-        <v>11.5</v>
-      </c>
-      <c r="C12" s="7">
-        <v>12</v>
-      </c>
-      <c r="D12" s="29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="7">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7">
-        <v>12.5</v>
-      </c>
-      <c r="D13" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="7">
-        <v>12.5</v>
-      </c>
-      <c r="C14" s="7">
-        <v>13</v>
-      </c>
-      <c r="D14" s="29">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="7">
-        <v>12.5</v>
-      </c>
-      <c r="C15" s="7">
-        <v>13</v>
-      </c>
-      <c r="D15" s="29">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="7">
-        <v>12.5</v>
-      </c>
-      <c r="C16" s="7">
-        <v>13</v>
-      </c>
-      <c r="D16" s="29">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="93">
-        <v>11.5</v>
-      </c>
-      <c r="C17" s="93">
-        <v>12</v>
-      </c>
-      <c r="D17" s="92">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="7">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="D18" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2</v>
-      </c>
-      <c r="D19" s="29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="7">
-        <v>8</v>
-      </c>
-      <c r="C20" s="7">
-        <v>6</v>
-      </c>
-      <c r="D20" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="8">
-        <v>8</v>
-      </c>
-      <c r="C21" s="8">
-        <v>9</v>
-      </c>
-      <c r="D21" s="9">
-        <v>3.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -27007,6 +25638,1617 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F424B69F-B42E-4A8C-B24F-D4CE4D83DFA9}">
+  <sheetPr>
+    <tabColor rgb="FFD9C6FE"/>
+  </sheetPr>
+  <dimension ref="A1:BD10"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="53" width="9" style="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Operating Capacity of Disposal Site [%]")</f>
+        <v>Operating Capacity of Disposal Site [%]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" s="86" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="86" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="N2" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="P2" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q2" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="R2" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="S2" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="T2" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="U2" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="V2" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="W2" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="X2" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y2" s="86" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z2" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA2" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB2" s="86" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC2" s="86" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD2" s="86" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE2" s="86" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF2" s="86" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG2" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH2" s="86" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI2" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ2" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK2" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL2" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM2" s="86" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN2" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO2" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP2" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="AQ2" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR2" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS2" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="AT2" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU2" s="86" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV2" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW2" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX2" s="86" t="s">
+        <v>203</v>
+      </c>
+      <c r="AY2" s="86" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ2" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA2" s="87" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="88">
+        <v>1</v>
+      </c>
+      <c r="C3" s="88">
+        <v>1</v>
+      </c>
+      <c r="D3" s="88">
+        <v>1</v>
+      </c>
+      <c r="E3" s="88">
+        <v>1</v>
+      </c>
+      <c r="F3" s="88">
+        <v>1</v>
+      </c>
+      <c r="G3" s="88">
+        <v>1</v>
+      </c>
+      <c r="H3" s="88">
+        <v>1</v>
+      </c>
+      <c r="I3" s="88">
+        <v>1</v>
+      </c>
+      <c r="J3" s="88">
+        <v>1</v>
+      </c>
+      <c r="K3" s="88">
+        <v>1</v>
+      </c>
+      <c r="L3" s="88">
+        <v>1</v>
+      </c>
+      <c r="M3" s="88">
+        <v>1</v>
+      </c>
+      <c r="N3" s="88">
+        <v>1</v>
+      </c>
+      <c r="O3" s="88">
+        <v>1</v>
+      </c>
+      <c r="P3" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="88">
+        <v>1</v>
+      </c>
+      <c r="R3" s="88">
+        <v>1</v>
+      </c>
+      <c r="S3" s="88">
+        <v>1</v>
+      </c>
+      <c r="T3" s="88">
+        <v>1</v>
+      </c>
+      <c r="U3" s="88">
+        <v>1</v>
+      </c>
+      <c r="V3" s="88">
+        <v>1</v>
+      </c>
+      <c r="W3" s="88">
+        <v>1</v>
+      </c>
+      <c r="X3" s="88">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="88">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="88">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="88">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>1</v>
+      </c>
+      <c r="R4" s="7">
+        <v>1</v>
+      </c>
+      <c r="S4" s="7">
+        <v>1</v>
+      </c>
+      <c r="T4" s="7">
+        <v>1</v>
+      </c>
+      <c r="U4" s="7">
+        <v>1</v>
+      </c>
+      <c r="V4" s="7">
+        <v>1</v>
+      </c>
+      <c r="W4" s="7">
+        <v>1</v>
+      </c>
+      <c r="X4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8">
+        <v>1</v>
+      </c>
+      <c r="P5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>1</v>
+      </c>
+      <c r="R5" s="8">
+        <v>1</v>
+      </c>
+      <c r="S5" s="8">
+        <v>1</v>
+      </c>
+      <c r="T5" s="8">
+        <v>1</v>
+      </c>
+      <c r="U5" s="8">
+        <v>1</v>
+      </c>
+      <c r="V5" s="8">
+        <v>1</v>
+      </c>
+      <c r="W5" s="8">
+        <v>1</v>
+      </c>
+      <c r="X5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="8">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="72"/>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="B9" s="73"/>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <v>Table of Disposal Operational Cost [USD/bbl]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <v>Table of Treatment Operational Cost [USD/bbl]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <v>Table of Reuse Operational Cost [USD/bbl]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <v>Table of Freshwater Souring Cost [USD/bbl]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="29">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="29">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="29">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="29">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="29">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="29">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", "hour","]")</f>
+        <v>Table of Trucking Hourly Cost [USD/hour]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="29">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="29">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="29">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="29">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="29">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="29">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="29">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="29">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="29">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="29">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="29">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="92">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="29">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="29">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="92">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="29">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="29">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="29">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="29">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="29">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="29">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="29">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="9">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="D3" s="29">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="D7" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="7">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="D8" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="C9" s="7">
+        <v>9</v>
+      </c>
+      <c r="D9" s="29">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="7">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="D10" s="29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="7">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="D11" s="29">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="C12" s="7">
+        <v>12</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="7">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="D13" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="C14" s="7">
+        <v>13</v>
+      </c>
+      <c r="D14" s="29">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="C15" s="7">
+        <v>13</v>
+      </c>
+      <c r="D15" s="29">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="C16" s="7">
+        <v>13</v>
+      </c>
+      <c r="D16" s="29">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="93">
+        <v>11.5</v>
+      </c>
+      <c r="C17" s="93">
+        <v>12</v>
+      </c>
+      <c r="D17" s="92">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D18" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="7">
+        <v>8</v>
+      </c>
+      <c r="C20" s="7">
+        <v>6</v>
+      </c>
+      <c r="D20" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="8">
+        <v>8</v>
+      </c>
+      <c r="C21" s="8">
+        <v>9</v>
+      </c>
+      <c r="D21" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27066,7 +27308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27109,7 +27351,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DB6341-94DE-401B-89F3-66EA9EB6DBB9}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.28515625" style="1"/>
+    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27160,7 +27449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27203,7 +27492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27302,7 +27591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27363,7 +27652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27406,7 +27695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBA4E88-E142-4CAA-9941-4EFBE822A9B8}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -34522,7 +34811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB463F82-A1C0-450F-A6BA-E327D67D2CCA}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -34579,7 +34868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDE49D4-5953-41A3-9445-43C5CEE52016}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -34622,54 +34911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DB6341-94DE-401B-89F3-66EA9EB6DBB9}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.28515625" style="1"/>
-    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451B8273-C388-463D-8494-0D66D9ED9BA0}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -34712,7 +34954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B45C9D-7A15-425D-8487-B88B27280274}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -34813,681 +35055,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A32EEB0-CDB8-48FA-AC3A-32F164C0112D}">
-  <sheetPr>
-    <tabColor rgb="FFAFF3DE"/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="D3" s="32">
-        <v>0.90500000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="32">
-        <v>0.90500000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>278</v>
-      </c>
-      <c r="C5" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="D5" s="32">
-        <v>0.90500000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="32">
-        <v>0.90500000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CCDB1D-7C9B-45C0-BC80-50ECEB2FE439}">
-  <sheetPr>
-    <tabColor rgb="FFAFF3DE"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
-        <v>277</v>
-      </c>
-      <c r="B3" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="84" t="s">
-        <v>278</v>
-      </c>
-      <c r="B4" s="37">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805001D5-70DF-464C-8122-7D31EBC77774}">
-  <sheetPr>
-    <tabColor rgb="FFAFF3DE"/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D5E840-A652-4014-8BA7-131503FECE29}">
-  <sheetPr>
-    <tabColor rgb="FFAFF3DE"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="37">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97A568C-E2FB-4ADF-84D0-ABF3E0446F9A}">
-  <sheetPr>
-    <tabColor rgb="FFAFF3DE"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" s="35">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" s="42">
-        <v>0.03</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB07E06-ED03-4572-9B3E-05DAA3F2CF42}">
-  <sheetPr>
-    <tabColor rgb="FFAFF3DE"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="B3" s="45">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="37">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23C97C0-70AD-4A71-BE9C-0931EDC97CA5}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="48">
-        <v>142277</v>
-      </c>
-      <c r="C3" s="48">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="49">
-        <v>140998</v>
-      </c>
-      <c r="C4" s="49">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="49">
-        <v>172490.2</v>
-      </c>
-      <c r="C5" s="49">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="49">
-        <v>257547</v>
-      </c>
-      <c r="C6" s="49">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="49">
-        <v>241833.8</v>
-      </c>
-      <c r="C7" s="48">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="49">
-        <v>188503.7</v>
-      </c>
-      <c r="C8" s="49">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="49">
-        <v>146716</v>
-      </c>
-      <c r="C9" s="49">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="49">
-        <v>216563</v>
-      </c>
-      <c r="C10" s="49">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="49">
-        <v>150626</v>
-      </c>
-      <c r="C11" s="48">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="49">
-        <v>247061</v>
-      </c>
-      <c r="C12" s="49">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="49">
-        <v>180968</v>
-      </c>
-      <c r="C13" s="49">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="49">
-        <v>195584</v>
-      </c>
-      <c r="C14" s="49">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="49">
-        <v>148655</v>
-      </c>
-      <c r="C15" s="49">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="49">
-        <v>185369</v>
-      </c>
-      <c r="C16" s="49">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="108">
-        <v>222724</v>
-      </c>
-      <c r="C17" s="49">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="49">
-        <v>165376</v>
-      </c>
-      <c r="C18" s="48">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="49">
-        <v>240977</v>
-      </c>
-      <c r="C19" s="49">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="49">
-        <v>192794</v>
-      </c>
-      <c r="C20" s="49">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="50">
-        <v>216769</v>
-      </c>
-      <c r="C21" s="49">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485401B3-8B00-41A4-BDC3-322B62874F13}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Initial Water Quality at Storage [mg/liter]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="48">
-        <v>150000</v>
-      </c>
-      <c r="C3" s="48">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="B4" s="50">
-        <v>150000</v>
-      </c>
-      <c r="C4" s="50">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -35571,6 +35138,705 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A32EEB0-CDB8-48FA-AC3A-32F164C0112D}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CCDB1D-7C9B-45C0-BC80-50ECEB2FE439}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="84" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805001D5-70DF-464C-8122-7D31EBC77774}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C085ECA6-7B3E-4F26-A39A-70D9F45A71B6}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>_xlfn.CONCAT( "Table with credit received for sending water to beneficial reuse [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table with credit received for sending water to beneficial reuse [USD/bbl]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D5E840-A652-4014-8BA7-131503FECE29}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97A568C-E2FB-4ADF-84D0-ABF3E0446F9A}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="42">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB07E06-ED03-4572-9B3E-05DAA3F2CF42}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="45">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="37">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23C97C0-70AD-4A71-BE9C-0931EDC97CA5}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="48">
+        <v>142277</v>
+      </c>
+      <c r="C3" s="48">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="49">
+        <v>140998</v>
+      </c>
+      <c r="C4" s="49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="49">
+        <v>172490.2</v>
+      </c>
+      <c r="C5" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="49">
+        <v>257547</v>
+      </c>
+      <c r="C6" s="49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="49">
+        <v>241833.8</v>
+      </c>
+      <c r="C7" s="48">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="49">
+        <v>188503.7</v>
+      </c>
+      <c r="C8" s="49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="49">
+        <v>146716</v>
+      </c>
+      <c r="C9" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="49">
+        <v>216563</v>
+      </c>
+      <c r="C10" s="49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="49">
+        <v>150626</v>
+      </c>
+      <c r="C11" s="48">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="49">
+        <v>247061</v>
+      </c>
+      <c r="C12" s="49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="49">
+        <v>180968</v>
+      </c>
+      <c r="C13" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="49">
+        <v>195584</v>
+      </c>
+      <c r="C14" s="49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="49">
+        <v>148655</v>
+      </c>
+      <c r="C15" s="49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="49">
+        <v>185369</v>
+      </c>
+      <c r="C16" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="108">
+        <v>222724</v>
+      </c>
+      <c r="C17" s="49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="49">
+        <v>165376</v>
+      </c>
+      <c r="C18" s="48">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="49">
+        <v>240977</v>
+      </c>
+      <c r="C19" s="49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="49">
+        <v>192794</v>
+      </c>
+      <c r="C20" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="50">
+        <v>216769</v>
+      </c>
+      <c r="C21" s="49">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485401B3-8B00-41A4-BDC3-322B62874F13}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <v>Table of Initial Water Quality at Storage [mg/liter]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="48">
+        <v>150000</v>
+      </c>
+      <c r="C3" s="48">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="50">
+        <v>150000</v>
+      </c>
+      <c r="C4" s="50">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C5F8D1-3580-447F-A30D-0D2BFC2160E3}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>

--- a/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
+++ b/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF29819-BA35-4CE5-939C-B6C7EC53FCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089CE096-EC15-48B1-B6C8-83BE79DDD390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" firstSheet="76" activeTab="82" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="88" activeTab="93" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -102,7 +102,15 @@
     <sheet name="PadWaterQuality" sheetId="104" r:id="rId87"/>
     <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId88"/>
     <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId89"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="129" r:id="rId90"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="130" r:id="rId91"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="131" r:id="rId92"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="132" r:id="rId93"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="133" r:id="rId94"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId95"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="74" hidden="1">#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="74">PipelineExpansionDistance!$O$3</definedName>
@@ -128,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3674" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="309">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1052,6 +1060,9 @@
   </si>
   <si>
     <t>Storage Sites to Beneficial Reuse Trucking Arcs [-]</t>
+  </si>
+  <si>
+    <t>pipeline_expansion_lead_time</t>
   </si>
 </sst>
 </file>
@@ -2063,6 +2074,271 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Overview"/>
+      <sheetName val="Schematic"/>
+      <sheetName val="Units"/>
+      <sheetName val="ProductionPads"/>
+      <sheetName val="ProductionTanks"/>
+      <sheetName val="CompletionsPads"/>
+      <sheetName val="SWDSites"/>
+      <sheetName val="FreshwaterSources"/>
+      <sheetName val="StorageSites"/>
+      <sheetName val="TreatmentSites"/>
+      <sheetName val="TreatmentTechnologies"/>
+      <sheetName val="ReuseOptions"/>
+      <sheetName val="NetworkNodes"/>
+      <sheetName val="PipelineDiameters"/>
+      <sheetName val="StorageCapacities"/>
+      <sheetName val="TreatmentCapacities"/>
+      <sheetName val="InjectionCapacities"/>
+      <sheetName val="PNA"/>
+      <sheetName val="CNA"/>
+      <sheetName val="CCA"/>
+      <sheetName val="NNA"/>
+      <sheetName val="NCA"/>
+      <sheetName val="NKA"/>
+      <sheetName val="NRA"/>
+      <sheetName val="NSA"/>
+      <sheetName val="SNA"/>
+      <sheetName val="FCA"/>
+      <sheetName val="RCA"/>
+      <sheetName val="RSA"/>
+      <sheetName val="SCA"/>
+      <sheetName val="RNA"/>
+      <sheetName val="PCT"/>
+      <sheetName val="FCT"/>
+      <sheetName val="PKT"/>
+      <sheetName val="CKT"/>
+      <sheetName val="CCT"/>
+      <sheetName val="CST"/>
+      <sheetName val="Elevation"/>
+      <sheetName val="CompletionsDemand"/>
+      <sheetName val="PadRates"/>
+      <sheetName val="FlowbackRates"/>
+      <sheetName val="WellPressure"/>
+      <sheetName val="InitialPipelineCapacity"/>
+      <sheetName val="InitialPipelineDiameters"/>
+      <sheetName val="InitialDisposalCapacity"/>
+      <sheetName val="InitialStorageCapacity"/>
+      <sheetName val="InitialTreatmentCapacity"/>
+      <sheetName val="FreshwaterSourcingAvailability"/>
+      <sheetName val="CompletionsPadStorage"/>
+      <sheetName val="PadOffloadingCapacity"/>
+      <sheetName val="NodeCapacities"/>
+      <sheetName val="DisposalOperatingCapacity"/>
+      <sheetName val="DisposalOperationalCost"/>
+      <sheetName val="TreatmentOperationalCost"/>
+      <sheetName val="ReuseOperationalCost"/>
+      <sheetName val="PipelineOperationalCost"/>
+      <sheetName val="FreshSourcingCost"/>
+      <sheetName val="TruckingHourlyCost"/>
+      <sheetName val="TruckingTime"/>
+      <sheetName val="DisposalExpansionCost"/>
+      <sheetName val="DisposalCapacityIncrements"/>
+      <sheetName val="StorageExpansionCost"/>
+      <sheetName val="StorageCapacityIncrements"/>
+      <sheetName val="TreatmentExpansionCost"/>
+      <sheetName val="TreatmentCapacityIncrements"/>
+      <sheetName val="PipelineCapexDistanceBased"/>
+      <sheetName val="PipelineExpansionDistance"/>
+      <sheetName val="PipelineCapexCapacityBased"/>
+      <sheetName val="PipelineCapacityIncrements"/>
+      <sheetName val="PipelineDiameterValues"/>
+      <sheetName val="TreatmentEfficiency"/>
+      <sheetName val="RemovalEfficiency"/>
+      <sheetName val="DesalinationTechnologies"/>
+      <sheetName val="DesalinationSites"/>
+      <sheetName val="CompletionsPadOutsideSystem"/>
+      <sheetName val="Hydraulics"/>
+      <sheetName val="Economics"/>
+      <sheetName val="PadWaterQuality"/>
+      <sheetName val="StorageInitialWaterQuality"/>
+      <sheetName val="PadStorageInitialWaterQuality"/>
+      <sheetName val="TreatmentExpansionLeadTime"/>
+      <sheetName val="DisposalExpansionLeadTime"/>
+      <sheetName val="StorageExpansionLeadTime"/>
+      <sheetName val="PipelineExpansionLeadTime_Dist"/>
+      <sheetName val="PipelineExpansionLeadTime_Capac"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>INDEX</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>VALUE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>volume</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>bbl</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>distance</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>mile</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>diameter</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>inch</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>concentration</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>mg/liter</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>currency</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>USD</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>time</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>day</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>pressure</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>psi</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>elevation</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>foot</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>decision period</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>week</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+      <sheetData sheetId="65"/>
+      <sheetData sheetId="66"/>
+      <sheetData sheetId="67"/>
+      <sheetData sheetId="68"/>
+      <sheetData sheetId="69"/>
+      <sheetData sheetId="70"/>
+      <sheetData sheetId="71"/>
+      <sheetData sheetId="72"/>
+      <sheetData sheetId="73"/>
+      <sheetData sheetId="74"/>
+      <sheetData sheetId="75"/>
+      <sheetData sheetId="76"/>
+      <sheetData sheetId="77"/>
+      <sheetData sheetId="78"/>
+      <sheetData sheetId="79"/>
+      <sheetData sheetId="80"/>
+      <sheetData sheetId="81"/>
+      <sheetData sheetId="82"/>
+      <sheetData sheetId="83"/>
+      <sheetData sheetId="84"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -35351,7 +35627,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -35963,4 +36239,167 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DB2954-C948-47D3-8551-66A5E543A667}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Treatment Expansion Lead Time [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Treatment Expansion Lead Time [weeks]</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="9:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="9:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="9:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I19" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DCF108-65D2-4920-AF63-41DE3C60BC9F}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Disposal Expansion Lead Time [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Disposal Expansion Lead Time [weeks]</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E838BDDE-4D1E-4BCC-805C-186192CF51E1}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks]</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E009F48F-F710-4F4F-876A-C3ABC3B5BD14}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s/",VLOOKUP("distance", [1]Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks/mile]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" s="42">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431BFE9B-561C-4E4E-9282-73406F634D63}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks]</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
+++ b/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089CE096-EC15-48B1-B6C8-83BE79DDD390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAFD3A5-AAFF-4870-9276-6BE85440D687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="88" activeTab="93" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -47,73 +47,72 @@
     <sheet name="SCA" sheetId="97" r:id="rId32"/>
     <sheet name="RNA" sheetId="62" r:id="rId33"/>
     <sheet name="ROA" sheetId="122" r:id="rId34"/>
-    <sheet name="PCT" sheetId="42" r:id="rId35"/>
-    <sheet name="FCT" sheetId="70" r:id="rId36"/>
-    <sheet name="PKT" sheetId="43" r:id="rId37"/>
-    <sheet name="CKT" sheetId="44" r:id="rId38"/>
-    <sheet name="CCT" sheetId="74" r:id="rId39"/>
-    <sheet name="CST" sheetId="64" r:id="rId40"/>
-    <sheet name="RST" sheetId="123" r:id="rId41"/>
-    <sheet name="ROT" sheetId="124" r:id="rId42"/>
-    <sheet name="SOT" sheetId="125" r:id="rId43"/>
-    <sheet name="Elevation" sheetId="117" r:id="rId44"/>
-    <sheet name="CompletionsDemand" sheetId="8" r:id="rId45"/>
-    <sheet name="PadRates" sheetId="65" r:id="rId46"/>
-    <sheet name="FlowbackRates" sheetId="75" r:id="rId47"/>
-    <sheet name="WellPressure" sheetId="118" r:id="rId48"/>
-    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId49"/>
-    <sheet name="InitialPipelineDiameters" sheetId="119" r:id="rId50"/>
-    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId51"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId52"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId53"/>
-    <sheet name="ReuseMinimum" sheetId="126" r:id="rId54"/>
-    <sheet name="ReuseCapacity" sheetId="127" r:id="rId55"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId56"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId57"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId58"/>
-    <sheet name="NodeCapacities" sheetId="107" r:id="rId59"/>
-    <sheet name="DisposalOperatingCapacity" sheetId="111" r:id="rId60"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId61"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId62"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId63"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId64"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId65"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId66"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId67"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId68"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId69"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId70"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId71"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId72"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId73"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId74"/>
-    <sheet name="PipelineExpansionDistance" sheetId="103" r:id="rId75"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="101" r:id="rId76"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="100" r:id="rId77"/>
-    <sheet name="PipelineDiameterValues" sheetId="93" r:id="rId78"/>
-    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId79"/>
-    <sheet name="RemovalEfficiency" sheetId="116" r:id="rId80"/>
-    <sheet name="DesalinationTechnologies" sheetId="112" r:id="rId81"/>
-    <sheet name="DesalinationSites" sheetId="114" r:id="rId82"/>
-    <sheet name="BeneficialReuseCredit" sheetId="128" r:id="rId83"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="113" r:id="rId84"/>
-    <sheet name="Hydraulics" sheetId="95" r:id="rId85"/>
-    <sheet name="Economics" sheetId="99" r:id="rId86"/>
-    <sheet name="PadWaterQuality" sheetId="104" r:id="rId87"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId88"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId89"/>
-    <sheet name="TreatmentExpansionLeadTime" sheetId="129" r:id="rId90"/>
-    <sheet name="DisposalExpansionLeadTime" sheetId="130" r:id="rId91"/>
-    <sheet name="StorageExpansionLeadTime" sheetId="131" r:id="rId92"/>
-    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="132" r:id="rId93"/>
-    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="133" r:id="rId94"/>
+    <sheet name="RKA" sheetId="134" r:id="rId35"/>
+    <sheet name="PCT" sheetId="42" r:id="rId36"/>
+    <sheet name="FCT" sheetId="70" r:id="rId37"/>
+    <sheet name="PKT" sheetId="43" r:id="rId38"/>
+    <sheet name="CKT" sheetId="44" r:id="rId39"/>
+    <sheet name="CCT" sheetId="74" r:id="rId40"/>
+    <sheet name="CST" sheetId="64" r:id="rId41"/>
+    <sheet name="RST" sheetId="123" r:id="rId42"/>
+    <sheet name="ROT" sheetId="124" r:id="rId43"/>
+    <sheet name="SOT" sheetId="125" r:id="rId44"/>
+    <sheet name="RKT" sheetId="135" r:id="rId45"/>
+    <sheet name="Elevation" sheetId="117" r:id="rId46"/>
+    <sheet name="CompletionsDemand" sheetId="8" r:id="rId47"/>
+    <sheet name="PadRates" sheetId="65" r:id="rId48"/>
+    <sheet name="FlowbackRates" sheetId="75" r:id="rId49"/>
+    <sheet name="WellPressure" sheetId="118" r:id="rId50"/>
+    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId51"/>
+    <sheet name="InitialPipelineDiameters" sheetId="119" r:id="rId52"/>
+    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId53"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId54"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId55"/>
+    <sheet name="ReuseMinimum" sheetId="126" r:id="rId56"/>
+    <sheet name="ReuseCapacity" sheetId="127" r:id="rId57"/>
+    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId58"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId59"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId60"/>
+    <sheet name="NodeCapacities" sheetId="107" r:id="rId61"/>
+    <sheet name="DisposalOperatingCapacity" sheetId="111" r:id="rId62"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId63"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId64"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId65"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId66"/>
+    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId67"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId68"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId69"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId70"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId71"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId72"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId73"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId74"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId75"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId76"/>
+    <sheet name="PipelineExpansionDistance" sheetId="103" r:id="rId77"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="101" r:id="rId78"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="100" r:id="rId79"/>
+    <sheet name="PipelineDiameterValues" sheetId="93" r:id="rId80"/>
+    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId81"/>
+    <sheet name="RemovalEfficiency" sheetId="116" r:id="rId82"/>
+    <sheet name="DesalinationTechnologies" sheetId="112" r:id="rId83"/>
+    <sheet name="DesalinationSites" sheetId="114" r:id="rId84"/>
+    <sheet name="BeneficialReuseCredit" sheetId="128" r:id="rId85"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="113" r:id="rId86"/>
+    <sheet name="Hydraulics" sheetId="95" r:id="rId87"/>
+    <sheet name="Economics" sheetId="99" r:id="rId88"/>
+    <sheet name="PadWaterQuality" sheetId="104" r:id="rId89"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId90"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId91"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="129" r:id="rId92"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="130" r:id="rId93"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="131" r:id="rId94"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="132" r:id="rId95"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="133" r:id="rId96"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId95"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="74" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="74">PipelineExpansionDistance!$O$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="76">PipelineExpansionDistance!$O$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -136,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3679" uniqueCount="311">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1050,9 +1049,6 @@
     <t>Storage Sites to Beneficial Reuse Piping Arcs [-]</t>
   </si>
   <si>
-    <t>Storage Sites to Beneficial Reuse Piping Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
-  </si>
-  <si>
     <t>Treatment to Storage Sites Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
   </si>
   <si>
@@ -1063,6 +1059,15 @@
   </si>
   <si>
     <t>pipeline_expansion_lead_time</t>
+  </si>
+  <si>
+    <t>Treatment Sites to Beneficial Reuse Piping Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>Treatment Sites to Disposal Piping Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>Treatment Sites to Disposal Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
   </si>
 </sst>
 </file>
@@ -2074,271 +2079,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Overview"/>
-      <sheetName val="Schematic"/>
-      <sheetName val="Units"/>
-      <sheetName val="ProductionPads"/>
-      <sheetName val="ProductionTanks"/>
-      <sheetName val="CompletionsPads"/>
-      <sheetName val="SWDSites"/>
-      <sheetName val="FreshwaterSources"/>
-      <sheetName val="StorageSites"/>
-      <sheetName val="TreatmentSites"/>
-      <sheetName val="TreatmentTechnologies"/>
-      <sheetName val="ReuseOptions"/>
-      <sheetName val="NetworkNodes"/>
-      <sheetName val="PipelineDiameters"/>
-      <sheetName val="StorageCapacities"/>
-      <sheetName val="TreatmentCapacities"/>
-      <sheetName val="InjectionCapacities"/>
-      <sheetName val="PNA"/>
-      <sheetName val="CNA"/>
-      <sheetName val="CCA"/>
-      <sheetName val="NNA"/>
-      <sheetName val="NCA"/>
-      <sheetName val="NKA"/>
-      <sheetName val="NRA"/>
-      <sheetName val="NSA"/>
-      <sheetName val="SNA"/>
-      <sheetName val="FCA"/>
-      <sheetName val="RCA"/>
-      <sheetName val="RSA"/>
-      <sheetName val="SCA"/>
-      <sheetName val="RNA"/>
-      <sheetName val="PCT"/>
-      <sheetName val="FCT"/>
-      <sheetName val="PKT"/>
-      <sheetName val="CKT"/>
-      <sheetName val="CCT"/>
-      <sheetName val="CST"/>
-      <sheetName val="Elevation"/>
-      <sheetName val="CompletionsDemand"/>
-      <sheetName val="PadRates"/>
-      <sheetName val="FlowbackRates"/>
-      <sheetName val="WellPressure"/>
-      <sheetName val="InitialPipelineCapacity"/>
-      <sheetName val="InitialPipelineDiameters"/>
-      <sheetName val="InitialDisposalCapacity"/>
-      <sheetName val="InitialStorageCapacity"/>
-      <sheetName val="InitialTreatmentCapacity"/>
-      <sheetName val="FreshwaterSourcingAvailability"/>
-      <sheetName val="CompletionsPadStorage"/>
-      <sheetName val="PadOffloadingCapacity"/>
-      <sheetName val="NodeCapacities"/>
-      <sheetName val="DisposalOperatingCapacity"/>
-      <sheetName val="DisposalOperationalCost"/>
-      <sheetName val="TreatmentOperationalCost"/>
-      <sheetName val="ReuseOperationalCost"/>
-      <sheetName val="PipelineOperationalCost"/>
-      <sheetName val="FreshSourcingCost"/>
-      <sheetName val="TruckingHourlyCost"/>
-      <sheetName val="TruckingTime"/>
-      <sheetName val="DisposalExpansionCost"/>
-      <sheetName val="DisposalCapacityIncrements"/>
-      <sheetName val="StorageExpansionCost"/>
-      <sheetName val="StorageCapacityIncrements"/>
-      <sheetName val="TreatmentExpansionCost"/>
-      <sheetName val="TreatmentCapacityIncrements"/>
-      <sheetName val="PipelineCapexDistanceBased"/>
-      <sheetName val="PipelineExpansionDistance"/>
-      <sheetName val="PipelineCapexCapacityBased"/>
-      <sheetName val="PipelineCapacityIncrements"/>
-      <sheetName val="PipelineDiameterValues"/>
-      <sheetName val="TreatmentEfficiency"/>
-      <sheetName val="RemovalEfficiency"/>
-      <sheetName val="DesalinationTechnologies"/>
-      <sheetName val="DesalinationSites"/>
-      <sheetName val="CompletionsPadOutsideSystem"/>
-      <sheetName val="Hydraulics"/>
-      <sheetName val="Economics"/>
-      <sheetName val="PadWaterQuality"/>
-      <sheetName val="StorageInitialWaterQuality"/>
-      <sheetName val="PadStorageInitialWaterQuality"/>
-      <sheetName val="TreatmentExpansionLeadTime"/>
-      <sheetName val="DisposalExpansionLeadTime"/>
-      <sheetName val="StorageExpansionLeadTime"/>
-      <sheetName val="PipelineExpansionLeadTime_Dist"/>
-      <sheetName val="PipelineExpansionLeadTime_Capac"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>INDEX</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>VALUE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>volume</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>bbl</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>distance</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>mile</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>diameter</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>inch</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>concentration</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>mg/liter</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>currency</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>USD</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>time</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>day</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>pressure</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>psi</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>elevation</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>foot</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>decision period</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>week</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2641,7 +2381,7 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7574,14 +7314,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -7590,6 +7330,29 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D2FFAB-ECD3-4BD0-9D84-85E4DB7922BD}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ED8ED-0A77-4974-A7C2-D2B875DA1401}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7768,7 +7531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F615298C-1D1C-4004-91BA-05C3C07D8B7C}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7899,7 +7662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE275C-BC38-44C0-8EFB-EA0A3ABCF1EE}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8149,7 +7912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90457C74-863B-4C67-B58B-571271FAEA0E}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8238,85 +8001,6 @@
       <c r="D6" s="9">
         <v>1</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37622F2B-1E4B-46C9-B210-3150CCBB5892}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="32"/>
-    </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8434,6 +8118,85 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37622F2B-1E4B-46C9-B210-3150CCBB5892}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A52059-0CB1-474F-ACFF-2997470BE1E9}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8477,7 +8240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7671FE8C-53C8-47E3-8F66-0CDFF992F8F0}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8496,7 +8259,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -8529,8 +8292,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA0172C-9C06-4AFA-A735-EDA51E2D806D}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD3490E-F249-4CEC-A79A-88A8E596A07B}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -8552,22 +8338,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD3490E-F249-4CEC-A79A-88A8E596A07B}">
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D5E22A-C49D-4697-9262-298442E9AD18}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -8575,7 +8361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789E7D10-DA84-4E98-A491-162D17B0E3FF}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -9115,7 +8901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FA210-6C83-4CC4-AF45-F41CDC53F769}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -9633,7 +9419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF4E1D-6CE0-4F02-8B9E-F2818C0A814C}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -13020,7 +12806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68666333-AE69-4574-92B2-6BE3A00DF612}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -13704,7 +13490,113 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FE18E-3C30-49FC-B6A0-0A6D3F02EBB0}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE870389-1558-469D-A4C0-FFF0CB6EF3E1}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -16993,7 +16885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE628BF-A05C-42C8-8EC7-63FF3B624ADC}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -19726,113 +19618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FE18E-3C30-49FC-B6A0-0A6D3F02EBB0}">
-  <dimension ref="A1:O15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AB3CAC-DE83-4E65-8BC7-386D18A19803}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -23979,7 +23765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -24038,7 +23824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -24090,7 +23876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -24150,7 +23936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71161610-124C-4EF0-9AD2-EA56457B2C52}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -24174,7 +23960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93770ED0-6BFC-4696-92DB-4CEBACB9D35D}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -24198,7 +23984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -25678,7 +25464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -25739,116 +25525,6 @@
       <c r="B6" s="37">
         <v>800000</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
-  <sheetPr>
-    <tabColor rgb="FFD9C6FE"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Pad Offloading Capacity [bbl/week]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="35">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="35">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="35">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="37">
-        <v>210000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D80780D-32E5-452A-A6C3-3B8E431097FA}">
-  <sheetPr>
-    <tabColor rgb="FFD9C6FE"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]", " (absence of node or empty cell signifies no max capacity)")</f>
-        <v>Table of Node Capacity Capacity [bbl/week] (absence of node or empty cell signifies no max capacity)</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25914,6 +25590,116 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
+  <sheetPr>
+    <tabColor rgb="FFD9C6FE"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <v>Table of Pad Offloading Capacity [bbl/week]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="35">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="35">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="35">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="37">
+        <v>210000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D80780D-32E5-452A-A6C3-3B8E431097FA}">
+  <sheetPr>
+    <tabColor rgb="FFD9C6FE"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]", " (absence of node or empty cell signifies no max capacity)")</f>
+        <v>Table of Node Capacity Capacity [bbl/week] (absence of node or empty cell signifies no max capacity)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F424B69F-B42E-4A8C-B24F-D4CE4D83DFA9}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -26595,7 +26381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -26655,7 +26441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -26758,7 +26544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -26825,7 +26611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -26868,7 +26654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -26967,7 +26753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27218,7 +27004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27519,109 +27305,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),")]")</f>
-        <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/week)]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="37">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Disposal Capacity Expansion Increments [bbl/week]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="37">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -27675,6 +27358,109 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),")]")</f>
+        <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/week)]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="37">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <v>Table of Disposal Capacity Expansion Increments [bbl/week]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27725,7 +27511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27768,7 +27554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27867,7 +27653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27928,7 +27714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27971,7 +27757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBA4E88-E142-4CAA-9941-4EFBE822A9B8}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -35087,7 +34873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB463F82-A1C0-450F-A6BA-E327D67D2CCA}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -35144,7 +34930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDE49D4-5953-41A3-9445-43C5CEE52016}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -35180,153 +34966,6 @@
       <c r="B3" s="37">
         <v>0</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451B8273-C388-463D-8494-0D66D9ED9BA0}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Pipeline Diameters [inch]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="37">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B45C9D-7A15-425D-8487-B88B27280274}">
-  <sheetPr>
-    <tabColor rgb="FFAFF3DE"/>
-  </sheetPr>
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3" s="32">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" s="32">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>278</v>
-      </c>
-      <c r="C5" s="32">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="33">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35414,6 +35053,153 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451B8273-C388-463D-8494-0D66D9ED9BA0}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <v>Table of Pipeline Diameters [inch]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B45C9D-7A15-425D-8487-B88B27280274}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="32">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="33">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A32EEB0-CDB8-48FA-AC3A-32F164C0112D}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35508,7 +35294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CCDB1D-7C9B-45C0-BC80-50ECEB2FE439}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35556,7 +35342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805001D5-70DF-464C-8122-7D31EBC77774}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35620,7 +35406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C085ECA6-7B3E-4F26-A39A-70D9F45A71B6}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35644,7 +35430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D5E840-A652-4014-8BA7-131503FECE29}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35708,7 +35494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97A568C-E2FB-4ADF-84D0-ABF3E0446F9A}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35756,7 +35542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB07E06-ED03-4572-9B3E-05DAA3F2CF42}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35804,7 +35590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23C97C0-70AD-4A71-BE9C-0931EDC97CA5}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -36049,149 +35835,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485401B3-8B00-41A4-BDC3-322B62874F13}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Initial Water Quality at Storage [mg/liter]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="48">
-        <v>150000</v>
-      </c>
-      <c r="C3" s="48">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="B4" s="50">
-        <v>150000</v>
-      </c>
-      <c r="C4" s="50">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C5F8D1-3580-447F-A30D-0D2BFC2160E3}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="49">
-        <v>150000</v>
-      </c>
-      <c r="C3" s="49">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="49">
-        <v>150000</v>
-      </c>
-      <c r="C4" s="49">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="49">
-        <v>150000</v>
-      </c>
-      <c r="C5" s="49">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="50">
-        <v>150000</v>
-      </c>
-      <c r="C6" s="50">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -36242,6 +35885,149 @@
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485401B3-8B00-41A4-BDC3-322B62874F13}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <v>Table of Initial Water Quality at Storage [mg/liter]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="48">
+        <v>150000</v>
+      </c>
+      <c r="C3" s="48">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="50">
+        <v>150000</v>
+      </c>
+      <c r="C4" s="50">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C5F8D1-3580-447F-A30D-0D2BFC2160E3}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="49">
+        <v>150000</v>
+      </c>
+      <c r="C3" s="49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="49">
+        <v>150000</v>
+      </c>
+      <c r="C4" s="49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="49">
+        <v>150000</v>
+      </c>
+      <c r="C5" s="49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="50">
+        <v>150000</v>
+      </c>
+      <c r="C6" s="50">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DB2954-C948-47D3-8551-66A5E543A667}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -36249,14 +36035,14 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Treatment Expansion Lead Time [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <f>_xlfn.CONCAT( "Table of Treatment Expansion Lead Time [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
         <v>Table of Treatment Expansion Lead Time [weeks]</v>
       </c>
       <c r="B1" s="1"/>
@@ -36282,7 +36068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DCF108-65D2-4920-AF63-41DE3C60BC9F}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -36290,14 +36076,14 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Disposal Expansion Lead Time [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <f>_xlfn.CONCAT( "Table of Disposal Expansion Lead Time [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
         <v>Table of Disposal Expansion Lead Time [weeks]</v>
       </c>
       <c r="B1" s="1"/>
@@ -36308,7 +36094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E838BDDE-4D1E-4BCC-805C-186192CF51E1}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -36316,15 +36102,15 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
-        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks]</v>
+        <f>_xlfn.CONCAT( "Table of Storage Expansion Lead Time [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Storage Expansion Lead Time [weeks]</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -36334,7 +36120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E009F48F-F710-4F4F-876A-C3ABC3B5BD14}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -36342,7 +36128,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36352,7 +36138,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s/",VLOOKUP("distance", [1]Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s/",VLOOKUP("distance", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks/mile]</v>
       </c>
     </row>
@@ -36366,7 +36152,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B3" s="42">
         <v>0</v>
@@ -36377,23 +36163,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431BFE9B-561C-4E4E-9282-73406F634D63}">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
-        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks]</v>
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Capacity Based [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Capacity Based [weeks]</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>

--- a/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
+++ b/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089CE096-EC15-48B1-B6C8-83BE79DDD390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94ECE4C6-9D9A-4B69-857E-C06F343A333E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="88" activeTab="93" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-12630" yWindow="-18255" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="83" activeTab="90" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -102,14 +102,16 @@
     <sheet name="PadWaterQuality" sheetId="104" r:id="rId87"/>
     <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId88"/>
     <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId89"/>
-    <sheet name="TreatmentExpansionLeadTime" sheetId="129" r:id="rId90"/>
-    <sheet name="DisposalExpansionLeadTime" sheetId="130" r:id="rId91"/>
-    <sheet name="StorageExpansionLeadTime" sheetId="131" r:id="rId92"/>
-    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="132" r:id="rId93"/>
-    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="133" r:id="rId94"/>
+    <sheet name="AirEmissionCoefficients" sheetId="134" r:id="rId90"/>
+    <sheet name="TreatmentEmissionCoefficients" sheetId="135" r:id="rId91"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="129" r:id="rId92"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="130" r:id="rId93"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="131" r:id="rId94"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="132" r:id="rId95"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="133" r:id="rId96"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId95"/>
+    <externalReference r:id="rId97"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="74" hidden="1">#REF!</definedName>
@@ -136,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="319">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1064,6 +1066,36 @@
   <si>
     <t>pipeline_expansion_lead_time</t>
   </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>PM 2.5</t>
+  </si>
+  <si>
+    <t>Trucking (g/hour)</t>
+  </si>
+  <si>
+    <t>Pipeline Operations (g/(bbl-mile))</t>
+  </si>
+  <si>
+    <t>Pipeline Installation (g/mile)</t>
+  </si>
+  <si>
+    <t>Disposal (g/bbl)</t>
+  </si>
+  <si>
+    <t>Storage (g/bbl-week)</t>
+  </si>
 </sst>
 </file>
 
@@ -1167,7 +1199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1665,6 +1697,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1672,7 +1717,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1948,6 +1993,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2643,15 +2709,15 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2663,7 +2729,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="15"/>
       <c r="C3" s="16" t="s">
         <v>7</v>
@@ -2677,7 +2743,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="15"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2689,7 +2755,7 @@
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="15"/>
       <c r="C5" s="17" t="s">
         <v>13</v>
@@ -2703,7 +2769,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="15"/>
       <c r="C6" s="17" t="s">
         <v>11</v>
@@ -2717,7 +2783,7 @@
       <c r="J6" s="17"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="15"/>
       <c r="C7" s="17" t="s">
         <v>8</v>
@@ -2731,7 +2797,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="15"/>
       <c r="C8" s="17" t="s">
         <v>9</v>
@@ -2745,7 +2811,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="15"/>
       <c r="C9" s="17" t="s">
         <v>10</v>
@@ -2759,7 +2825,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
       <c r="C10" s="17" t="s">
         <v>49</v>
@@ -2773,7 +2839,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="15"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -2785,7 +2851,7 @@
       <c r="J11" s="17"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="15"/>
       <c r="C12" s="17" t="s">
         <v>14</v>
@@ -2799,7 +2865,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="C13" s="17" t="s">
         <v>12</v>
@@ -2813,7 +2879,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="15"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -2825,7 +2891,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="15"/>
       <c r="C15" s="17" t="s">
         <v>15</v>
@@ -2839,7 +2905,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="15"/>
       <c r="C16" s="17" t="s">
         <v>16</v>
@@ -2853,7 +2919,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
       <c r="C17" s="17" t="s">
         <v>17</v>
@@ -2867,7 +2933,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="15"/>
       <c r="C18" s="17" t="s">
         <v>18</v>
@@ -2881,7 +2947,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -2893,7 +2959,7 @@
       <c r="J19" s="17"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="15"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -2905,7 +2971,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="15"/>
       <c r="C21" s="19" t="s">
         <v>19</v>
@@ -2921,7 +2987,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="15"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -2933,7 +2999,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
       <c r="C23" s="20" t="s">
         <v>21</v>
@@ -2949,7 +3015,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="15"/>
       <c r="C24" s="20" t="s">
         <v>22</v>
@@ -2965,7 +3031,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="18"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
       <c r="C25" s="20" t="s">
         <v>23</v>
@@ -2981,7 +3047,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="15"/>
       <c r="C26" s="20" t="s">
         <v>27</v>
@@ -2997,7 +3063,7 @@
       <c r="J26" s="17"/>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="20" t="s">
         <v>29</v>
@@ -3013,7 +3079,7 @@
       <c r="J27" s="17"/>
       <c r="K27" s="18"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="15"/>
       <c r="C28" s="20" t="s">
         <v>31</v>
@@ -3029,7 +3095,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="15"/>
       <c r="C29" s="20" t="s">
         <v>32</v>
@@ -3045,7 +3111,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="18"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="15"/>
       <c r="C30" s="20" t="s">
         <v>35</v>
@@ -3061,7 +3127,7 @@
       <c r="J30" s="17"/>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="15"/>
       <c r="C31" s="20" t="s">
         <v>37</v>
@@ -3080,7 +3146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="15"/>
       <c r="C32" s="20" t="s">
         <v>40</v>
@@ -3096,7 +3162,7 @@
       <c r="J32" s="17"/>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="15"/>
       <c r="C33" s="20" t="s">
         <v>39</v>
@@ -3112,7 +3178,7 @@
       <c r="J33" s="17"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="15"/>
       <c r="C34" s="20" t="s">
         <v>43</v>
@@ -3128,7 +3194,7 @@
       <c r="J34" s="17"/>
       <c r="K34" s="18"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="15"/>
       <c r="C35" s="20" t="s">
         <v>45</v>
@@ -3144,7 +3210,7 @@
       <c r="J35" s="17"/>
       <c r="K35" s="18"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="15"/>
       <c r="C36" s="20" t="s">
         <v>46</v>
@@ -3160,7 +3226,7 @@
       <c r="J36" s="17"/>
       <c r="K36" s="18"/>
     </row>
-    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -3203,30 +3269,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>128</v>
       </c>
@@ -3250,30 +3316,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>278</v>
       </c>
@@ -3281,10 +3347,10 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
     </row>
   </sheetData>
@@ -3302,30 +3368,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -3346,30 +3412,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -3377,137 +3443,137 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
     </row>
   </sheetData>
@@ -3526,30 +3592,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
     </row>
   </sheetData>
@@ -3567,25 +3633,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>89</v>
       </c>
@@ -3605,35 +3671,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
     </row>
   </sheetData>
@@ -3651,33 +3717,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
     </row>
   </sheetData>
@@ -3695,18 +3761,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>209</v>
       </c>
@@ -3795,7 +3861,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>112</v>
       </c>
@@ -3830,7 +3896,7 @@
       <c r="AB3" s="7"/>
       <c r="AC3" s="29"/>
     </row>
-    <row r="4" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
@@ -3865,7 +3931,7 @@
       <c r="AB4" s="7"/>
       <c r="AC4" s="29"/>
     </row>
-    <row r="5" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
@@ -3900,7 +3966,7 @@
       <c r="AB5" s="7"/>
       <c r="AC5" s="29"/>
     </row>
-    <row r="6" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>104</v>
       </c>
@@ -3935,7 +4001,7 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="29"/>
     </row>
-    <row r="7" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>105</v>
       </c>
@@ -3972,7 +4038,7 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="29"/>
     </row>
-    <row r="8" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
@@ -4007,7 +4073,7 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="29"/>
     </row>
-    <row r="9" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>107</v>
       </c>
@@ -4042,7 +4108,7 @@
       <c r="AB9" s="7"/>
       <c r="AC9" s="29"/>
     </row>
-    <row r="10" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
@@ -4077,7 +4143,7 @@
       <c r="AB10" s="7"/>
       <c r="AC10" s="29"/>
     </row>
-    <row r="11" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>109</v>
       </c>
@@ -4112,7 +4178,7 @@
       <c r="AB11" s="7"/>
       <c r="AC11" s="29"/>
     </row>
-    <row r="12" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
@@ -4147,7 +4213,7 @@
       <c r="AB12" s="7"/>
       <c r="AC12" s="29"/>
     </row>
-    <row r="13" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>111</v>
       </c>
@@ -4182,7 +4248,7 @@
       <c r="AB13" s="7"/>
       <c r="AC13" s="29"/>
     </row>
-    <row r="14" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -4217,7 +4283,7 @@
       </c>
       <c r="AC14" s="29"/>
     </row>
-    <row r="15" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>114</v>
       </c>
@@ -4252,7 +4318,7 @@
       </c>
       <c r="AC15" s="29"/>
     </row>
-    <row r="16" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>115</v>
       </c>
@@ -4287,7 +4353,7 @@
       </c>
       <c r="AC16" s="29"/>
     </row>
-    <row r="17" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
         <v>116</v>
       </c>
@@ -4338,18 +4404,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -4438,7 +4504,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -4473,7 +4539,7 @@
       <c r="AB3" s="30"/>
       <c r="AC3" s="32"/>
     </row>
-    <row r="4" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -4508,7 +4574,7 @@
       <c r="AB4" s="30"/>
       <c r="AC4" s="32"/>
     </row>
-    <row r="5" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -4543,7 +4609,7 @@
       <c r="AB5" s="30"/>
       <c r="AC5" s="32"/>
     </row>
-    <row r="6" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -4592,61 +4658,61 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" s="38"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="39"/>
       <c r="F21" s="39"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="40"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="40"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="40"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="40"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="40"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="40"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="40"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="40"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="40"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="40"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="40"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="40"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="40"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="40"/>
     </row>
   </sheetData>
@@ -4664,18 +4730,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -4692,7 +4758,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -4701,7 +4767,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -4710,7 +4776,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -4719,7 +4785,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -4743,18 +4809,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>216</v>
       </c>
@@ -4843,7 +4909,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>130</v>
       </c>
@@ -4878,7 +4944,7 @@
       <c r="AB3" s="7"/>
       <c r="AC3" s="29"/>
     </row>
-    <row r="4" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>80</v>
       </c>
@@ -4917,7 +4983,7 @@
       <c r="AB4" s="7"/>
       <c r="AC4" s="29"/>
     </row>
-    <row r="5" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>81</v>
       </c>
@@ -4954,7 +5020,7 @@
       <c r="AB5" s="7"/>
       <c r="AC5" s="29"/>
     </row>
-    <row r="6" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>82</v>
       </c>
@@ -4991,7 +5057,7 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="29"/>
     </row>
-    <row r="7" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>83</v>
       </c>
@@ -5028,7 +5094,7 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="29"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>84</v>
       </c>
@@ -5065,7 +5131,7 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="29"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>85</v>
       </c>
@@ -5104,7 +5170,7 @@
       <c r="AB9" s="7"/>
       <c r="AC9" s="29"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>86</v>
       </c>
@@ -5141,7 +5207,7 @@
       <c r="AB10" s="7"/>
       <c r="AC10" s="29"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>131</v>
       </c>
@@ -5180,7 +5246,7 @@
       <c r="AB11" s="7"/>
       <c r="AC11" s="29"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>132</v>
       </c>
@@ -5215,7 +5281,7 @@
       <c r="AB12" s="7"/>
       <c r="AC12" s="29"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>133</v>
       </c>
@@ -5252,7 +5318,7 @@
       <c r="AB13" s="7"/>
       <c r="AC13" s="29"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>134</v>
       </c>
@@ -5287,7 +5353,7 @@
       <c r="AB14" s="7"/>
       <c r="AC14" s="29"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>135</v>
       </c>
@@ -5324,7 +5390,7 @@
       <c r="AB15" s="7"/>
       <c r="AC15" s="29"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>136</v>
       </c>
@@ -5363,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>137</v>
       </c>
@@ -5400,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>138</v>
       </c>
@@ -5437,7 +5503,7 @@
       <c r="AB18" s="7"/>
       <c r="AC18" s="29"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>139</v>
       </c>
@@ -5472,7 +5538,7 @@
       <c r="AB19" s="7"/>
       <c r="AC19" s="29"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>140</v>
       </c>
@@ -5507,7 +5573,7 @@
       <c r="AB20" s="7"/>
       <c r="AC20" s="29"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>141</v>
       </c>
@@ -5544,7 +5610,7 @@
       <c r="AB21" s="7"/>
       <c r="AC21" s="29"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>142</v>
       </c>
@@ -5581,7 +5647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>143</v>
       </c>
@@ -5618,7 +5684,7 @@
       <c r="AB23" s="7"/>
       <c r="AC23" s="29"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>144</v>
       </c>
@@ -5657,7 +5723,7 @@
       <c r="AB24" s="7"/>
       <c r="AC24" s="29"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>145</v>
       </c>
@@ -5694,7 +5760,7 @@
       <c r="AB25" s="7"/>
       <c r="AC25" s="29"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>146</v>
       </c>
@@ -5731,7 +5797,7 @@
       <c r="AB26" s="7"/>
       <c r="AC26" s="29"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>147</v>
       </c>
@@ -5768,7 +5834,7 @@
       <c r="AB27" s="7"/>
       <c r="AC27" s="29"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>148</v>
       </c>
@@ -5805,7 +5871,7 @@
       </c>
       <c r="AC28" s="29"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>149</v>
       </c>
@@ -5840,7 +5906,7 @@
       <c r="AB29" s="7"/>
       <c r="AC29" s="29"/>
     </row>
-    <row r="30" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="27" t="s">
         <v>150</v>
       </c>
@@ -5895,18 +5961,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>216</v>
       </c>
@@ -5923,7 +5989,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>130</v>
       </c>
@@ -5932,7 +5998,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>80</v>
       </c>
@@ -5941,7 +6007,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>81</v>
       </c>
@@ -5950,7 +6016,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>82</v>
       </c>
@@ -5959,7 +6025,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>83</v>
       </c>
@@ -5968,7 +6034,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>84</v>
       </c>
@@ -5977,7 +6043,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>85</v>
       </c>
@@ -5986,7 +6052,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>86</v>
       </c>
@@ -5995,7 +6061,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>131</v>
       </c>
@@ -6004,7 +6070,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="29"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>132</v>
       </c>
@@ -6013,7 +6079,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="29"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>133</v>
       </c>
@@ -6022,7 +6088,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="29"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>134</v>
       </c>
@@ -6031,7 +6097,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="29"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>135</v>
       </c>
@@ -6040,7 +6106,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="29"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>136</v>
       </c>
@@ -6049,7 +6115,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="29"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>137</v>
       </c>
@@ -6058,7 +6124,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="29"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>138</v>
       </c>
@@ -6067,7 +6133,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="29"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>139</v>
       </c>
@@ -6076,7 +6142,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="29"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>140</v>
       </c>
@@ -6085,7 +6151,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="29"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>141</v>
       </c>
@@ -6094,7 +6160,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="29"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>142</v>
       </c>
@@ -6103,7 +6169,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="29"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>143</v>
       </c>
@@ -6112,7 +6178,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="29"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>144</v>
       </c>
@@ -6121,7 +6187,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="29"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>145</v>
       </c>
@@ -6130,7 +6196,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="29"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>146</v>
       </c>
@@ -6139,7 +6205,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="29"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>147</v>
       </c>
@@ -6148,7 +6214,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="29"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>148</v>
       </c>
@@ -6157,7 +6223,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>149</v>
       </c>
@@ -6166,7 +6232,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="29"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="27" t="s">
         <v>150</v>
       </c>
@@ -6190,18 +6256,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>216</v>
       </c>
@@ -6215,7 +6281,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>130</v>
       </c>
@@ -6225,7 +6291,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="29"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>80</v>
       </c>
@@ -6233,7 +6299,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="29"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>81</v>
       </c>
@@ -6241,7 +6307,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="29"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>82</v>
       </c>
@@ -6251,7 +6317,7 @@
       </c>
       <c r="D6" s="29"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>83</v>
       </c>
@@ -6259,7 +6325,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="29"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>84</v>
       </c>
@@ -6267,7 +6333,7 @@
       <c r="C8" s="7"/>
       <c r="D8" s="29"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>85</v>
       </c>
@@ -6275,7 +6341,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="29"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>86</v>
       </c>
@@ -6283,7 +6349,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="29"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>131</v>
       </c>
@@ -6291,7 +6357,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="29"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>132</v>
       </c>
@@ -6299,7 +6365,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="29"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>133</v>
       </c>
@@ -6307,7 +6373,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="29"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>134</v>
       </c>
@@ -6315,7 +6381,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="29"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>135</v>
       </c>
@@ -6323,7 +6389,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="29"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>136</v>
       </c>
@@ -6331,7 +6397,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="29"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>137</v>
       </c>
@@ -6339,7 +6405,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="29"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>138</v>
       </c>
@@ -6347,7 +6413,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="29"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>139</v>
       </c>
@@ -6357,7 +6423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>140</v>
       </c>
@@ -6367,7 +6433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>141</v>
       </c>
@@ -6375,7 +6441,7 @@
       <c r="C21" s="7"/>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>142</v>
       </c>
@@ -6383,7 +6449,7 @@
       <c r="C22" s="7"/>
       <c r="D22" s="29"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>143</v>
       </c>
@@ -6391,7 +6457,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="29"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>144</v>
       </c>
@@ -6399,7 +6465,7 @@
       <c r="C24" s="7"/>
       <c r="D24" s="29"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>145</v>
       </c>
@@ -6407,7 +6473,7 @@
       <c r="C25" s="7"/>
       <c r="D25" s="29"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>146</v>
       </c>
@@ -6415,7 +6481,7 @@
       <c r="C26" s="7"/>
       <c r="D26" s="29"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>147</v>
       </c>
@@ -6423,7 +6489,7 @@
       <c r="C27" s="7"/>
       <c r="D27" s="29"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>148</v>
       </c>
@@ -6431,7 +6497,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="29"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>149</v>
       </c>
@@ -6439,7 +6505,7 @@
       <c r="C29" s="7"/>
       <c r="D29" s="29"/>
     </row>
-    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="27" t="s">
         <v>150</v>
       </c>
@@ -6463,18 +6529,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>216</v>
       </c>
@@ -6485,56 +6551,56 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="29"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="29"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="29"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>83</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="29"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="29"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="29"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>86</v>
       </c>
@@ -6543,84 +6609,84 @@
       </c>
       <c r="C10" s="29"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="29"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="29"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>133</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="29"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>134</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="29"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>135</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="29"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>136</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="29"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>137</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="29"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>138</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="29"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>139</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="29"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>140</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="29"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>141</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="29"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>142</v>
       </c>
@@ -6629,56 +6695,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>143</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="29"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>144</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="29"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>145</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="29"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>146</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="29"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>147</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="29"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>148</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="29"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>149</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="29"/>
     </row>
-    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="27" t="s">
         <v>150</v>
       </c>
@@ -6701,19 +6767,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>216</v>
       </c>
@@ -6724,7 +6790,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>130</v>
       </c>
@@ -6748,9 +6814,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>302</v>
       </c>
@@ -6769,18 +6835,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>214</v>
       </c>
@@ -6788,13 +6854,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="32"/>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>285</v>
       </c>
@@ -6817,9 +6883,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>303</v>
       </c>
@@ -6838,18 +6904,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="20.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>213</v>
       </c>
@@ -6866,7 +6932,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>66</v>
       </c>
@@ -6875,7 +6941,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>67</v>
       </c>
@@ -6884,7 +6950,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>122</v>
       </c>
@@ -6893,7 +6959,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>123</v>
       </c>
@@ -6902,7 +6968,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>124</v>
       </c>
@@ -6911,7 +6977,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
@@ -6920,7 +6986,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
@@ -6929,7 +6995,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>127</v>
       </c>
@@ -6956,34 +7022,34 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="92.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="48" width="9.28515625" style="1"/>
-    <col min="49" max="49" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="92.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.33203125" style="1"/>
+    <col min="49" max="49" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>222</v>
       </c>
@@ -7003,7 +7069,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>236</v>
       </c>
@@ -7033,7 +7099,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>239</v>
       </c>
@@ -7057,7 +7123,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>243</v>
       </c>
@@ -7075,7 +7141,7 @@
       <c r="J5" s="60"/>
       <c r="K5" s="62"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>245</v>
       </c>
@@ -7099,7 +7165,7 @@
       <c r="J6" s="60"/>
       <c r="K6" s="62"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>248</v>
       </c>
@@ -7123,7 +7189,7 @@
       <c r="J7" s="60"/>
       <c r="K7" s="62"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>252</v>
       </c>
@@ -7165,7 +7231,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>294</v>
       </c>
@@ -7213,7 +7279,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>300</v>
       </c>
@@ -7255,7 +7321,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>255</v>
       </c>
@@ -7291,7 +7357,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AU12" s="1" t="s">
         <v>241</v>
       </c>
@@ -7340,18 +7406,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>215</v>
       </c>
@@ -7368,7 +7434,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>79</v>
       </c>
@@ -7377,7 +7443,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>128</v>
       </c>
@@ -7401,19 +7467,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>215</v>
       </c>
@@ -7424,7 +7490,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>79</v>
       </c>
@@ -7433,7 +7499,7 @@
       </c>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>128</v>
       </c>
@@ -7459,17 +7525,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>214</v>
       </c>
@@ -7486,7 +7552,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>78</v>
       </c>
@@ -7499,7 +7565,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>285</v>
       </c>
@@ -7512,7 +7578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
     </row>
   </sheetData>
@@ -7529,18 +7595,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>215</v>
       </c>
@@ -7548,13 +7614,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>128</v>
       </c>
@@ -7577,9 +7643,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>304</v>
       </c>
@@ -7598,18 +7664,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>209</v>
       </c>
@@ -7626,7 +7692,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>112</v>
       </c>
@@ -7635,7 +7701,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
@@ -7644,7 +7710,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
@@ -7653,7 +7719,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>104</v>
       </c>
@@ -7662,7 +7728,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>105</v>
       </c>
@@ -7671,7 +7737,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
@@ -7680,7 +7746,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>107</v>
       </c>
@@ -7689,7 +7755,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
@@ -7698,7 +7764,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>109</v>
       </c>
@@ -7707,7 +7773,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="29"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
@@ -7716,7 +7782,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="29"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>111</v>
       </c>
@@ -7725,7 +7791,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="29"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -7734,7 +7800,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="29"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>114</v>
       </c>
@@ -7743,7 +7809,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="29"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>115</v>
       </c>
@@ -7752,7 +7818,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="29"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
         <v>116</v>
       </c>
@@ -7777,18 +7843,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>213</v>
       </c>
@@ -7805,7 +7871,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>66</v>
       </c>
@@ -7816,7 +7882,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>67</v>
       </c>
@@ -7827,7 +7893,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>122</v>
       </c>
@@ -7838,7 +7904,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>123</v>
       </c>
@@ -7849,7 +7915,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>124</v>
       </c>
@@ -7860,7 +7926,7 @@
       </c>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
@@ -7871,7 +7937,7 @@
       </c>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
@@ -7882,7 +7948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>127</v>
       </c>
@@ -7908,18 +7974,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>209</v>
       </c>
@@ -7933,7 +7999,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>112</v>
       </c>
@@ -7947,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
@@ -7961,7 +8027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
@@ -7975,7 +8041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>104</v>
       </c>
@@ -7989,7 +8055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>105</v>
       </c>
@@ -8003,7 +8069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
@@ -8017,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>107</v>
       </c>
@@ -8031,7 +8097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
@@ -8045,7 +8111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>109</v>
       </c>
@@ -8059,7 +8125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
@@ -8073,7 +8139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>111</v>
       </c>
@@ -8087,7 +8153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -8101,7 +8167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>114</v>
       </c>
@@ -8115,7 +8181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>115</v>
       </c>
@@ -8129,7 +8195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
         <v>116</v>
       </c>
@@ -8158,18 +8224,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -8183,7 +8249,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -8197,7 +8263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -8211,7 +8277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -8225,7 +8291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -8254,18 +8320,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -8282,7 +8348,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -8291,7 +8357,7 @@
       <c r="D3" s="30"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -8300,7 +8366,7 @@
       <c r="D4" s="30"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -8309,7 +8375,7 @@
       <c r="D5" s="30"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -8333,95 +8399,95 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.33203125" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>116</v>
       </c>
@@ -8442,18 +8508,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -8464,7 +8530,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
@@ -8488,18 +8554,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>215</v>
       </c>
@@ -8510,14 +8576,14 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>128</v>
       </c>
@@ -8540,9 +8606,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>306</v>
       </c>
@@ -8563,9 +8629,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>307</v>
       </c>
@@ -8586,25 +8652,25 @@
       <selection activeCell="A3" sqref="A3:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.33203125" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="109" t="s">
         <v>208</v>
       </c>
@@ -8612,7 +8678,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="110" t="s">
         <v>112</v>
       </c>
@@ -8620,7 +8686,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="110" t="s">
         <v>3</v>
       </c>
@@ -8629,7 +8695,7 @@
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="110" t="s">
         <v>4</v>
       </c>
@@ -8637,7 +8703,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="110" t="s">
         <v>104</v>
       </c>
@@ -8645,7 +8711,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="110" t="s">
         <v>105</v>
       </c>
@@ -8653,7 +8719,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="110" t="s">
         <v>106</v>
       </c>
@@ -8661,7 +8727,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="110" t="s">
         <v>107</v>
       </c>
@@ -8669,7 +8735,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="110" t="s">
         <v>108</v>
       </c>
@@ -8677,7 +8743,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="110" t="s">
         <v>109</v>
       </c>
@@ -8685,7 +8751,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="110" t="s">
         <v>110</v>
       </c>
@@ -8693,7 +8759,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="110" t="s">
         <v>111</v>
       </c>
@@ -8701,7 +8767,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="110" t="s">
         <v>113</v>
       </c>
@@ -8709,7 +8775,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="110" t="s">
         <v>114</v>
       </c>
@@ -8717,7 +8783,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="110" t="s">
         <v>115</v>
       </c>
@@ -8725,7 +8791,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="110" t="s">
         <v>116</v>
       </c>
@@ -8733,7 +8799,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="110" t="s">
         <v>5</v>
       </c>
@@ -8741,7 +8807,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="110" t="s">
         <v>117</v>
       </c>
@@ -8749,7 +8815,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="110" t="s">
         <v>118</v>
       </c>
@@ -8757,7 +8823,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="110" t="s">
         <v>119</v>
       </c>
@@ -8765,7 +8831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="110" t="s">
         <v>121</v>
       </c>
@@ -8773,7 +8839,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="110" t="s">
         <v>51</v>
       </c>
@@ -8781,7 +8847,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="110" t="s">
         <v>120</v>
       </c>
@@ -8789,7 +8855,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="110" t="s">
         <v>66</v>
       </c>
@@ -8797,7 +8863,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="110" t="s">
         <v>67</v>
       </c>
@@ -8805,7 +8871,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="110" t="s">
         <v>122</v>
       </c>
@@ -8813,7 +8879,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="110" t="s">
         <v>123</v>
       </c>
@@ -8821,7 +8887,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="110" t="s">
         <v>124</v>
       </c>
@@ -8829,7 +8895,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="110" t="s">
         <v>125</v>
       </c>
@@ -8837,7 +8903,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="110" t="s">
         <v>126</v>
       </c>
@@ -8845,7 +8911,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="110" t="s">
         <v>127</v>
       </c>
@@ -8853,7 +8919,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="110" t="s">
         <v>78</v>
       </c>
@@ -8861,7 +8927,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="110" t="s">
         <v>285</v>
       </c>
@@ -8869,7 +8935,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="110" t="s">
         <v>79</v>
       </c>
@@ -8877,7 +8943,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="110" t="s">
         <v>128</v>
       </c>
@@ -8885,7 +8951,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="110" t="s">
         <v>130</v>
       </c>
@@ -8893,7 +8959,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="110" t="s">
         <v>80</v>
       </c>
@@ -8901,7 +8967,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="110" t="s">
         <v>81</v>
       </c>
@@ -8909,7 +8975,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="110" t="s">
         <v>82</v>
       </c>
@@ -8917,7 +8983,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="110" t="s">
         <v>83</v>
       </c>
@@ -8925,7 +8991,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="110" t="s">
         <v>84</v>
       </c>
@@ -8933,7 +8999,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="110" t="s">
         <v>85</v>
       </c>
@@ -8941,7 +9007,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="110" t="s">
         <v>86</v>
       </c>
@@ -8949,7 +9015,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="110" t="s">
         <v>131</v>
       </c>
@@ -8957,7 +9023,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="110" t="s">
         <v>132</v>
       </c>
@@ -8965,7 +9031,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="110" t="s">
         <v>133</v>
       </c>
@@ -8973,7 +9039,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="110" t="s">
         <v>134</v>
       </c>
@@ -8981,7 +9047,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="110" t="s">
         <v>135</v>
       </c>
@@ -8989,7 +9055,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="110" t="s">
         <v>136</v>
       </c>
@@ -8997,7 +9063,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="110" t="s">
         <v>137</v>
       </c>
@@ -9005,7 +9071,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="110" t="s">
         <v>138</v>
       </c>
@@ -9013,7 +9079,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="110" t="s">
         <v>139</v>
       </c>
@@ -9021,7 +9087,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="110" t="s">
         <v>140</v>
       </c>
@@ -9029,7 +9095,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="110" t="s">
         <v>141</v>
       </c>
@@ -9037,7 +9103,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="110" t="s">
         <v>142</v>
       </c>
@@ -9045,7 +9111,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="110" t="s">
         <v>143</v>
       </c>
@@ -9053,7 +9119,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="110" t="s">
         <v>144</v>
       </c>
@@ -9061,7 +9127,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="110" t="s">
         <v>145</v>
       </c>
@@ -9069,7 +9135,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="110" t="s">
         <v>146</v>
       </c>
@@ -9077,7 +9143,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="110" t="s">
         <v>147</v>
       </c>
@@ -9085,7 +9151,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="110" t="s">
         <v>148</v>
       </c>
@@ -9093,7 +9159,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="110" t="s">
         <v>149</v>
       </c>
@@ -9101,7 +9167,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="110" t="s">
         <v>150</v>
       </c>
@@ -9124,19 +9190,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$10, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -9297,7 +9363,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -9374,7 +9440,7 @@
       <c r="AZ3" s="34"/>
       <c r="BA3" s="35"/>
     </row>
-    <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -9459,7 +9525,7 @@
       <c r="AZ4" s="34"/>
       <c r="BA4" s="35"/>
     </row>
-    <row r="5" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -9532,7 +9598,7 @@
       <c r="AZ5" s="34"/>
       <c r="BA5" s="35"/>
     </row>
-    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -9623,7 +9689,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="F11" s="10"/>
     </row>
   </sheetData>
@@ -9642,22 +9708,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Production Rate Forecasts by Pads [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>209</v>
       </c>
@@ -9818,7 +9884,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>112</v>
       </c>
@@ -10031,7 +10097,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
@@ -10244,7 +10310,7 @@
         <v>22826.547097429568</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
@@ -10457,7 +10523,7 @@
         <v>20853.895411663008</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>104</v>
       </c>
@@ -10670,7 +10736,7 @@
         <v>12936.237157458605</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>105</v>
       </c>
@@ -10883,7 +10949,7 @@
         <v>10093.208985005042</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
@@ -11096,7 +11162,7 @@
         <v>25030.845039782169</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>107</v>
       </c>
@@ -11309,7 +11375,7 @@
         <v>21394.248548185435</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
@@ -11522,7 +11588,7 @@
         <v>19620.846059435706</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>109</v>
       </c>
@@ -11735,7 +11801,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
@@ -11948,7 +12014,7 @@
         <v>19056.740567787925</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>111</v>
       </c>
@@ -12161,7 +12227,7 @@
         <v>10459.139487125793</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -12374,7 +12440,7 @@
         <v>11226.398478579069</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>114</v>
       </c>
@@ -12587,7 +12653,7 @@
         <v>9948.0491512241751</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>115</v>
       </c>
@@ -12800,7 +12866,7 @@
         <v>13401.937357783543</v>
       </c>
     </row>
-    <row r="17" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
         <v>116</v>
       </c>
@@ -13029,22 +13095,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="6" customWidth="1"/>
-    <col min="2" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Flowback Rate Forecasts by Pads [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -13205,7 +13271,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -13382,7 +13448,7 @@
         <v>38495.240630664819</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -13487,7 +13553,7 @@
         <v>63660.095793436725</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -13637,7 +13703,7 @@
         <v>56817.904350212186</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -13694,7 +13760,7 @@
       <c r="AZ6" s="36"/>
       <c r="BA6" s="37"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="F8" s="10"/>
     </row>
   </sheetData>
@@ -13715,16 +13781,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>297</v>
       </c>
@@ -13741,7 +13807,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
@@ -13903,7 +13969,7 @@
       </c>
       <c r="BC2" s="1"/>
     </row>
-    <row r="3" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>112</v>
       </c>
@@ -14066,7 +14132,7 @@
       <c r="BB3" s="112"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
@@ -14229,7 +14295,7 @@
       <c r="BB4" s="112"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
@@ -14391,7 +14457,7 @@
       </c>
       <c r="BB5" s="112"/>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>104</v>
       </c>
@@ -14553,7 +14619,7 @@
       </c>
       <c r="BB6" s="112"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>105</v>
       </c>
@@ -14715,7 +14781,7 @@
       </c>
       <c r="BB7" s="112"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
@@ -14877,7 +14943,7 @@
       </c>
       <c r="BB8" s="112"/>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>107</v>
       </c>
@@ -15039,7 +15105,7 @@
       </c>
       <c r="BB9" s="112"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
@@ -15201,7 +15267,7 @@
       </c>
       <c r="BB10" s="112"/>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>109</v>
       </c>
@@ -15363,7 +15429,7 @@
       </c>
       <c r="BB11" s="112"/>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
@@ -15525,7 +15591,7 @@
       </c>
       <c r="BB12" s="112"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>111</v>
       </c>
@@ -15687,7 +15753,7 @@
       </c>
       <c r="BB13" s="112"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -15849,7 +15915,7 @@
       </c>
       <c r="BB14" s="112"/>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>114</v>
       </c>
@@ -16011,7 +16077,7 @@
       </c>
       <c r="BB15" s="112"/>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>115</v>
       </c>
@@ -16173,7 +16239,7 @@
       </c>
       <c r="BB16" s="112"/>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>116</v>
       </c>
@@ -16335,7 +16401,7 @@
       </c>
       <c r="BB17" s="112"/>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>5</v>
       </c>
@@ -16497,7 +16563,7 @@
       </c>
       <c r="BB18" s="112"/>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>117</v>
       </c>
@@ -16659,7 +16725,7 @@
       </c>
       <c r="BB19" s="112"/>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>118</v>
       </c>
@@ -16820,7 +16886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
         <v>119</v>
       </c>
@@ -16981,10 +17047,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B22" s="73"/>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B23" s="73"/>
     </row>
   </sheetData>
@@ -17002,22 +17068,22 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1"/>
-    <col min="2" max="5" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="33" width="9.28515625" style="1"/>
-    <col min="34" max="37" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="1"/>
+    <col min="2" max="5" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="33" width="9.33203125" style="1"/>
+    <col min="34" max="37" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites  [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Initial Pipeline Capacity between Sites  [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
@@ -17139,7 +17205,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -17187,7 +17253,7 @@
       <c r="AM3" s="34"/>
       <c r="AN3" s="35"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -17235,7 +17301,7 @@
       <c r="AM4" s="34"/>
       <c r="AN4" s="35"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -17283,7 +17349,7 @@
       <c r="AM5" s="34"/>
       <c r="AN5" s="35"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
         <v>119</v>
       </c>
@@ -17329,7 +17395,7 @@
       <c r="AM6" s="97"/>
       <c r="AN6" s="44"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>130</v>
       </c>
@@ -17377,7 +17443,7 @@
       <c r="AM7" s="34"/>
       <c r="AN7" s="35"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>80</v>
       </c>
@@ -17427,7 +17493,7 @@
       <c r="AM8" s="34"/>
       <c r="AN8" s="35"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>81</v>
       </c>
@@ -17477,7 +17543,7 @@
       <c r="AM9" s="34"/>
       <c r="AN9" s="35"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>82</v>
       </c>
@@ -17527,7 +17593,7 @@
       </c>
       <c r="AN10" s="35"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>83</v>
       </c>
@@ -17575,7 +17641,7 @@
       <c r="AM11" s="34"/>
       <c r="AN11" s="35"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>84</v>
       </c>
@@ -17623,7 +17689,7 @@
       <c r="AM12" s="34"/>
       <c r="AN12" s="35"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>85</v>
       </c>
@@ -17673,7 +17739,7 @@
       <c r="AM13" s="34"/>
       <c r="AN13" s="35"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>86</v>
       </c>
@@ -17723,7 +17789,7 @@
       <c r="AM14" s="34"/>
       <c r="AN14" s="35"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>131</v>
       </c>
@@ -17773,7 +17839,7 @@
       <c r="AM15" s="34"/>
       <c r="AN15" s="35"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>132</v>
       </c>
@@ -17821,7 +17887,7 @@
       <c r="AM16" s="34"/>
       <c r="AN16" s="35"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>133</v>
       </c>
@@ -17869,7 +17935,7 @@
       <c r="AM17" s="34"/>
       <c r="AN17" s="35"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>134</v>
       </c>
@@ -17915,7 +17981,7 @@
       <c r="AM18" s="34"/>
       <c r="AN18" s="35"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>135</v>
       </c>
@@ -17963,7 +18029,7 @@
       <c r="AM19" s="34"/>
       <c r="AN19" s="35"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>136</v>
       </c>
@@ -18013,7 +18079,7 @@
       <c r="AM20" s="34"/>
       <c r="AN20" s="35"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>137</v>
       </c>
@@ -18061,7 +18127,7 @@
       <c r="AM21" s="34"/>
       <c r="AN21" s="35"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>138</v>
       </c>
@@ -18109,7 +18175,7 @@
       <c r="AM22" s="34"/>
       <c r="AN22" s="35"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>139</v>
       </c>
@@ -18159,7 +18225,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>140</v>
       </c>
@@ -18207,7 +18273,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>141</v>
       </c>
@@ -18255,7 +18321,7 @@
       <c r="AM25" s="34"/>
       <c r="AN25" s="35"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>142</v>
       </c>
@@ -18305,7 +18371,7 @@
       <c r="AM26" s="34"/>
       <c r="AN26" s="35"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>143</v>
       </c>
@@ -18353,7 +18419,7 @@
       <c r="AM27" s="34"/>
       <c r="AN27" s="35"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>144</v>
       </c>
@@ -18403,7 +18469,7 @@
       <c r="AM28" s="34"/>
       <c r="AN28" s="35"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>145</v>
       </c>
@@ -18451,7 +18517,7 @@
       <c r="AM29" s="34"/>
       <c r="AN29" s="35"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>146</v>
       </c>
@@ -18499,7 +18565,7 @@
       <c r="AM30" s="34"/>
       <c r="AN30" s="35"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
         <v>147</v>
       </c>
@@ -18547,7 +18613,7 @@
       <c r="AM31" s="34"/>
       <c r="AN31" s="35"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
         <v>148</v>
       </c>
@@ -18595,7 +18661,7 @@
       <c r="AM32" s="34"/>
       <c r="AN32" s="35"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
         <v>149</v>
       </c>
@@ -18641,7 +18707,7 @@
       <c r="AM33" s="34"/>
       <c r="AN33" s="35"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
         <v>150</v>
       </c>
@@ -18691,7 +18757,7 @@
       <c r="AM34" s="97"/>
       <c r="AN34" s="44"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>79</v>
       </c>
@@ -18739,7 +18805,7 @@
       <c r="AM35" s="34"/>
       <c r="AN35" s="35"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
         <v>128</v>
       </c>
@@ -18787,7 +18853,7 @@
       <c r="AM36" s="97"/>
       <c r="AN36" s="44"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
         <v>78</v>
       </c>
@@ -18837,7 +18903,7 @@
       <c r="AM37" s="34"/>
       <c r="AN37" s="35"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
         <v>285</v>
       </c>
@@ -18887,7 +18953,7 @@
       <c r="AM38" s="97"/>
       <c r="AN38" s="44"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>121</v>
       </c>
@@ -18933,7 +18999,7 @@
       <c r="AM39" s="34"/>
       <c r="AN39" s="35"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>51</v>
       </c>
@@ -18979,7 +19045,7 @@
       <c r="AM40" s="34"/>
       <c r="AN40" s="35"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A41" s="43" t="s">
         <v>120</v>
       </c>
@@ -19027,7 +19093,7 @@
       <c r="AM41" s="97"/>
       <c r="AN41" s="44"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
         <v>112</v>
       </c>
@@ -19073,7 +19139,7 @@
       <c r="AM42" s="34"/>
       <c r="AN42" s="35"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>3</v>
       </c>
@@ -19119,7 +19185,7 @@
       <c r="AM43" s="34"/>
       <c r="AN43" s="35"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>4</v>
       </c>
@@ -19165,7 +19231,7 @@
       <c r="AM44" s="34"/>
       <c r="AN44" s="35"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>104</v>
       </c>
@@ -19211,7 +19277,7 @@
       <c r="AM45" s="34"/>
       <c r="AN45" s="35"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>105</v>
       </c>
@@ -19259,7 +19325,7 @@
       <c r="AM46" s="34"/>
       <c r="AN46" s="35"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>106</v>
       </c>
@@ -19305,7 +19371,7 @@
       <c r="AM47" s="34"/>
       <c r="AN47" s="35"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>107</v>
       </c>
@@ -19351,7 +19417,7 @@
       <c r="AM48" s="34"/>
       <c r="AN48" s="35"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>108</v>
       </c>
@@ -19397,7 +19463,7 @@
       <c r="AM49" s="34"/>
       <c r="AN49" s="35"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>109</v>
       </c>
@@ -19443,7 +19509,7 @@
       <c r="AM50" s="34"/>
       <c r="AN50" s="35"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
         <v>110</v>
       </c>
@@ -19489,7 +19555,7 @@
       <c r="AM51" s="34"/>
       <c r="AN51" s="35"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
         <v>111</v>
       </c>
@@ -19535,7 +19601,7 @@
       <c r="AM52" s="34"/>
       <c r="AN52" s="35"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>113</v>
       </c>
@@ -19581,7 +19647,7 @@
       <c r="AM53" s="34"/>
       <c r="AN53" s="35"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>114</v>
       </c>
@@ -19627,7 +19693,7 @@
       <c r="AM54" s="34"/>
       <c r="AN54" s="35"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>115</v>
       </c>
@@ -19673,7 +19739,7 @@
       <c r="AM55" s="34"/>
       <c r="AN55" s="35"/>
     </row>
-    <row r="56" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="27" t="s">
         <v>116</v>
       </c>
@@ -19734,40 +19800,40 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.33203125" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
@@ -19775,52 +19841,52 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>65</v>
       </c>
@@ -19846,20 +19912,20 @@
       <selection pane="bottomRight" activeCell="AM53" sqref="AM53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="18" width="9.28515625" style="1"/>
-    <col min="19" max="19" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="18" width="9.33203125" style="1"/>
+    <col min="19" max="19" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
@@ -20001,7 +20067,7 @@
       <c r="BG2" s="102"/>
       <c r="BH2" s="102"/>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -20069,7 +20135,7 @@
       <c r="BG3" s="7"/>
       <c r="BH3" s="7"/>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -20137,7 +20203,7 @@
       <c r="BG4" s="7"/>
       <c r="BH4" s="7"/>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -20205,7 +20271,7 @@
       <c r="BG5" s="7"/>
       <c r="BH5" s="7"/>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
         <v>119</v>
       </c>
@@ -20271,7 +20337,7 @@
       <c r="BG6" s="7"/>
       <c r="BH6" s="7"/>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>130</v>
       </c>
@@ -20339,7 +20405,7 @@
       <c r="BG7" s="7"/>
       <c r="BH7" s="7"/>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>80</v>
       </c>
@@ -20409,7 +20475,7 @@
       <c r="BG8" s="7"/>
       <c r="BH8" s="7"/>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>81</v>
       </c>
@@ -20479,7 +20545,7 @@
       <c r="BG9" s="7"/>
       <c r="BH9" s="7"/>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>82</v>
       </c>
@@ -20549,7 +20615,7 @@
       <c r="BG10" s="7"/>
       <c r="BH10" s="7"/>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>83</v>
       </c>
@@ -20617,7 +20683,7 @@
       <c r="BG11" s="7"/>
       <c r="BH11" s="7"/>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>84</v>
       </c>
@@ -20685,7 +20751,7 @@
       <c r="BG12" s="7"/>
       <c r="BH12" s="7"/>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>85</v>
       </c>
@@ -20755,7 +20821,7 @@
       <c r="BG13" s="7"/>
       <c r="BH13" s="7"/>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>86</v>
       </c>
@@ -20825,7 +20891,7 @@
       <c r="BG14" s="7"/>
       <c r="BH14" s="7"/>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>131</v>
       </c>
@@ -20895,7 +20961,7 @@
       <c r="BG15" s="7"/>
       <c r="BH15" s="7"/>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>132</v>
       </c>
@@ -20963,7 +21029,7 @@
       <c r="BG16" s="7"/>
       <c r="BH16" s="7"/>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>133</v>
       </c>
@@ -21031,7 +21097,7 @@
       <c r="BG17" s="7"/>
       <c r="BH17" s="7"/>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>134</v>
       </c>
@@ -21097,7 +21163,7 @@
       <c r="BG18" s="7"/>
       <c r="BH18" s="7"/>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>135</v>
       </c>
@@ -21165,7 +21231,7 @@
       <c r="BG19" s="7"/>
       <c r="BH19" s="7"/>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>136</v>
       </c>
@@ -21235,7 +21301,7 @@
       <c r="BG20" s="7"/>
       <c r="BH20" s="7"/>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>137</v>
       </c>
@@ -21303,7 +21369,7 @@
       <c r="BG21" s="7"/>
       <c r="BH21" s="7"/>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>138</v>
       </c>
@@ -21371,7 +21437,7 @@
       <c r="BG22" s="7"/>
       <c r="BH22" s="7"/>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>139</v>
       </c>
@@ -21441,7 +21507,7 @@
       <c r="BG23" s="7"/>
       <c r="BH23" s="7"/>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>140</v>
       </c>
@@ -21509,7 +21575,7 @@
       <c r="BG24" s="7"/>
       <c r="BH24" s="7"/>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>141</v>
       </c>
@@ -21577,7 +21643,7 @@
       <c r="BG25" s="7"/>
       <c r="BH25" s="7"/>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>142</v>
       </c>
@@ -21647,7 +21713,7 @@
       <c r="BG26" s="7"/>
       <c r="BH26" s="7"/>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>143</v>
       </c>
@@ -21715,7 +21781,7 @@
       <c r="BG27" s="7"/>
       <c r="BH27" s="7"/>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>144</v>
       </c>
@@ -21785,7 +21851,7 @@
       <c r="BG28" s="7"/>
       <c r="BH28" s="7"/>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>145</v>
       </c>
@@ -21853,7 +21919,7 @@
       <c r="BG29" s="7"/>
       <c r="BH29" s="7"/>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>146</v>
       </c>
@@ -21921,7 +21987,7 @@
       <c r="BG30" s="7"/>
       <c r="BH30" s="7"/>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
         <v>147</v>
       </c>
@@ -21989,7 +22055,7 @@
       <c r="BG31" s="7"/>
       <c r="BH31" s="7"/>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
         <v>148</v>
       </c>
@@ -22057,7 +22123,7 @@
       <c r="BG32" s="7"/>
       <c r="BH32" s="7"/>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
         <v>149</v>
       </c>
@@ -22123,7 +22189,7 @@
       <c r="BG33" s="7"/>
       <c r="BH33" s="7"/>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
         <v>150</v>
       </c>
@@ -22193,7 +22259,7 @@
       <c r="BG34" s="7"/>
       <c r="BH34" s="7"/>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>79</v>
       </c>
@@ -22261,7 +22327,7 @@
       <c r="BG35" s="7"/>
       <c r="BH35" s="7"/>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
         <v>128</v>
       </c>
@@ -22329,7 +22395,7 @@
       <c r="BG36" s="7"/>
       <c r="BH36" s="7"/>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
         <v>78</v>
       </c>
@@ -22399,7 +22465,7 @@
       <c r="BG37" s="7"/>
       <c r="BH37" s="7"/>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
         <v>285</v>
       </c>
@@ -22469,7 +22535,7 @@
       <c r="BG38" s="7"/>
       <c r="BH38" s="7"/>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>121</v>
       </c>
@@ -22535,7 +22601,7 @@
       <c r="BG39" s="7"/>
       <c r="BH39" s="7"/>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>51</v>
       </c>
@@ -22601,7 +22667,7 @@
       <c r="BG40" s="7"/>
       <c r="BH40" s="7"/>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A41" s="43" t="s">
         <v>120</v>
       </c>
@@ -22669,7 +22735,7 @@
       <c r="BG41" s="7"/>
       <c r="BH41" s="7"/>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
         <v>112</v>
       </c>
@@ -22735,7 +22801,7 @@
       <c r="BG42" s="7"/>
       <c r="BH42" s="7"/>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>3</v>
       </c>
@@ -22801,7 +22867,7 @@
       <c r="BG43" s="7"/>
       <c r="BH43" s="7"/>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>4</v>
       </c>
@@ -22867,7 +22933,7 @@
       <c r="BG44" s="7"/>
       <c r="BH44" s="7"/>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>104</v>
       </c>
@@ -22933,7 +22999,7 @@
       <c r="BG45" s="7"/>
       <c r="BH45" s="7"/>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>105</v>
       </c>
@@ -23001,7 +23067,7 @@
       <c r="BG46" s="7"/>
       <c r="BH46" s="7"/>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>106</v>
       </c>
@@ -23067,7 +23133,7 @@
       <c r="BG47" s="7"/>
       <c r="BH47" s="7"/>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>107</v>
       </c>
@@ -23133,7 +23199,7 @@
       <c r="BG48" s="7"/>
       <c r="BH48" s="7"/>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>108</v>
       </c>
@@ -23201,7 +23267,7 @@
       <c r="BG49" s="7"/>
       <c r="BH49" s="7"/>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>109</v>
       </c>
@@ -23267,7 +23333,7 @@
       <c r="BG50" s="7"/>
       <c r="BH50" s="7"/>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
         <v>110</v>
       </c>
@@ -23333,7 +23399,7 @@
       <c r="BG51" s="7"/>
       <c r="BH51" s="7"/>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
         <v>111</v>
       </c>
@@ -23399,7 +23465,7 @@
       <c r="BG52" s="7"/>
       <c r="BH52" s="7"/>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>113</v>
       </c>
@@ -23465,7 +23531,7 @@
       <c r="BG53" s="7"/>
       <c r="BH53" s="7"/>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>114</v>
       </c>
@@ -23531,7 +23597,7 @@
       <c r="BG54" s="7"/>
       <c r="BH54" s="7"/>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>115</v>
       </c>
@@ -23597,7 +23663,7 @@
       <c r="BG55" s="7"/>
       <c r="BH55" s="7"/>
     </row>
-    <row r="56" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:60" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="27" t="s">
         <v>116</v>
       </c>
@@ -23663,7 +23729,7 @@
       <c r="BG56" s="7"/>
       <c r="BH56" s="7"/>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A57" s="26"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -23725,7 +23791,7 @@
       <c r="BG57" s="7"/>
       <c r="BH57" s="7"/>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A58" s="26"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -23787,7 +23853,7 @@
       <c r="BG58" s="7"/>
       <c r="BH58" s="7"/>
     </row>
-    <row r="59" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A59" s="26"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -23849,7 +23915,7 @@
       <c r="BG59" s="7"/>
       <c r="BH59" s="7"/>
     </row>
-    <row r="60" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A60" s="26"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -23911,7 +23977,7 @@
       <c r="BG60" s="7"/>
       <c r="BH60" s="7"/>
     </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A61" s="26"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -23988,19 +24054,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity  [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Initial Disposal Capacity  [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>212</v>
       </c>
@@ -24008,7 +24074,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>121</v>
       </c>
@@ -24016,7 +24082,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>51</v>
       </c>
@@ -24024,7 +24090,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>120</v>
       </c>
@@ -24047,20 +24113,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Initial Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>214</v>
       </c>
@@ -24068,7 +24134,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>78</v>
       </c>
@@ -24076,7 +24142,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>285</v>
       </c>
@@ -24099,19 +24165,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Initial Treatment Capacity [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>215</v>
       </c>
@@ -24122,7 +24188,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>79</v>
       </c>
@@ -24133,7 +24199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>128</v>
       </c>
@@ -24161,9 +24227,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>_xlfn.CONCAT( "Table of Beneficial Reuse minimum required flow [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Beneficial Reuse minimum required flow [bbl/week]</v>
@@ -24185,9 +24251,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>_xlfn.CONCAT( "Table of Beneficial Reuse Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Beneficial Reuse Capacity [bbl/week]</v>
@@ -24207,19 +24273,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Freshwater Sourcing Availability [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>213</v>
       </c>
@@ -24380,7 +24446,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>66</v>
       </c>
@@ -24541,7 +24607,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>67</v>
       </c>
@@ -24702,7 +24768,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>122</v>
       </c>
@@ -24863,7 +24929,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>123</v>
       </c>
@@ -25024,7 +25090,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="7" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>124</v>
       </c>
@@ -25185,7 +25251,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="8" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
@@ -25346,7 +25412,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
@@ -25507,7 +25573,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>127</v>
       </c>
@@ -25668,7 +25734,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="F15" s="10"/>
     </row>
   </sheetData>
@@ -25687,20 +25753,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Completions Pad Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -25708,7 +25774,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -25716,7 +25782,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -25724,7 +25790,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -25732,7 +25798,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -25755,19 +25821,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Pad Offloading Capacity [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -25775,7 +25841,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -25783,7 +25849,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -25791,7 +25857,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -25799,7 +25865,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -25823,20 +25889,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]", " (absence of node or empty cell signifies no max capacity)")</f>
         <v>Table of Node Capacity Capacity [bbl/week] (absence of node or empty cell signifies no max capacity)</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
@@ -25844,7 +25910,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>130</v>
       </c>
@@ -25865,30 +25931,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>117</v>
       </c>
@@ -25896,12 +25962,12 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>119</v>
       </c>
@@ -25922,20 +25988,20 @@
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
     <col min="2" max="53" width="9" style="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.28515625" style="1"/>
+    <col min="54" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Operating Capacity of Disposal Site [%]")</f>
         <v>Operating Capacity of Disposal Site [%]</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
         <v>212</v>
       </c>
@@ -26096,7 +26162,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>121</v>
       </c>
@@ -26257,7 +26323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>51</v>
       </c>
@@ -26418,7 +26484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:56" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>120</v>
       </c>
@@ -26580,10 +26646,10 @@
       </c>
       <c r="BD5" s="72"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B9" s="73"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
         <v>279</v>
       </c>
@@ -26604,19 +26670,19 @@
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Disposal Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>212</v>
       </c>
@@ -26624,7 +26690,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>121</v>
       </c>
@@ -26632,7 +26698,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>51</v>
       </c>
@@ -26640,7 +26706,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>120</v>
       </c>
@@ -26664,20 +26730,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Treatment Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>215</v>
       </c>
@@ -26688,7 +26754,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>79</v>
       </c>
@@ -26699,7 +26765,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>128</v>
       </c>
@@ -26710,7 +26776,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>79</v>
       </c>
@@ -26721,7 +26787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>128</v>
       </c>
@@ -26732,22 +26798,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -26767,19 +26833,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Reuse Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -26787,7 +26853,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -26795,7 +26861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -26803,7 +26869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -26811,7 +26877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -26834,20 +26900,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="1"/>
+    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>208</v>
       </c>
@@ -26855,7 +26921,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>130</v>
       </c>
@@ -26877,19 +26943,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Freshwater Souring Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>213</v>
       </c>
@@ -26897,7 +26963,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>66</v>
       </c>
@@ -26905,7 +26971,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>67</v>
       </c>
@@ -26913,7 +26979,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>122</v>
       </c>
@@ -26921,7 +26987,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>123</v>
       </c>
@@ -26929,7 +26995,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>124</v>
       </c>
@@ -26937,7 +27003,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
@@ -26945,7 +27011,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
@@ -26953,7 +27019,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>127</v>
       </c>
@@ -26976,18 +27042,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", "hour","]")</f>
         <v>Table of Trucking Hourly Cost [USD/hour]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
@@ -26995,7 +27061,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>112</v>
       </c>
@@ -27003,7 +27069,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
@@ -27011,7 +27077,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
@@ -27019,7 +27085,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>104</v>
       </c>
@@ -27027,7 +27093,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>105</v>
       </c>
@@ -27035,7 +27101,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
@@ -27043,7 +27109,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>107</v>
       </c>
@@ -27051,7 +27117,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
@@ -27059,7 +27125,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>109</v>
       </c>
@@ -27067,7 +27133,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
@@ -27075,7 +27141,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>111</v>
       </c>
@@ -27083,7 +27149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -27091,7 +27157,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>114</v>
       </c>
@@ -27099,7 +27165,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>115</v>
       </c>
@@ -27107,7 +27173,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>116</v>
       </c>
@@ -27115,7 +27181,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>5</v>
       </c>
@@ -27123,7 +27189,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>117</v>
       </c>
@@ -27131,7 +27197,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>118</v>
       </c>
@@ -27139,7 +27205,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
         <v>119</v>
       </c>
@@ -27147,7 +27213,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>66</v>
       </c>
@@ -27155,7 +27221,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>67</v>
       </c>
@@ -27163,7 +27229,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>122</v>
       </c>
@@ -27171,7 +27237,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>123</v>
       </c>
@@ -27179,7 +27245,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>124</v>
       </c>
@@ -27187,7 +27253,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>125</v>
       </c>
@@ -27195,7 +27261,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>126</v>
       </c>
@@ -27203,7 +27269,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="27" t="s">
         <v>127</v>
       </c>
@@ -27227,17 +27293,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
@@ -27251,7 +27317,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>112</v>
       </c>
@@ -27265,7 +27331,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
@@ -27279,7 +27345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
@@ -27293,7 +27359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>104</v>
       </c>
@@ -27307,7 +27373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>105</v>
       </c>
@@ -27321,7 +27387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
@@ -27335,7 +27401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>107</v>
       </c>
@@ -27349,7 +27415,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
@@ -27363,7 +27429,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>109</v>
       </c>
@@ -27377,7 +27443,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
@@ -27391,7 +27457,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>111</v>
       </c>
@@ -27405,7 +27471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -27419,7 +27485,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>114</v>
       </c>
@@ -27433,7 +27499,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>115</v>
       </c>
@@ -27447,7 +27513,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>116</v>
       </c>
@@ -27461,7 +27527,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>5</v>
       </c>
@@ -27475,7 +27541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>117</v>
       </c>
@@ -27489,7 +27555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>118</v>
       </c>
@@ -27503,7 +27569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
         <v>119</v>
       </c>
@@ -27533,19 +27599,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),")]")</f>
         <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/week)]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>212</v>
       </c>
@@ -27553,7 +27619,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>121</v>
       </c>
@@ -27561,7 +27627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>51</v>
       </c>
@@ -27569,7 +27635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>120</v>
       </c>
@@ -27593,19 +27659,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="21.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>219</v>
       </c>
@@ -27613,7 +27679,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>92</v>
       </c>
@@ -27636,33 +27702,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.28515625" style="1"/>
-    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.33203125" style="1"/>
+    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>120</v>
       </c>
@@ -27683,19 +27749,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>214</v>
       </c>
@@ -27703,7 +27769,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>78</v>
       </c>
@@ -27711,7 +27777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>285</v>
       </c>
@@ -27734,19 +27800,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Increments [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>218</v>
       </c>
@@ -27754,7 +27820,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>89</v>
       </c>
@@ -27777,21 +27843,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="1"/>
+    <col min="5" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),")]")</f>
         <v>Table of Treatment Capacity Expansion Cost [USD/(bbl/week)]</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>215</v>
       </c>
@@ -27805,7 +27871,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>79</v>
       </c>
@@ -27819,7 +27885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>128</v>
       </c>
@@ -27833,7 +27899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>79</v>
       </c>
@@ -27847,7 +27913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>128</v>
       </c>
@@ -27876,20 +27942,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments  [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Treatment Capacity Expansion Increments  [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>220</v>
       </c>
@@ -27900,7 +27966,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>277</v>
       </c>
@@ -27911,7 +27977,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>278</v>
       </c>
@@ -27937,12 +28003,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$10, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$10, 2, FALSE),")]")</f>
         <v>Pipeline Expansion Cost [USD/(inch-mile)]</v>
@@ -27950,7 +28016,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>222</v>
       </c>
@@ -27958,7 +28024,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>226</v>
       </c>
@@ -27980,9 +28046,9 @@
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Distances [mile]</v>
@@ -27990,7 +28056,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
@@ -28112,7 +28178,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>112</v>
       </c>
@@ -28232,7 +28298,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
@@ -28352,7 +28418,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
@@ -28472,7 +28538,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>104</v>
       </c>
@@ -28592,7 +28658,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>105</v>
       </c>
@@ -28712,7 +28778,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
@@ -28832,7 +28898,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>107</v>
       </c>
@@ -28952,7 +29018,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
@@ -29072,7 +29138,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>109</v>
       </c>
@@ -29192,7 +29258,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
@@ -29312,7 +29378,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>111</v>
       </c>
@@ -29432,7 +29498,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -29552,7 +29618,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>114</v>
       </c>
@@ -29672,7 +29738,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>115</v>
       </c>
@@ -29792,7 +29858,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>116</v>
       </c>
@@ -29912,7 +29978,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>5</v>
       </c>
@@ -30028,7 +30094,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>117</v>
       </c>
@@ -30144,7 +30210,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>118</v>
       </c>
@@ -30262,7 +30328,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
         <v>119</v>
       </c>
@@ -30378,7 +30444,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>130</v>
       </c>
@@ -30498,7 +30564,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>80</v>
       </c>
@@ -30618,7 +30684,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>81</v>
       </c>
@@ -30738,7 +30804,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>82</v>
       </c>
@@ -30858,7 +30924,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>83</v>
       </c>
@@ -30978,7 +31044,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>84</v>
       </c>
@@ -31098,7 +31164,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>85</v>
       </c>
@@ -31218,7 +31284,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>86</v>
       </c>
@@ -31338,7 +31404,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>131</v>
       </c>
@@ -31458,7 +31524,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
         <v>132</v>
       </c>
@@ -31576,7 +31642,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
         <v>133</v>
       </c>
@@ -31696,7 +31762,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
         <v>134</v>
       </c>
@@ -31812,7 +31878,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
         <v>135</v>
       </c>
@@ -31932,7 +31998,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>136</v>
       </c>
@@ -32052,7 +32118,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>137</v>
       </c>
@@ -32172,7 +32238,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
         <v>138</v>
       </c>
@@ -32292,7 +32358,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
         <v>139</v>
       </c>
@@ -32412,7 +32478,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>140</v>
       </c>
@@ -32532,7 +32598,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>141</v>
       </c>
@@ -32652,7 +32718,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
         <v>142</v>
       </c>
@@ -32772,7 +32838,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
         <v>143</v>
       </c>
@@ -32892,7 +32958,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>144</v>
       </c>
@@ -33012,7 +33078,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>145</v>
       </c>
@@ -33130,7 +33196,7 @@
       </c>
       <c r="AN44" s="29"/>
     </row>
-    <row r="45" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>146</v>
       </c>
@@ -33250,7 +33316,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>147</v>
       </c>
@@ -33370,7 +33436,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>148</v>
       </c>
@@ -33490,7 +33556,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>149</v>
       </c>
@@ -33610,7 +33676,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="49" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="43" t="s">
         <v>150</v>
       </c>
@@ -33730,7 +33796,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="50" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>78</v>
       </c>
@@ -33848,7 +33914,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="51" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="43" t="s">
         <v>285</v>
       </c>
@@ -33898,7 +33964,7 @@
         <v>46.479550000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
         <v>66</v>
       </c>
@@ -34018,7 +34084,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>67</v>
       </c>
@@ -34138,7 +34204,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>122</v>
       </c>
@@ -34258,7 +34324,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>123</v>
       </c>
@@ -34378,7 +34444,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
         <v>124</v>
       </c>
@@ -34498,7 +34564,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
         <v>125</v>
       </c>
@@ -34618,7 +34684,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="58" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
         <v>126</v>
       </c>
@@ -34738,7 +34804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="43" t="s">
         <v>127</v>
       </c>
@@ -34858,7 +34924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
         <v>79</v>
       </c>
@@ -34970,7 +35036,7 @@
       <c r="AM60" s="7"/>
       <c r="AN60" s="29"/>
     </row>
-    <row r="61" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="27" t="s">
         <v>128</v>
       </c>
@@ -35096,9 +35162,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),")]")</f>
         <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/week)]</v>
@@ -35106,7 +35172,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
@@ -35117,7 +35183,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>130</v>
       </c>
@@ -35128,7 +35194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>80</v>
       </c>
@@ -35153,19 +35219,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="20.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Pipeline Capacity Expansion Increments [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>217</v>
       </c>
@@ -35173,7 +35239,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>87</v>
       </c>
@@ -35196,19 +35262,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="20.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Pipeline Diameters [inch]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>217</v>
       </c>
@@ -35216,7 +35282,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>87</v>
       </c>
@@ -35241,19 +35307,19 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>215</v>
       </c>
@@ -35264,7 +35330,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>79</v>
       </c>
@@ -35275,7 +35341,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>128</v>
       </c>
@@ -35286,7 +35352,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>79</v>
       </c>
@@ -35297,7 +35363,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>128</v>
       </c>
@@ -35308,22 +35374,22 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -35345,30 +35411,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
@@ -35376,32 +35442,32 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>127</v>
       </c>
@@ -35424,16 +35490,16 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>215</v>
       </c>
@@ -35447,7 +35513,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>79</v>
       </c>
@@ -35461,7 +35527,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>128</v>
       </c>
@@ -35475,7 +35541,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>79</v>
       </c>
@@ -35489,7 +35555,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>128</v>
       </c>
@@ -35517,17 +35583,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
         <v>280</v>
       </c>
@@ -35535,7 +35601,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="83" t="s">
         <v>277</v>
       </c>
@@ -35543,7 +35609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="84" t="s">
         <v>278</v>
       </c>
@@ -35565,17 +35631,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>215</v>
       </c>
@@ -35583,7 +35649,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>79</v>
       </c>
@@ -35591,7 +35657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>128</v>
       </c>
@@ -35599,19 +35665,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
     </row>
@@ -35631,9 +35697,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>_xlfn.CONCAT( "Table with credit received for sending water to beneficial reuse [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table with credit received for sending water to beneficial reuse [USD/bbl]</v>
@@ -35653,17 +35719,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -35671,7 +35737,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -35679,7 +35745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -35687,7 +35753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -35695,7 +35761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -35717,17 +35783,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>222</v>
       </c>
@@ -35735,7 +35801,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>224</v>
       </c>
@@ -35743,7 +35809,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>225</v>
       </c>
@@ -35765,17 +35831,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>222</v>
       </c>
@@ -35783,7 +35849,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>230</v>
       </c>
@@ -35791,7 +35857,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>231</v>
       </c>
@@ -35815,18 +35881,18 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>232</v>
       </c>
@@ -35837,7 +35903,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>112</v>
       </c>
@@ -35848,7 +35914,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
@@ -35859,7 +35925,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
@@ -35870,7 +35936,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>104</v>
       </c>
@@ -35881,7 +35947,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>105</v>
       </c>
@@ -35892,7 +35958,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
@@ -35903,7 +35969,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>107</v>
       </c>
@@ -35914,7 +35980,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
@@ -35925,7 +35991,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>109</v>
       </c>
@@ -35936,7 +36002,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
@@ -35947,7 +36013,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>111</v>
       </c>
@@ -35958,7 +36024,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -35969,7 +36035,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>114</v>
       </c>
@@ -35980,7 +36046,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>115</v>
       </c>
@@ -35991,7 +36057,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>116</v>
       </c>
@@ -36002,7 +36068,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>5</v>
       </c>
@@ -36013,7 +36079,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>117</v>
       </c>
@@ -36024,7 +36090,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>118</v>
       </c>
@@ -36035,7 +36101,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
         <v>119</v>
       </c>
@@ -36063,18 +36129,18 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>232</v>
       </c>
@@ -36085,7 +36151,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>78</v>
       </c>
@@ -36096,7 +36162,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>285</v>
       </c>
@@ -36120,22 +36186,22 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$10, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -36146,7 +36212,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -36157,7 +36223,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -36168,7 +36234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -36179,7 +36245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -36204,30 +36270,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>285</v>
       </c>
@@ -36242,6 +36308,250 @@
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AFED52-B9B8-4757-9965-BD9B1BADFFF9}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="62.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Air Emissions Coefficients ")</f>
+        <v xml:space="preserve">Table of Air Emissions Coefficients </v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="113">
+        <v>2035000</v>
+      </c>
+      <c r="C3" s="113">
+        <v>35.75</v>
+      </c>
+      <c r="D3" s="113">
+        <v>12649.999999999998</v>
+      </c>
+      <c r="E3" s="113">
+        <v>770.00000000000011</v>
+      </c>
+      <c r="F3" s="113">
+        <v>120.99999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" s="113">
+        <v>22</v>
+      </c>
+      <c r="C4" s="113">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D4" s="113">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E4" s="113">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="F4" s="114">
+        <v>8.5999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" s="113">
+        <v>310000000</v>
+      </c>
+      <c r="C5" s="113">
+        <v>2800</v>
+      </c>
+      <c r="D5" s="113">
+        <v>190000</v>
+      </c>
+      <c r="E5" s="113">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="114">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" s="113">
+        <v>970</v>
+      </c>
+      <c r="C6" s="113">
+        <v>0.13</v>
+      </c>
+      <c r="D6" s="113">
+        <v>9.5</v>
+      </c>
+      <c r="E6" s="113">
+        <v>2.8</v>
+      </c>
+      <c r="F6" s="114">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="115">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="115">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D7" s="115">
+        <v>2</v>
+      </c>
+      <c r="E7" s="115">
+        <v>0.65</v>
+      </c>
+      <c r="F7" s="116">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB641193-856C-46E0-85AB-4A01E5D7513E}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Air Emissions Coefficients  for Treatment Technologies [emissions/volume time]")</f>
+        <v>Table of Air Emissions Coefficients  for Treatment Technologies [emissions/volume time]</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="117" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="118" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="113">
+        <v>9600</v>
+      </c>
+      <c r="C3" s="113">
+        <v>1.45</v>
+      </c>
+      <c r="D3" s="113">
+        <v>12.8</v>
+      </c>
+      <c r="E3" s="113">
+        <v>13.5</v>
+      </c>
+      <c r="F3" s="114">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="119" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="115">
+        <v>9600</v>
+      </c>
+      <c r="C4" s="115">
+        <v>1.45</v>
+      </c>
+      <c r="D4" s="115">
+        <v>12.8</v>
+      </c>
+      <c r="E4" s="115">
+        <v>13.5</v>
+      </c>
+      <c r="F4" s="116">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DB2954-C948-47D3-8551-66A5E543A667}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -36252,9 +36562,9 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Expansion Lead Time [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
         <v>Table of Treatment Expansion Lead Time [weeks]</v>
@@ -36265,16 +36575,16 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="9:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="9:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="9:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="I19" s="10"/>
     </row>
   </sheetData>
@@ -36282,7 +36592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DCF108-65D2-4920-AF63-41DE3C60BC9F}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -36293,9 +36603,9 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Expansion Lead Time [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
         <v>Table of Disposal Expansion Lead Time [weeks]</v>
@@ -36308,7 +36618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E838BDDE-4D1E-4BCC-805C-186192CF51E1}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -36319,9 +36629,9 @@
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
         <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks]</v>
@@ -36334,7 +36644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E009F48F-F710-4F4F-876A-C3ABC3B5BD14}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -36345,18 +36655,18 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s/",VLOOKUP("distance", [1]Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks/mile]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>222</v>
       </c>
@@ -36364,7 +36674,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>308</v>
       </c>
@@ -36377,20 +36687,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431BFE9B-561C-4E4E-9282-73406F634D63}">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
         <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks]</v>

--- a/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
+++ b/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAFD3A5-AAFF-4870-9276-6BE85440D687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24072696-4473-4D60-B5E6-9C502F048AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -97,18 +97,19 @@
     <sheet name="RemovalEfficiency" sheetId="116" r:id="rId82"/>
     <sheet name="DesalinationTechnologies" sheetId="112" r:id="rId83"/>
     <sheet name="DesalinationSites" sheetId="114" r:id="rId84"/>
-    <sheet name="BeneficialReuseCredit" sheetId="128" r:id="rId85"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="113" r:id="rId86"/>
-    <sheet name="Hydraulics" sheetId="95" r:id="rId87"/>
-    <sheet name="Economics" sheetId="99" r:id="rId88"/>
-    <sheet name="PadWaterQuality" sheetId="104" r:id="rId89"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId90"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId91"/>
-    <sheet name="TreatmentExpansionLeadTime" sheetId="129" r:id="rId92"/>
-    <sheet name="DisposalExpansionLeadTime" sheetId="130" r:id="rId93"/>
-    <sheet name="StorageExpansionLeadTime" sheetId="131" r:id="rId94"/>
-    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="132" r:id="rId95"/>
-    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="133" r:id="rId96"/>
+    <sheet name="BeneficialReuseCost" sheetId="136" r:id="rId85"/>
+    <sheet name="BeneficialReuseCredit" sheetId="128" r:id="rId86"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="113" r:id="rId87"/>
+    <sheet name="Hydraulics" sheetId="95" r:id="rId88"/>
+    <sheet name="Economics" sheetId="99" r:id="rId89"/>
+    <sheet name="PadWaterQuality" sheetId="104" r:id="rId90"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId91"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId92"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="129" r:id="rId93"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="130" r:id="rId94"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="131" r:id="rId95"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="132" r:id="rId96"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="133" r:id="rId97"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
@@ -35407,6 +35408,33 @@
 </file>
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93D2995-5E8F-4CB1-BE39-9D6C29509556}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="str">
+        <f>CONCATENATE( "Table with processing cost for sending water to beneficial reuse [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table with processing cost for sending water to beneficial reuse [USD/bbl]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C085ECA6-7B3E-4F26-A39A-70D9F45A71B6}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35414,13 +35442,16 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table with credit received for sending water to beneficial reuse [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table with credit received for sending water to beneficial reuse [USD/bbl]</v>
       </c>
@@ -35430,7 +35461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D5E840-A652-4014-8BA7-131503FECE29}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35494,7 +35525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97A568C-E2FB-4ADF-84D0-ABF3E0446F9A}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35542,7 +35573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB07E06-ED03-4572-9B3E-05DAA3F2CF42}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35587,254 +35618,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23C97C0-70AD-4A71-BE9C-0931EDC97CA5}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="48">
-        <v>142277</v>
-      </c>
-      <c r="C3" s="48">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="49">
-        <v>140998</v>
-      </c>
-      <c r="C4" s="49">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="49">
-        <v>172490.2</v>
-      </c>
-      <c r="C5" s="49">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="49">
-        <v>257547</v>
-      </c>
-      <c r="C6" s="49">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="49">
-        <v>241833.8</v>
-      </c>
-      <c r="C7" s="48">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="49">
-        <v>188503.7</v>
-      </c>
-      <c r="C8" s="49">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="49">
-        <v>146716</v>
-      </c>
-      <c r="C9" s="49">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="49">
-        <v>216563</v>
-      </c>
-      <c r="C10" s="49">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="49">
-        <v>150626</v>
-      </c>
-      <c r="C11" s="48">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="49">
-        <v>247061</v>
-      </c>
-      <c r="C12" s="49">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="49">
-        <v>180968</v>
-      </c>
-      <c r="C13" s="49">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="49">
-        <v>195584</v>
-      </c>
-      <c r="C14" s="49">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="49">
-        <v>148655</v>
-      </c>
-      <c r="C15" s="49">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="49">
-        <v>185369</v>
-      </c>
-      <c r="C16" s="49">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="108">
-        <v>222724</v>
-      </c>
-      <c r="C17" s="49">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="49">
-        <v>165376</v>
-      </c>
-      <c r="C18" s="48">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="49">
-        <v>240977</v>
-      </c>
-      <c r="C19" s="49">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="49">
-        <v>192794</v>
-      </c>
-      <c r="C20" s="49">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="50">
-        <v>216769</v>
-      </c>
-      <c r="C21" s="49">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -35885,6 +35668,254 @@
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23C97C0-70AD-4A71-BE9C-0931EDC97CA5}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="48">
+        <v>142277</v>
+      </c>
+      <c r="C3" s="48">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="49">
+        <v>140998</v>
+      </c>
+      <c r="C4" s="49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="49">
+        <v>172490.2</v>
+      </c>
+      <c r="C5" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="49">
+        <v>257547</v>
+      </c>
+      <c r="C6" s="49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="49">
+        <v>241833.8</v>
+      </c>
+      <c r="C7" s="48">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="49">
+        <v>188503.7</v>
+      </c>
+      <c r="C8" s="49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="49">
+        <v>146716</v>
+      </c>
+      <c r="C9" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="49">
+        <v>216563</v>
+      </c>
+      <c r="C10" s="49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="49">
+        <v>150626</v>
+      </c>
+      <c r="C11" s="48">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="49">
+        <v>247061</v>
+      </c>
+      <c r="C12" s="49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="49">
+        <v>180968</v>
+      </c>
+      <c r="C13" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="49">
+        <v>195584</v>
+      </c>
+      <c r="C14" s="49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="49">
+        <v>148655</v>
+      </c>
+      <c r="C15" s="49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="49">
+        <v>185369</v>
+      </c>
+      <c r="C16" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="108">
+        <v>222724</v>
+      </c>
+      <c r="C17" s="49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="49">
+        <v>165376</v>
+      </c>
+      <c r="C18" s="48">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="49">
+        <v>240977</v>
+      </c>
+      <c r="C19" s="49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="49">
+        <v>192794</v>
+      </c>
+      <c r="C20" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="50">
+        <v>216769</v>
+      </c>
+      <c r="C21" s="49">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485401B3-8B00-41A4-BDC3-322B62874F13}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -35944,7 +35975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C5F8D1-3580-447F-A30D-0D2BFC2160E3}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -36027,7 +36058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DB2954-C948-47D3-8551-66A5E543A667}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -36068,7 +36099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DCF108-65D2-4920-AF63-41DE3C60BC9F}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -36094,7 +36125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E838BDDE-4D1E-4BCC-805C-186192CF51E1}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -36120,7 +36151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E009F48F-F710-4F4F-876A-C3ABC3B5BD14}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -36163,7 +36194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431BFE9B-561C-4E4E-9282-73406F634D63}">
   <sheetPr>
     <tabColor theme="0"/>

--- a/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
+++ b/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089CE096-EC15-48B1-B6C8-83BE79DDD390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24072696-4473-4D60-B5E6-9C502F048AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="88" activeTab="93" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -47,73 +47,73 @@
     <sheet name="SCA" sheetId="97" r:id="rId32"/>
     <sheet name="RNA" sheetId="62" r:id="rId33"/>
     <sheet name="ROA" sheetId="122" r:id="rId34"/>
-    <sheet name="PCT" sheetId="42" r:id="rId35"/>
-    <sheet name="FCT" sheetId="70" r:id="rId36"/>
-    <sheet name="PKT" sheetId="43" r:id="rId37"/>
-    <sheet name="CKT" sheetId="44" r:id="rId38"/>
-    <sheet name="CCT" sheetId="74" r:id="rId39"/>
-    <sheet name="CST" sheetId="64" r:id="rId40"/>
-    <sheet name="RST" sheetId="123" r:id="rId41"/>
-    <sheet name="ROT" sheetId="124" r:id="rId42"/>
-    <sheet name="SOT" sheetId="125" r:id="rId43"/>
-    <sheet name="Elevation" sheetId="117" r:id="rId44"/>
-    <sheet name="CompletionsDemand" sheetId="8" r:id="rId45"/>
-    <sheet name="PadRates" sheetId="65" r:id="rId46"/>
-    <sheet name="FlowbackRates" sheetId="75" r:id="rId47"/>
-    <sheet name="WellPressure" sheetId="118" r:id="rId48"/>
-    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId49"/>
-    <sheet name="InitialPipelineDiameters" sheetId="119" r:id="rId50"/>
-    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId51"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId52"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId53"/>
-    <sheet name="ReuseMinimum" sheetId="126" r:id="rId54"/>
-    <sheet name="ReuseCapacity" sheetId="127" r:id="rId55"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId56"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId57"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId58"/>
-    <sheet name="NodeCapacities" sheetId="107" r:id="rId59"/>
-    <sheet name="DisposalOperatingCapacity" sheetId="111" r:id="rId60"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId61"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId62"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId63"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId64"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId65"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId66"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId67"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId68"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId69"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId70"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId71"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId72"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId73"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId74"/>
-    <sheet name="PipelineExpansionDistance" sheetId="103" r:id="rId75"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="101" r:id="rId76"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="100" r:id="rId77"/>
-    <sheet name="PipelineDiameterValues" sheetId="93" r:id="rId78"/>
-    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId79"/>
-    <sheet name="RemovalEfficiency" sheetId="116" r:id="rId80"/>
-    <sheet name="DesalinationTechnologies" sheetId="112" r:id="rId81"/>
-    <sheet name="DesalinationSites" sheetId="114" r:id="rId82"/>
-    <sheet name="BeneficialReuseCredit" sheetId="128" r:id="rId83"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="113" r:id="rId84"/>
-    <sheet name="Hydraulics" sheetId="95" r:id="rId85"/>
-    <sheet name="Economics" sheetId="99" r:id="rId86"/>
-    <sheet name="PadWaterQuality" sheetId="104" r:id="rId87"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId88"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId89"/>
-    <sheet name="TreatmentExpansionLeadTime" sheetId="129" r:id="rId90"/>
-    <sheet name="DisposalExpansionLeadTime" sheetId="130" r:id="rId91"/>
-    <sheet name="StorageExpansionLeadTime" sheetId="131" r:id="rId92"/>
-    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="132" r:id="rId93"/>
-    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="133" r:id="rId94"/>
+    <sheet name="RKA" sheetId="134" r:id="rId35"/>
+    <sheet name="PCT" sheetId="42" r:id="rId36"/>
+    <sheet name="FCT" sheetId="70" r:id="rId37"/>
+    <sheet name="PKT" sheetId="43" r:id="rId38"/>
+    <sheet name="CKT" sheetId="44" r:id="rId39"/>
+    <sheet name="CCT" sheetId="74" r:id="rId40"/>
+    <sheet name="CST" sheetId="64" r:id="rId41"/>
+    <sheet name="RST" sheetId="123" r:id="rId42"/>
+    <sheet name="ROT" sheetId="124" r:id="rId43"/>
+    <sheet name="SOT" sheetId="125" r:id="rId44"/>
+    <sheet name="RKT" sheetId="135" r:id="rId45"/>
+    <sheet name="Elevation" sheetId="117" r:id="rId46"/>
+    <sheet name="CompletionsDemand" sheetId="8" r:id="rId47"/>
+    <sheet name="PadRates" sheetId="65" r:id="rId48"/>
+    <sheet name="FlowbackRates" sheetId="75" r:id="rId49"/>
+    <sheet name="WellPressure" sheetId="118" r:id="rId50"/>
+    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId51"/>
+    <sheet name="InitialPipelineDiameters" sheetId="119" r:id="rId52"/>
+    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId53"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId54"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId55"/>
+    <sheet name="ReuseMinimum" sheetId="126" r:id="rId56"/>
+    <sheet name="ReuseCapacity" sheetId="127" r:id="rId57"/>
+    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId58"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId59"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId60"/>
+    <sheet name="NodeCapacities" sheetId="107" r:id="rId61"/>
+    <sheet name="DisposalOperatingCapacity" sheetId="111" r:id="rId62"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId63"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId64"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId65"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId66"/>
+    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId67"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId68"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId69"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId70"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId71"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId72"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId73"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId74"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId75"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId76"/>
+    <sheet name="PipelineExpansionDistance" sheetId="103" r:id="rId77"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="101" r:id="rId78"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="100" r:id="rId79"/>
+    <sheet name="PipelineDiameterValues" sheetId="93" r:id="rId80"/>
+    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId81"/>
+    <sheet name="RemovalEfficiency" sheetId="116" r:id="rId82"/>
+    <sheet name="DesalinationTechnologies" sheetId="112" r:id="rId83"/>
+    <sheet name="DesalinationSites" sheetId="114" r:id="rId84"/>
+    <sheet name="BeneficialReuseCost" sheetId="136" r:id="rId85"/>
+    <sheet name="BeneficialReuseCredit" sheetId="128" r:id="rId86"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="113" r:id="rId87"/>
+    <sheet name="Hydraulics" sheetId="95" r:id="rId88"/>
+    <sheet name="Economics" sheetId="99" r:id="rId89"/>
+    <sheet name="PadWaterQuality" sheetId="104" r:id="rId90"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId91"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId92"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="129" r:id="rId93"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="130" r:id="rId94"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="131" r:id="rId95"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="132" r:id="rId96"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="133" r:id="rId97"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId95"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="74" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="74">PipelineExpansionDistance!$O$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="76">PipelineExpansionDistance!$O$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3679" uniqueCount="311">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1050,9 +1050,6 @@
     <t>Storage Sites to Beneficial Reuse Piping Arcs [-]</t>
   </si>
   <si>
-    <t>Storage Sites to Beneficial Reuse Piping Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
-  </si>
-  <si>
     <t>Treatment to Storage Sites Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
   </si>
   <si>
@@ -1063,6 +1060,15 @@
   </si>
   <si>
     <t>pipeline_expansion_lead_time</t>
+  </si>
+  <si>
+    <t>Treatment Sites to Beneficial Reuse Piping Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>Treatment Sites to Disposal Piping Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>Treatment Sites to Disposal Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
   </si>
 </sst>
 </file>
@@ -2074,271 +2080,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Overview"/>
-      <sheetName val="Schematic"/>
-      <sheetName val="Units"/>
-      <sheetName val="ProductionPads"/>
-      <sheetName val="ProductionTanks"/>
-      <sheetName val="CompletionsPads"/>
-      <sheetName val="SWDSites"/>
-      <sheetName val="FreshwaterSources"/>
-      <sheetName val="StorageSites"/>
-      <sheetName val="TreatmentSites"/>
-      <sheetName val="TreatmentTechnologies"/>
-      <sheetName val="ReuseOptions"/>
-      <sheetName val="NetworkNodes"/>
-      <sheetName val="PipelineDiameters"/>
-      <sheetName val="StorageCapacities"/>
-      <sheetName val="TreatmentCapacities"/>
-      <sheetName val="InjectionCapacities"/>
-      <sheetName val="PNA"/>
-      <sheetName val="CNA"/>
-      <sheetName val="CCA"/>
-      <sheetName val="NNA"/>
-      <sheetName val="NCA"/>
-      <sheetName val="NKA"/>
-      <sheetName val="NRA"/>
-      <sheetName val="NSA"/>
-      <sheetName val="SNA"/>
-      <sheetName val="FCA"/>
-      <sheetName val="RCA"/>
-      <sheetName val="RSA"/>
-      <sheetName val="SCA"/>
-      <sheetName val="RNA"/>
-      <sheetName val="PCT"/>
-      <sheetName val="FCT"/>
-      <sheetName val="PKT"/>
-      <sheetName val="CKT"/>
-      <sheetName val="CCT"/>
-      <sheetName val="CST"/>
-      <sheetName val="Elevation"/>
-      <sheetName val="CompletionsDemand"/>
-      <sheetName val="PadRates"/>
-      <sheetName val="FlowbackRates"/>
-      <sheetName val="WellPressure"/>
-      <sheetName val="InitialPipelineCapacity"/>
-      <sheetName val="InitialPipelineDiameters"/>
-      <sheetName val="InitialDisposalCapacity"/>
-      <sheetName val="InitialStorageCapacity"/>
-      <sheetName val="InitialTreatmentCapacity"/>
-      <sheetName val="FreshwaterSourcingAvailability"/>
-      <sheetName val="CompletionsPadStorage"/>
-      <sheetName val="PadOffloadingCapacity"/>
-      <sheetName val="NodeCapacities"/>
-      <sheetName val="DisposalOperatingCapacity"/>
-      <sheetName val="DisposalOperationalCost"/>
-      <sheetName val="TreatmentOperationalCost"/>
-      <sheetName val="ReuseOperationalCost"/>
-      <sheetName val="PipelineOperationalCost"/>
-      <sheetName val="FreshSourcingCost"/>
-      <sheetName val="TruckingHourlyCost"/>
-      <sheetName val="TruckingTime"/>
-      <sheetName val="DisposalExpansionCost"/>
-      <sheetName val="DisposalCapacityIncrements"/>
-      <sheetName val="StorageExpansionCost"/>
-      <sheetName val="StorageCapacityIncrements"/>
-      <sheetName val="TreatmentExpansionCost"/>
-      <sheetName val="TreatmentCapacityIncrements"/>
-      <sheetName val="PipelineCapexDistanceBased"/>
-      <sheetName val="PipelineExpansionDistance"/>
-      <sheetName val="PipelineCapexCapacityBased"/>
-      <sheetName val="PipelineCapacityIncrements"/>
-      <sheetName val="PipelineDiameterValues"/>
-      <sheetName val="TreatmentEfficiency"/>
-      <sheetName val="RemovalEfficiency"/>
-      <sheetName val="DesalinationTechnologies"/>
-      <sheetName val="DesalinationSites"/>
-      <sheetName val="CompletionsPadOutsideSystem"/>
-      <sheetName val="Hydraulics"/>
-      <sheetName val="Economics"/>
-      <sheetName val="PadWaterQuality"/>
-      <sheetName val="StorageInitialWaterQuality"/>
-      <sheetName val="PadStorageInitialWaterQuality"/>
-      <sheetName val="TreatmentExpansionLeadTime"/>
-      <sheetName val="DisposalExpansionLeadTime"/>
-      <sheetName val="StorageExpansionLeadTime"/>
-      <sheetName val="PipelineExpansionLeadTime_Dist"/>
-      <sheetName val="PipelineExpansionLeadTime_Capac"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>INDEX</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>VALUE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>volume</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>bbl</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>distance</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>mile</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>diameter</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>inch</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>concentration</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>mg/liter</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>currency</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>USD</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>time</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>day</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>pressure</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>psi</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>elevation</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>foot</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>decision period</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>week</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2641,7 +2382,7 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7574,14 +7315,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -7590,6 +7331,29 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D2FFAB-ECD3-4BD0-9D84-85E4DB7922BD}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ED8ED-0A77-4974-A7C2-D2B875DA1401}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7768,7 +7532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F615298C-1D1C-4004-91BA-05C3C07D8B7C}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7899,7 +7663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE275C-BC38-44C0-8EFB-EA0A3ABCF1EE}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8149,7 +7913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90457C74-863B-4C67-B58B-571271FAEA0E}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8238,85 +8002,6 @@
       <c r="D6" s="9">
         <v>1</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37622F2B-1E4B-46C9-B210-3150CCBB5892}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="32"/>
-    </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8434,6 +8119,85 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37622F2B-1E4B-46C9-B210-3150CCBB5892}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A52059-0CB1-474F-ACFF-2997470BE1E9}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8477,7 +8241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7671FE8C-53C8-47E3-8F66-0CDFF992F8F0}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8496,7 +8260,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -8529,8 +8293,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA0172C-9C06-4AFA-A735-EDA51E2D806D}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD3490E-F249-4CEC-A79A-88A8E596A07B}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -8552,22 +8339,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD3490E-F249-4CEC-A79A-88A8E596A07B}">
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D5E22A-C49D-4697-9262-298442E9AD18}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -8575,7 +8362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789E7D10-DA84-4E98-A491-162D17B0E3FF}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -9115,7 +8902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FA210-6C83-4CC4-AF45-F41CDC53F769}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -9633,7 +9420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF4E1D-6CE0-4F02-8B9E-F2818C0A814C}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -13020,7 +12807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68666333-AE69-4574-92B2-6BE3A00DF612}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -13704,7 +13491,113 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FE18E-3C30-49FC-B6A0-0A6D3F02EBB0}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE870389-1558-469D-A4C0-FFF0CB6EF3E1}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -16993,7 +16886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE628BF-A05C-42C8-8EC7-63FF3B624ADC}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -19726,113 +19619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FE18E-3C30-49FC-B6A0-0A6D3F02EBB0}">
-  <dimension ref="A1:O15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AB3CAC-DE83-4E65-8BC7-386D18A19803}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -23979,7 +23766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -24038,7 +23825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -24090,7 +23877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -24150,7 +23937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71161610-124C-4EF0-9AD2-EA56457B2C52}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -24174,7 +23961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93770ED0-6BFC-4696-92DB-4CEBACB9D35D}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -24198,7 +23985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -25678,7 +25465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -25739,116 +25526,6 @@
       <c r="B6" s="37">
         <v>800000</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
-  <sheetPr>
-    <tabColor rgb="FFD9C6FE"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Pad Offloading Capacity [bbl/week]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="35">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="35">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="35">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="37">
-        <v>210000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D80780D-32E5-452A-A6C3-3B8E431097FA}">
-  <sheetPr>
-    <tabColor rgb="FFD9C6FE"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]", " (absence of node or empty cell signifies no max capacity)")</f>
-        <v>Table of Node Capacity Capacity [bbl/week] (absence of node or empty cell signifies no max capacity)</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25914,6 +25591,116 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
+  <sheetPr>
+    <tabColor rgb="FFD9C6FE"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <v>Table of Pad Offloading Capacity [bbl/week]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="35">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="35">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="35">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="37">
+        <v>210000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D80780D-32E5-452A-A6C3-3B8E431097FA}">
+  <sheetPr>
+    <tabColor rgb="FFD9C6FE"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]", " (absence of node or empty cell signifies no max capacity)")</f>
+        <v>Table of Node Capacity Capacity [bbl/week] (absence of node or empty cell signifies no max capacity)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F424B69F-B42E-4A8C-B24F-D4CE4D83DFA9}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -26595,7 +26382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -26655,7 +26442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -26758,7 +26545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -26825,7 +26612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -26868,7 +26655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -26967,7 +26754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27218,7 +27005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27519,109 +27306,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),")]")</f>
-        <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/week)]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="37">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Disposal Capacity Expansion Increments [bbl/week]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="37">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -27675,6 +27359,109 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),")]")</f>
+        <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/week)]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="37">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <v>Table of Disposal Capacity Expansion Increments [bbl/week]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27725,7 +27512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27768,7 +27555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27867,7 +27654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27928,7 +27715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27971,7 +27758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBA4E88-E142-4CAA-9941-4EFBE822A9B8}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -35087,7 +34874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB463F82-A1C0-450F-A6BA-E327D67D2CCA}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -35144,7 +34931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDE49D4-5953-41A3-9445-43C5CEE52016}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -35180,153 +34967,6 @@
       <c r="B3" s="37">
         <v>0</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451B8273-C388-463D-8494-0D66D9ED9BA0}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Pipeline Diameters [inch]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="37">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B45C9D-7A15-425D-8487-B88B27280274}">
-  <sheetPr>
-    <tabColor rgb="FFAFF3DE"/>
-  </sheetPr>
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3" s="32">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" s="32">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>278</v>
-      </c>
-      <c r="C5" s="32">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="33">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35414,6 +35054,153 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451B8273-C388-463D-8494-0D66D9ED9BA0}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <v>Table of Pipeline Diameters [inch]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B45C9D-7A15-425D-8487-B88B27280274}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="32">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="33">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A32EEB0-CDB8-48FA-AC3A-32F164C0112D}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35508,7 +35295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CCDB1D-7C9B-45C0-BC80-50ECEB2FE439}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35556,7 +35343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805001D5-70DF-464C-8122-7D31EBC77774}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35620,7 +35407,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93D2995-5E8F-4CB1-BE39-9D6C29509556}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="str">
+        <f>CONCATENATE( "Table with processing cost for sending water to beneficial reuse [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table with processing cost for sending water to beneficial reuse [USD/bbl]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C085ECA6-7B3E-4F26-A39A-70D9F45A71B6}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35628,13 +35442,16 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table with credit received for sending water to beneficial reuse [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table with credit received for sending water to beneficial reuse [USD/bbl]</v>
       </c>
@@ -35644,7 +35461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D5E840-A652-4014-8BA7-131503FECE29}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35708,7 +35525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97A568C-E2FB-4ADF-84D0-ABF3E0446F9A}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35756,7 +35573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB07E06-ED03-4572-9B3E-05DAA3F2CF42}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35796,397 +35613,6 @@
         <v>231</v>
       </c>
       <c r="B4" s="37">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23C97C0-70AD-4A71-BE9C-0931EDC97CA5}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="48">
-        <v>142277</v>
-      </c>
-      <c r="C3" s="48">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="49">
-        <v>140998</v>
-      </c>
-      <c r="C4" s="49">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="49">
-        <v>172490.2</v>
-      </c>
-      <c r="C5" s="49">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="49">
-        <v>257547</v>
-      </c>
-      <c r="C6" s="49">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="49">
-        <v>241833.8</v>
-      </c>
-      <c r="C7" s="48">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="49">
-        <v>188503.7</v>
-      </c>
-      <c r="C8" s="49">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="49">
-        <v>146716</v>
-      </c>
-      <c r="C9" s="49">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="49">
-        <v>216563</v>
-      </c>
-      <c r="C10" s="49">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="49">
-        <v>150626</v>
-      </c>
-      <c r="C11" s="48">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="49">
-        <v>247061</v>
-      </c>
-      <c r="C12" s="49">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="49">
-        <v>180968</v>
-      </c>
-      <c r="C13" s="49">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="49">
-        <v>195584</v>
-      </c>
-      <c r="C14" s="49">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="49">
-        <v>148655</v>
-      </c>
-      <c r="C15" s="49">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="49">
-        <v>185369</v>
-      </c>
-      <c r="C16" s="49">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="108">
-        <v>222724</v>
-      </c>
-      <c r="C17" s="49">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="49">
-        <v>165376</v>
-      </c>
-      <c r="C18" s="48">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="49">
-        <v>240977</v>
-      </c>
-      <c r="C19" s="49">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="49">
-        <v>192794</v>
-      </c>
-      <c r="C20" s="49">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="50">
-        <v>216769</v>
-      </c>
-      <c r="C21" s="49">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485401B3-8B00-41A4-BDC3-322B62874F13}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Initial Water Quality at Storage [mg/liter]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="48">
-        <v>150000</v>
-      </c>
-      <c r="C3" s="48">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="B4" s="50">
-        <v>150000</v>
-      </c>
-      <c r="C4" s="50">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C5F8D1-3580-447F-A30D-0D2BFC2160E3}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="49">
-        <v>150000</v>
-      </c>
-      <c r="C3" s="49">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="49">
-        <v>150000</v>
-      </c>
-      <c r="C4" s="49">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="49">
-        <v>150000</v>
-      </c>
-      <c r="C5" s="49">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="50">
-        <v>150000</v>
-      </c>
-      <c r="C6" s="50">
         <v>20</v>
       </c>
     </row>
@@ -36242,6 +35668,397 @@
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23C97C0-70AD-4A71-BE9C-0931EDC97CA5}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="48">
+        <v>142277</v>
+      </c>
+      <c r="C3" s="48">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="49">
+        <v>140998</v>
+      </c>
+      <c r="C4" s="49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="49">
+        <v>172490.2</v>
+      </c>
+      <c r="C5" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="49">
+        <v>257547</v>
+      </c>
+      <c r="C6" s="49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="49">
+        <v>241833.8</v>
+      </c>
+      <c r="C7" s="48">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="49">
+        <v>188503.7</v>
+      </c>
+      <c r="C8" s="49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="49">
+        <v>146716</v>
+      </c>
+      <c r="C9" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="49">
+        <v>216563</v>
+      </c>
+      <c r="C10" s="49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="49">
+        <v>150626</v>
+      </c>
+      <c r="C11" s="48">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="49">
+        <v>247061</v>
+      </c>
+      <c r="C12" s="49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="49">
+        <v>180968</v>
+      </c>
+      <c r="C13" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="49">
+        <v>195584</v>
+      </c>
+      <c r="C14" s="49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="49">
+        <v>148655</v>
+      </c>
+      <c r="C15" s="49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="49">
+        <v>185369</v>
+      </c>
+      <c r="C16" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="108">
+        <v>222724</v>
+      </c>
+      <c r="C17" s="49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="49">
+        <v>165376</v>
+      </c>
+      <c r="C18" s="48">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="49">
+        <v>240977</v>
+      </c>
+      <c r="C19" s="49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="49">
+        <v>192794</v>
+      </c>
+      <c r="C20" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="50">
+        <v>216769</v>
+      </c>
+      <c r="C21" s="49">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485401B3-8B00-41A4-BDC3-322B62874F13}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <v>Table of Initial Water Quality at Storage [mg/liter]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="48">
+        <v>150000</v>
+      </c>
+      <c r="C3" s="48">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="50">
+        <v>150000</v>
+      </c>
+      <c r="C4" s="50">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C5F8D1-3580-447F-A30D-0D2BFC2160E3}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="49">
+        <v>150000</v>
+      </c>
+      <c r="C3" s="49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="49">
+        <v>150000</v>
+      </c>
+      <c r="C4" s="49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="49">
+        <v>150000</v>
+      </c>
+      <c r="C5" s="49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="50">
+        <v>150000</v>
+      </c>
+      <c r="C6" s="50">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DB2954-C948-47D3-8551-66A5E543A667}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -36249,14 +36066,14 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Treatment Expansion Lead Time [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <f>_xlfn.CONCAT( "Table of Treatment Expansion Lead Time [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
         <v>Table of Treatment Expansion Lead Time [weeks]</v>
       </c>
       <c r="B1" s="1"/>
@@ -36282,7 +36099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DCF108-65D2-4920-AF63-41DE3C60BC9F}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -36290,14 +36107,14 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Disposal Expansion Lead Time [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <f>_xlfn.CONCAT( "Table of Disposal Expansion Lead Time [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
         <v>Table of Disposal Expansion Lead Time [weeks]</v>
       </c>
       <c r="B1" s="1"/>
@@ -36308,7 +36125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E838BDDE-4D1E-4BCC-805C-186192CF51E1}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -36316,15 +36133,15 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
-        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks]</v>
+        <f>_xlfn.CONCAT( "Table of Storage Expansion Lead Time [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Storage Expansion Lead Time [weeks]</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -36334,7 +36151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E009F48F-F710-4F4F-876A-C3ABC3B5BD14}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -36342,7 +36159,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36352,7 +36169,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s/",VLOOKUP("distance", [1]Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s/",VLOOKUP("distance", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks/mile]</v>
       </c>
     </row>
@@ -36366,7 +36183,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B3" s="42">
         <v>0</v>
@@ -36377,23 +36194,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431BFE9B-561C-4E4E-9282-73406F634D63}">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
-        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks]</v>
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Capacity Based [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Capacity Based [weeks]</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>

--- a/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
+++ b/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24072696-4473-4D60-B5E6-9C502F048AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5927B496-2FDE-46BB-A461-FC77DCAEF48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -21,99 +21,101 @@
     <sheet name="CompletionsPads" sheetId="3" r:id="rId6"/>
     <sheet name="SWDSites" sheetId="4" r:id="rId7"/>
     <sheet name="FreshwaterSources" sheetId="35" r:id="rId8"/>
-    <sheet name="StorageSites" sheetId="36" r:id="rId9"/>
-    <sheet name="TreatmentSites" sheetId="37" r:id="rId10"/>
-    <sheet name="TreatmentTechnologies" sheetId="110" r:id="rId11"/>
-    <sheet name="ReuseOptions" sheetId="38" r:id="rId12"/>
-    <sheet name="NetworkNodes" sheetId="39" r:id="rId13"/>
-    <sheet name="PipelineDiameters" sheetId="53" r:id="rId14"/>
-    <sheet name="StorageCapacities" sheetId="54" r:id="rId15"/>
-    <sheet name="TreatmentCapacities" sheetId="86" r:id="rId16"/>
-    <sheet name="InjectionCapacities" sheetId="55" r:id="rId17"/>
-    <sheet name="PNA" sheetId="56" r:id="rId18"/>
-    <sheet name="CNA" sheetId="57" r:id="rId19"/>
-    <sheet name="CCA" sheetId="73" r:id="rId20"/>
-    <sheet name="NNA" sheetId="58" r:id="rId21"/>
-    <sheet name="NCA" sheetId="59" r:id="rId22"/>
-    <sheet name="NKA" sheetId="60" r:id="rId23"/>
-    <sheet name="NRA" sheetId="61" r:id="rId24"/>
-    <sheet name="NSA" sheetId="76" r:id="rId25"/>
-    <sheet name="NOA" sheetId="120" r:id="rId26"/>
-    <sheet name="SNA" sheetId="77" r:id="rId27"/>
-    <sheet name="SOA" sheetId="121" r:id="rId28"/>
-    <sheet name="FCA" sheetId="41" r:id="rId29"/>
-    <sheet name="RCA" sheetId="83" r:id="rId30"/>
-    <sheet name="RSA" sheetId="96" r:id="rId31"/>
-    <sheet name="SCA" sheetId="97" r:id="rId32"/>
-    <sheet name="RNA" sheetId="62" r:id="rId33"/>
-    <sheet name="ROA" sheetId="122" r:id="rId34"/>
-    <sheet name="RKA" sheetId="134" r:id="rId35"/>
-    <sheet name="PCT" sheetId="42" r:id="rId36"/>
-    <sheet name="FCT" sheetId="70" r:id="rId37"/>
-    <sheet name="PKT" sheetId="43" r:id="rId38"/>
-    <sheet name="CKT" sheetId="44" r:id="rId39"/>
-    <sheet name="CCT" sheetId="74" r:id="rId40"/>
-    <sheet name="CST" sheetId="64" r:id="rId41"/>
-    <sheet name="RST" sheetId="123" r:id="rId42"/>
-    <sheet name="ROT" sheetId="124" r:id="rId43"/>
-    <sheet name="SOT" sheetId="125" r:id="rId44"/>
-    <sheet name="RKT" sheetId="135" r:id="rId45"/>
-    <sheet name="Elevation" sheetId="117" r:id="rId46"/>
-    <sheet name="CompletionsDemand" sheetId="8" r:id="rId47"/>
-    <sheet name="PadRates" sheetId="65" r:id="rId48"/>
-    <sheet name="FlowbackRates" sheetId="75" r:id="rId49"/>
-    <sheet name="WellPressure" sheetId="118" r:id="rId50"/>
-    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId51"/>
-    <sheet name="InitialPipelineDiameters" sheetId="119" r:id="rId52"/>
-    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId53"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId54"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId55"/>
-    <sheet name="ReuseMinimum" sheetId="126" r:id="rId56"/>
-    <sheet name="ReuseCapacity" sheetId="127" r:id="rId57"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId58"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId59"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId60"/>
-    <sheet name="NodeCapacities" sheetId="107" r:id="rId61"/>
-    <sheet name="DisposalOperatingCapacity" sheetId="111" r:id="rId62"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId63"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId64"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId65"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId66"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId67"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId68"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId69"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId70"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId71"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId72"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId73"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId74"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId75"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId76"/>
-    <sheet name="PipelineExpansionDistance" sheetId="103" r:id="rId77"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="101" r:id="rId78"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="100" r:id="rId79"/>
-    <sheet name="PipelineDiameterValues" sheetId="93" r:id="rId80"/>
-    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId81"/>
-    <sheet name="RemovalEfficiency" sheetId="116" r:id="rId82"/>
-    <sheet name="DesalinationTechnologies" sheetId="112" r:id="rId83"/>
-    <sheet name="DesalinationSites" sheetId="114" r:id="rId84"/>
-    <sheet name="BeneficialReuseCost" sheetId="136" r:id="rId85"/>
-    <sheet name="BeneficialReuseCredit" sheetId="128" r:id="rId86"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="113" r:id="rId87"/>
-    <sheet name="Hydraulics" sheetId="95" r:id="rId88"/>
-    <sheet name="Economics" sheetId="99" r:id="rId89"/>
-    <sheet name="PadWaterQuality" sheetId="104" r:id="rId90"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId91"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId92"/>
-    <sheet name="TreatmentExpansionLeadTime" sheetId="129" r:id="rId93"/>
-    <sheet name="DisposalExpansionLeadTime" sheetId="130" r:id="rId94"/>
-    <sheet name="StorageExpansionLeadTime" sheetId="131" r:id="rId95"/>
-    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="132" r:id="rId96"/>
-    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="133" r:id="rId97"/>
+    <sheet name="WaterQualityComponents" sheetId="137" r:id="rId9"/>
+    <sheet name="StorageSites" sheetId="36" r:id="rId10"/>
+    <sheet name="TreatmentSites" sheetId="37" r:id="rId11"/>
+    <sheet name="TreatmentTechnologies" sheetId="110" r:id="rId12"/>
+    <sheet name="ReuseOptions" sheetId="38" r:id="rId13"/>
+    <sheet name="NetworkNodes" sheetId="39" r:id="rId14"/>
+    <sheet name="PipelineDiameters" sheetId="53" r:id="rId15"/>
+    <sheet name="StorageCapacities" sheetId="54" r:id="rId16"/>
+    <sheet name="TreatmentCapacities" sheetId="86" r:id="rId17"/>
+    <sheet name="InjectionCapacities" sheetId="55" r:id="rId18"/>
+    <sheet name="PNA" sheetId="56" r:id="rId19"/>
+    <sheet name="CNA" sheetId="57" r:id="rId20"/>
+    <sheet name="CCA" sheetId="73" r:id="rId21"/>
+    <sheet name="NNA" sheetId="58" r:id="rId22"/>
+    <sheet name="NCA" sheetId="59" r:id="rId23"/>
+    <sheet name="NKA" sheetId="60" r:id="rId24"/>
+    <sheet name="NRA" sheetId="61" r:id="rId25"/>
+    <sheet name="NSA" sheetId="76" r:id="rId26"/>
+    <sheet name="NOA" sheetId="120" r:id="rId27"/>
+    <sheet name="SNA" sheetId="77" r:id="rId28"/>
+    <sheet name="SOA" sheetId="121" r:id="rId29"/>
+    <sheet name="FCA" sheetId="41" r:id="rId30"/>
+    <sheet name="RCA" sheetId="83" r:id="rId31"/>
+    <sheet name="RSA" sheetId="96" r:id="rId32"/>
+    <sheet name="SCA" sheetId="97" r:id="rId33"/>
+    <sheet name="RNA" sheetId="62" r:id="rId34"/>
+    <sheet name="ROA" sheetId="122" r:id="rId35"/>
+    <sheet name="RKA" sheetId="134" r:id="rId36"/>
+    <sheet name="PCT" sheetId="42" r:id="rId37"/>
+    <sheet name="FCT" sheetId="70" r:id="rId38"/>
+    <sheet name="PKT" sheetId="43" r:id="rId39"/>
+    <sheet name="CKT" sheetId="44" r:id="rId40"/>
+    <sheet name="CCT" sheetId="74" r:id="rId41"/>
+    <sheet name="CST" sheetId="64" r:id="rId42"/>
+    <sheet name="RST" sheetId="123" r:id="rId43"/>
+    <sheet name="ROT" sheetId="124" r:id="rId44"/>
+    <sheet name="SOT" sheetId="125" r:id="rId45"/>
+    <sheet name="RKT" sheetId="135" r:id="rId46"/>
+    <sheet name="Elevation" sheetId="117" r:id="rId47"/>
+    <sheet name="CompletionsDemand" sheetId="8" r:id="rId48"/>
+    <sheet name="PadRates" sheetId="65" r:id="rId49"/>
+    <sheet name="FlowbackRates" sheetId="75" r:id="rId50"/>
+    <sheet name="WellPressure" sheetId="118" r:id="rId51"/>
+    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId52"/>
+    <sheet name="InitialPipelineDiameters" sheetId="119" r:id="rId53"/>
+    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId54"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId55"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId56"/>
+    <sheet name="ReuseMinimum" sheetId="126" r:id="rId57"/>
+    <sheet name="ReuseCapacity" sheetId="127" r:id="rId58"/>
+    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId59"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId60"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId61"/>
+    <sheet name="NodeCapacities" sheetId="107" r:id="rId62"/>
+    <sheet name="DisposalOperatingCapacity" sheetId="111" r:id="rId63"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId64"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId65"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId66"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId67"/>
+    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId68"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId69"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId70"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId71"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId72"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId73"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId74"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId75"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId76"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId77"/>
+    <sheet name="PipelineExpansionDistance" sheetId="103" r:id="rId78"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="101" r:id="rId79"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="100" r:id="rId80"/>
+    <sheet name="PipelineDiameterValues" sheetId="93" r:id="rId81"/>
+    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId82"/>
+    <sheet name="RemovalEfficiency" sheetId="116" r:id="rId83"/>
+    <sheet name="DesalinationTechnologies" sheetId="112" r:id="rId84"/>
+    <sheet name="DesalinationSites" sheetId="114" r:id="rId85"/>
+    <sheet name="BeneficialReuseCost" sheetId="136" r:id="rId86"/>
+    <sheet name="BeneficialReuseCredit" sheetId="128" r:id="rId87"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="113" r:id="rId88"/>
+    <sheet name="Hydraulics" sheetId="95" r:id="rId89"/>
+    <sheet name="Economics" sheetId="99" r:id="rId90"/>
+    <sheet name="FreshwaterQuality" sheetId="138" r:id="rId91"/>
+    <sheet name="PadWaterQuality" sheetId="104" r:id="rId92"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId93"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId94"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="129" r:id="rId95"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="130" r:id="rId96"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="131" r:id="rId97"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="132" r:id="rId98"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="133" r:id="rId99"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="76">PipelineExpansionDistance!$O$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="77" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="77">PipelineExpansionDistance!$O$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -136,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3679" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3693" uniqueCount="311">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1662,13 +1664,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1678,7 +1680,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1947,13 +1949,49 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="3" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="3" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="3" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="3" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2936,6 +2974,52 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0D7E5C-CD82-4DB8-A226-3E1C788BA0DC}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="1" customWidth="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF69D0FC-C70F-430B-9882-945A087A2D92}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -2982,7 +3066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFC53F8-A679-4C96-A30B-3522B67D8CF1}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3034,7 +3118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A85E027-57F4-45A3-888B-4C0E11BBDC89}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3078,7 +3162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F8A809-1347-42CB-A460-105FB2B000F6}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3258,7 +3342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E58F52A-57D4-400C-9B2D-0CDF39E9349F}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3299,7 +3383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153D1DC6-FF6C-4D1F-9E23-B1795807F580}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3337,7 +3421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A75646C-6D5B-41D2-BD66-0AABE8C35A83}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3383,7 +3467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691EF25-02B9-4EAE-A04E-51FF0E4ADDCA}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3427,7 +3511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EADE56A-3552-4283-86E6-D2B76E77A8C0}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4070,7 +4154,79 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F319BCD0-9FF0-4128-B77A-FE703C6CAEA8}">
+  <sheetPr>
+    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
+  </sheetPr>
+  <dimension ref="C3:M36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="38"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="39"/>
+      <c r="F21" s="39"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="40"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="40"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="40"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="40"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="40"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="40"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="40"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="40"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C31" s="40"/>
+      <c r="M31" s="24"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C32" s="40"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="40"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="40"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="40"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="40"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B44EC57-024F-431A-B1C2-58810C4F9E47}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4324,79 +4480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F319BCD0-9FF0-4128-B77A-FE703C6CAEA8}">
-  <sheetPr>
-    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
-  </sheetPr>
-  <dimension ref="C3:M36"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="38"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="39"/>
-      <c r="F21" s="39"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="40"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="40"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="40"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="40"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="40"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="40"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="40"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C30" s="40"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="40"/>
-      <c r="M31" s="24"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="40"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="40"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="40"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="40"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="40"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F10C60C-760C-4F1B-AB9A-B14851122200}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4475,7 +4559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399EB22-0DA7-4F9B-9913-FB50F464ABD0}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5627,7 +5711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037676BC-0D9E-4EC2-B7DF-9077076036FD}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5922,7 +6006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B147A77C-3EC6-43F3-933A-7BFD421AB782}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6195,7 +6279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928AC5F8-3DBD-4182-95AF-F72C7FA4D2FF}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6433,7 +6517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A514516D-9002-4617-9A63-E1CA29CE5849}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6478,7 +6562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BDDCF2-8703-4830-B9E7-D3EE6304DB46}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6501,7 +6585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E548F62-97B3-424F-8681-D1975DE263A9}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6547,7 +6631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84811564-E4BD-401D-B042-93D89607376A}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6567,122 +6651,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BC2D47-F187-4A8D-891B-85F0F5A9A73D}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="29"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7073,6 +7041,122 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BC2D47-F187-4A8D-891B-85F0F5A9A73D}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05F6C2E-9295-44C7-B492-F6D27B8F0C30}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7133,7 +7217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A1AE0C-960A-4D78-B379-4A547CF947AD}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7189,7 +7273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E3F424-AF67-40EA-B112-0E5B2FC8462D}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7261,7 +7345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3F673B-ABE6-40C2-BA6B-F7AEA69D03F8}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7307,7 +7391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4854EF-5B43-4334-B4BA-805768EC59B0}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7330,7 +7414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D2FFAB-ECD3-4BD0-9D84-85E4DB7922BD}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7353,7 +7437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ED8ED-0A77-4974-A7C2-D2B875DA1401}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7532,7 +7616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F615298C-1D1C-4004-91BA-05C3C07D8B7C}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7663,7 +7747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE275C-BC38-44C0-8EFB-EA0A3ABCF1EE}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7904,102 +7988,6 @@
         <v>1</v>
       </c>
       <c r="D17" s="9">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90457C74-863B-4C67-B58B-571271FAEA0E}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9">
         <v>1</v>
       </c>
     </row>
@@ -8119,6 +8107,102 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90457C74-863B-4C67-B58B-571271FAEA0E}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37622F2B-1E4B-46C9-B210-3150CCBB5892}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8197,7 +8281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A52059-0CB1-474F-ACFF-2997470BE1E9}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8241,7 +8325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7671FE8C-53C8-47E3-8F66-0CDFF992F8F0}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8293,7 +8377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA0172C-9C06-4AFA-A735-EDA51E2D806D}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8316,7 +8400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD3490E-F249-4CEC-A79A-88A8E596A07B}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8339,7 +8423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D5E22A-C49D-4697-9262-298442E9AD18}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8362,7 +8446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789E7D10-DA84-4E98-A491-162D17B0E3FF}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8392,507 +8476,507 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="108" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="108" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="111">
+      <c r="B3" s="110">
         <v>650</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="111">
+      <c r="B4" s="110">
         <v>550</v>
       </c>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="111">
+      <c r="B5" s="110">
         <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="111">
+      <c r="B6" s="110">
         <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="111">
+      <c r="B7" s="110">
         <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="111">
+      <c r="B8" s="110">
         <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="111">
+      <c r="B9" s="110">
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="111">
+      <c r="B10" s="110">
         <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="111">
+      <c r="B11" s="110">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="111">
+      <c r="B12" s="110">
         <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="111">
+      <c r="B13" s="110">
         <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="111">
+      <c r="B14" s="110">
         <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="111">
+      <c r="B15" s="110">
         <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="111">
+      <c r="B16" s="110">
         <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="111">
+      <c r="B17" s="110">
         <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="110" t="s">
+      <c r="A18" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="111">
+      <c r="B18" s="110">
         <v>650</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="111">
+      <c r="B19" s="110">
         <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="110" t="s">
+      <c r="A20" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="111">
+      <c r="B20" s="110">
         <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="111">
+      <c r="B21" s="110">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="110" t="s">
+      <c r="A22" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="111">
+      <c r="B22" s="110">
         <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="111">
+      <c r="B23" s="110">
         <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="109" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="111">
+      <c r="B24" s="110">
         <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="111">
+      <c r="B25" s="110">
         <v>650</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="111">
+      <c r="B26" s="110">
         <v>650</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="111">
+      <c r="B27" s="110">
         <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="109" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="111">
+      <c r="B28" s="110">
         <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="111">
+      <c r="B29" s="110">
         <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="110" t="s">
+      <c r="A30" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B30" s="111">
+      <c r="B30" s="110">
         <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="111">
+      <c r="B31" s="110">
         <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="111">
+      <c r="B32" s="110">
         <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="110" t="s">
+      <c r="A33" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="111">
+      <c r="B33" s="110">
         <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="110" t="s">
+      <c r="A34" s="109" t="s">
         <v>285</v>
       </c>
-      <c r="B34" s="111">
+      <c r="B34" s="110">
         <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="111">
+      <c r="B35" s="110">
         <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="110" t="s">
+      <c r="A36" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="111">
+      <c r="B36" s="110">
         <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="110" t="s">
+      <c r="A37" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="111">
+      <c r="B37" s="110">
         <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="110" t="s">
+      <c r="A38" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="111">
+      <c r="B38" s="110">
         <v>600</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="110" t="s">
+      <c r="A39" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="111">
+      <c r="B39" s="110">
         <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="110" t="s">
+      <c r="A40" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="111">
+      <c r="B40" s="110">
         <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="111">
+      <c r="B41" s="110">
         <v>550</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="110" t="s">
+      <c r="A42" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="111">
+      <c r="B42" s="110">
         <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="110" t="s">
+      <c r="A43" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="111">
+      <c r="B43" s="110">
         <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="110" t="s">
+      <c r="A44" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="111">
+      <c r="B44" s="110">
         <v>550</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="110" t="s">
+      <c r="A45" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="111">
+      <c r="B45" s="110">
         <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="110" t="s">
+      <c r="A46" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="111">
+      <c r="B46" s="110">
         <v>500</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="110" t="s">
+      <c r="A47" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="111">
+      <c r="B47" s="110">
         <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="110" t="s">
+      <c r="A48" s="109" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="111">
+      <c r="B48" s="110">
         <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="110" t="s">
+      <c r="A49" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="111">
+      <c r="B49" s="110">
         <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="110" t="s">
+      <c r="A50" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="B50" s="111">
+      <c r="B50" s="110">
         <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="B51" s="111">
+      <c r="B51" s="110">
         <v>350</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="110" t="s">
+      <c r="A52" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="111">
+      <c r="B52" s="110">
         <v>350</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="110" t="s">
+      <c r="A53" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="B53" s="111">
+      <c r="B53" s="110">
         <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="110" t="s">
+      <c r="A54" s="109" t="s">
         <v>140</v>
       </c>
-      <c r="B54" s="111">
+      <c r="B54" s="110">
         <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="110" t="s">
+      <c r="A55" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="B55" s="111">
+      <c r="B55" s="110">
         <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="110" t="s">
+      <c r="A56" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="B56" s="111">
+      <c r="B56" s="110">
         <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="110" t="s">
+      <c r="A57" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="B57" s="111">
+      <c r="B57" s="110">
         <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="110" t="s">
+      <c r="A58" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="B58" s="111">
+      <c r="B58" s="110">
         <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="110" t="s">
+      <c r="A59" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="B59" s="111">
+      <c r="B59" s="110">
         <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="110" t="s">
+      <c r="A60" s="109" t="s">
         <v>146</v>
       </c>
-      <c r="B60" s="111">
+      <c r="B60" s="110">
         <v>250</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="110" t="s">
+      <c r="A61" s="109" t="s">
         <v>147</v>
       </c>
-      <c r="B61" s="111">
+      <c r="B61" s="110">
         <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="110" t="s">
+      <c r="A62" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="B62" s="111">
+      <c r="B62" s="110">
         <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="110" t="s">
+      <c r="A63" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="B63" s="111">
+      <c r="B63" s="110">
         <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="110" t="s">
+      <c r="A64" s="109" t="s">
         <v>150</v>
       </c>
-      <c r="B64" s="111">
+      <c r="B64" s="110">
         <v>150</v>
       </c>
     </row>
@@ -8902,7 +8986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FA210-6C83-4CC4-AF45-F41CDC53F769}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -9420,7 +9504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF4E1D-6CE0-4F02-8B9E-F2818C0A814C}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -12807,7 +12891,113 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FE18E-3C30-49FC-B6A0-0A6D3F02EBB0}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68666333-AE69-4574-92B2-6BE3A00DF612}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -13491,113 +13681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FE18E-3C30-49FC-B6A0-0A6D3F02EBB0}">
-  <dimension ref="A1:O15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE870389-1558-469D-A4C0-FFF0CB6EF3E1}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -13956,7 +14040,7 @@
       <c r="BA3" s="34">
         <v>30.530740495826539</v>
       </c>
-      <c r="BB3" s="112"/>
+      <c r="BB3" s="111"/>
       <c r="BC3" s="1"/>
     </row>
     <row r="4" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14119,7 +14203,7 @@
       <c r="BA4" s="34">
         <v>45.653094194859136</v>
       </c>
-      <c r="BB4" s="112"/>
+      <c r="BB4" s="111"/>
       <c r="BC4" s="1"/>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
@@ -14282,7 +14366,7 @@
       <c r="BA5" s="34">
         <v>41.707790823326015</v>
       </c>
-      <c r="BB5" s="112"/>
+      <c r="BB5" s="111"/>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
@@ -14444,7 +14528,7 @@
       <c r="BA6" s="34">
         <v>25.872474314917209</v>
       </c>
-      <c r="BB6" s="112"/>
+      <c r="BB6" s="111"/>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -14606,7 +14690,7 @@
       <c r="BA7" s="34">
         <v>20.186417970010083</v>
       </c>
-      <c r="BB7" s="112"/>
+      <c r="BB7" s="111"/>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -14768,7 +14852,7 @@
       <c r="BA8" s="34">
         <v>50.061690079564336</v>
       </c>
-      <c r="BB8" s="112"/>
+      <c r="BB8" s="111"/>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -14930,7 +15014,7 @@
       <c r="BA9" s="34">
         <v>42.788497096370868</v>
       </c>
-      <c r="BB9" s="112"/>
+      <c r="BB9" s="111"/>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
@@ -15092,7 +15176,7 @@
       <c r="BA10" s="34">
         <v>39.241692118871413</v>
       </c>
-      <c r="BB10" s="112"/>
+      <c r="BB10" s="111"/>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
@@ -15254,7 +15338,7 @@
       <c r="BA11" s="34">
         <v>30.530740495826539</v>
       </c>
-      <c r="BB11" s="112"/>
+      <c r="BB11" s="111"/>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
@@ -15416,7 +15500,7 @@
       <c r="BA12" s="34">
         <v>38.113481135575853</v>
       </c>
-      <c r="BB12" s="112"/>
+      <c r="BB12" s="111"/>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -15578,7 +15662,7 @@
       <c r="BA13" s="34">
         <v>20.918278974251585</v>
       </c>
-      <c r="BB13" s="112"/>
+      <c r="BB13" s="111"/>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
@@ -15740,7 +15824,7 @@
       <c r="BA14" s="34">
         <v>22.452796957158139</v>
       </c>
-      <c r="BB14" s="112"/>
+      <c r="BB14" s="111"/>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
@@ -15902,7 +15986,7 @@
       <c r="BA15" s="34">
         <v>19.896098302448351</v>
       </c>
-      <c r="BB15" s="112"/>
+      <c r="BB15" s="111"/>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
@@ -16064,7 +16148,7 @@
       <c r="BA16" s="34">
         <v>26.803874715567087</v>
       </c>
-      <c r="BB16" s="112"/>
+      <c r="BB16" s="111"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
@@ -16226,7 +16310,7 @@
       <c r="BA17" s="34">
         <v>16.822014975008404</v>
       </c>
-      <c r="BB17" s="112"/>
+      <c r="BB17" s="111"/>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
@@ -16388,7 +16472,7 @@
       <c r="BA18" s="7">
         <v>0</v>
       </c>
-      <c r="BB18" s="112"/>
+      <c r="BB18" s="111"/>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
@@ -16550,7 +16634,7 @@
       <c r="BA19" s="7">
         <v>0</v>
       </c>
-      <c r="BB19" s="112"/>
+      <c r="BB19" s="111"/>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
@@ -16886,7 +16970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE628BF-A05C-42C8-8EC7-63FF3B624ADC}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -19619,7 +19703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AB3CAC-DE83-4E65-8BC7-386D18A19803}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -23766,7 +23850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -23825,7 +23909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -23877,7 +23961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -23937,7 +24021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71161610-124C-4EF0-9AD2-EA56457B2C52}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -23961,7 +24045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93770ED0-6BFC-4696-92DB-4CEBACB9D35D}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -23985,7 +24069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -25460,74 +25544,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
-  <sheetPr>
-    <tabColor rgb="FFD9C6FE"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Completions Pad Storage Capacity [bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="35">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="35">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="35">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="37">
-        <v>800000</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -25591,6 +25607,74 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
+  <sheetPr>
+    <tabColor rgb="FFD9C6FE"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <v>Table of Completions Pad Storage Capacity [bbl]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="35">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="35">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="35">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="37">
+        <v>800000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -25658,7 +25742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D80780D-32E5-452A-A6C3-3B8E431097FA}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -25700,7 +25784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F424B69F-B42E-4A8C-B24F-D4CE4D83DFA9}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -26382,7 +26466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -26442,7 +26526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -26545,7 +26629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -26612,7 +26696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -26655,7 +26739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -26754,7 +26838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -26996,312 +27080,6 @@
       </c>
       <c r="B29" s="9">
         <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="7">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="D3" s="29">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2</v>
-      </c>
-      <c r="D4" s="29">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="7">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7">
-        <v>4</v>
-      </c>
-      <c r="D6" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="C7" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="D7" s="29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="7">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7">
-        <v>9.5</v>
-      </c>
-      <c r="D8" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="7">
-        <v>8.5</v>
-      </c>
-      <c r="C9" s="7">
-        <v>9</v>
-      </c>
-      <c r="D9" s="29">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="7">
-        <v>12</v>
-      </c>
-      <c r="C10" s="7">
-        <v>12.5</v>
-      </c>
-      <c r="D10" s="29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="7">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7">
-        <v>9.5</v>
-      </c>
-      <c r="D11" s="29">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="7">
-        <v>11.5</v>
-      </c>
-      <c r="C12" s="7">
-        <v>12</v>
-      </c>
-      <c r="D12" s="29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="7">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7">
-        <v>12.5</v>
-      </c>
-      <c r="D13" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="7">
-        <v>12.5</v>
-      </c>
-      <c r="C14" s="7">
-        <v>13</v>
-      </c>
-      <c r="D14" s="29">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="7">
-        <v>12.5</v>
-      </c>
-      <c r="C15" s="7">
-        <v>13</v>
-      </c>
-      <c r="D15" s="29">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="7">
-        <v>12.5</v>
-      </c>
-      <c r="C16" s="7">
-        <v>13</v>
-      </c>
-      <c r="D16" s="29">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="93">
-        <v>11.5</v>
-      </c>
-      <c r="C17" s="93">
-        <v>12</v>
-      </c>
-      <c r="D17" s="92">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="7">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="D18" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2</v>
-      </c>
-      <c r="D19" s="29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="7">
-        <v>8</v>
-      </c>
-      <c r="C20" s="7">
-        <v>6</v>
-      </c>
-      <c r="D20" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="8">
-        <v>8</v>
-      </c>
-      <c r="C21" s="8">
-        <v>9</v>
-      </c>
-      <c r="D21" s="9">
-        <v>3.5</v>
       </c>
     </row>
   </sheetData>
@@ -27359,6 +27137,312 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="D3" s="29">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="D7" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="7">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="D8" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="C9" s="7">
+        <v>9</v>
+      </c>
+      <c r="D9" s="29">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="7">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="D10" s="29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="7">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="D11" s="29">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="C12" s="7">
+        <v>12</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="7">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="D13" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="C14" s="7">
+        <v>13</v>
+      </c>
+      <c r="D14" s="29">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="C15" s="7">
+        <v>13</v>
+      </c>
+      <c r="D15" s="29">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="C16" s="7">
+        <v>13</v>
+      </c>
+      <c r="D16" s="29">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="93">
+        <v>11.5</v>
+      </c>
+      <c r="C17" s="93">
+        <v>12</v>
+      </c>
+      <c r="D17" s="92">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D18" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="7">
+        <v>8</v>
+      </c>
+      <c r="C20" s="7">
+        <v>6</v>
+      </c>
+      <c r="D20" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="8">
+        <v>8</v>
+      </c>
+      <c r="C21" s="8">
+        <v>9</v>
+      </c>
+      <c r="D21" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27418,7 +27502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27461,7 +27545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27512,7 +27596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27555,7 +27639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27654,7 +27738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27715,7 +27799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27758,7 +27842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBA4E88-E142-4CAA-9941-4EFBE822A9B8}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -34874,7 +34958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB463F82-A1C0-450F-A6BA-E327D67D2CCA}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -34928,49 +35012,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDE49D4-5953-41A3-9445-43C5CEE52016}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Pipeline Capacity Expansion Increments [bbl/week]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="37">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -35054,6 +35095,49 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDE49D4-5953-41A3-9445-43C5CEE52016}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <v>Table of Pipeline Capacity Expansion Increments [bbl/week]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451B8273-C388-463D-8494-0D66D9ED9BA0}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -35096,7 +35180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B45C9D-7A15-425D-8487-B88B27280274}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35200,7 +35284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A32EEB0-CDB8-48FA-AC3A-32F164C0112D}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35295,7 +35379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CCDB1D-7C9B-45C0-BC80-50ECEB2FE439}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35343,7 +35427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805001D5-70DF-464C-8122-7D31EBC77774}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35407,7 +35491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93D2995-5E8F-4CB1-BE39-9D6C29509556}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35434,7 +35518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C085ECA6-7B3E-4F26-A39A-70D9F45A71B6}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35461,7 +35545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D5E840-A652-4014-8BA7-131503FECE29}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35525,7 +35609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97A568C-E2FB-4ADF-84D0-ABF3E0446F9A}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35573,7 +35657,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4A540C-1D3B-4BEB-9463-173E328A09FE}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB07E06-ED03-4572-9B3E-05DAA3F2CF42}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -35621,53 +35741,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0D7E5C-CD82-4DB8-A226-3E1C788BA0DC}">
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71BA671-ED56-48F0-ACF4-7EDF42ED3570}">
   <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="121">
+        <v>0</v>
+      </c>
+      <c r="C3" s="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="122">
+        <v>0</v>
+      </c>
+      <c r="C4" s="123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="122">
+        <v>0</v>
+      </c>
+      <c r="C5" s="123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="122">
+        <v>0</v>
+      </c>
+      <c r="C6" s="123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="122">
+        <v>0</v>
+      </c>
+      <c r="C7" s="123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="122">
+        <v>0</v>
+      </c>
+      <c r="C8" s="123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="122">
+        <v>0</v>
+      </c>
+      <c r="C9" s="123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="124">
+        <v>0</v>
+      </c>
+      <c r="C10" s="120">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23C97C0-70AD-4A71-BE9C-0931EDC97CA5}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -35675,7 +35877,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35693,10 +35895,10 @@
       <c r="A2" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="79" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="25" t="s">
         <v>287</v>
       </c>
     </row>
@@ -35704,10 +35906,10 @@
       <c r="A3" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="114">
         <v>142277</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="112">
         <v>92</v>
       </c>
     </row>
@@ -35715,10 +35917,10 @@
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="115">
         <v>140998</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="113">
         <v>60</v>
       </c>
     </row>
@@ -35726,10 +35928,10 @@
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="115">
         <v>172490.2</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="113">
         <v>105</v>
       </c>
     </row>
@@ -35737,10 +35939,10 @@
       <c r="A6" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="115">
         <v>257547</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="113">
         <v>40</v>
       </c>
     </row>
@@ -35748,10 +35950,10 @@
       <c r="A7" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="115">
         <v>241833.8</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="113">
         <v>92</v>
       </c>
     </row>
@@ -35759,10 +35961,10 @@
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="115">
         <v>188503.7</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="113">
         <v>60</v>
       </c>
     </row>
@@ -35770,10 +35972,10 @@
       <c r="A9" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="115">
         <v>146716</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="113">
         <v>105</v>
       </c>
     </row>
@@ -35781,10 +35983,10 @@
       <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="115">
         <v>216563</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="113">
         <v>40</v>
       </c>
     </row>
@@ -35792,10 +35994,10 @@
       <c r="A11" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="115">
         <v>150626</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="113">
         <v>92</v>
       </c>
     </row>
@@ -35803,10 +36005,10 @@
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="115">
         <v>247061</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="113">
         <v>60</v>
       </c>
     </row>
@@ -35814,10 +36016,10 @@
       <c r="A13" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="115">
         <v>180968</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="113">
         <v>105</v>
       </c>
     </row>
@@ -35825,10 +36027,10 @@
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="115">
         <v>195584</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="113">
         <v>40</v>
       </c>
     </row>
@@ -35836,10 +36038,10 @@
       <c r="A15" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="115">
         <v>148655</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="113">
         <v>60</v>
       </c>
     </row>
@@ -35847,10 +36049,10 @@
       <c r="A16" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="115">
         <v>185369</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="113">
         <v>105</v>
       </c>
     </row>
@@ -35858,10 +36060,10 @@
       <c r="A17" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="108">
+      <c r="B17" s="116">
         <v>222724</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="113">
         <v>40</v>
       </c>
     </row>
@@ -35869,10 +36071,10 @@
       <c r="A18" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="115">
         <v>165376</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="112">
         <v>92</v>
       </c>
     </row>
@@ -35880,10 +36082,10 @@
       <c r="A19" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="115">
         <v>240977</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="113">
         <v>60</v>
       </c>
     </row>
@@ -35891,10 +36093,10 @@
       <c r="A20" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="115">
         <v>192794</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="113">
         <v>105</v>
       </c>
     </row>
@@ -35902,10 +36104,10 @@
       <c r="A21" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21" s="117">
         <v>216769</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="118">
         <v>40</v>
       </c>
     </row>
@@ -35915,7 +36117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485401B3-8B00-41A4-BDC3-322B62874F13}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -35975,7 +36177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C5F8D1-3580-447F-A30D-0D2BFC2160E3}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -36058,7 +36260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DB2954-C948-47D3-8551-66A5E543A667}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -36099,7 +36301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DCF108-65D2-4920-AF63-41DE3C60BC9F}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -36125,7 +36327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E838BDDE-4D1E-4BCC-805C-186192CF51E1}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -36151,7 +36353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E009F48F-F710-4F4F-876A-C3ABC3B5BD14}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -36194,7 +36396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431BFE9B-561C-4E4E-9282-73406F634D63}">
   <sheetPr>
     <tabColor theme="0"/>

--- a/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
+++ b/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5927B496-2FDE-46BB-A461-FC77DCAEF48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D336835-9C04-445E-B066-FB70C4FC5E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3693" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3693" uniqueCount="312">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1071,6 +1071,9 @@
   </si>
   <si>
     <t>Treatment Sites to Disposal Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>List of all Water Quality Components [-]</t>
   </si>
 </sst>
 </file>
@@ -35675,7 +35678,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -35760,8 +35763,8 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
+        <f>_xlfn.CONCAT( "Table of Water Quality of Freshwater Sources [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Water Quality of Freshwater Sources [mg/liter]</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
+++ b/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9083821D-BB5E-4BE3-8AFE-C870CBFC3AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F548836D-57C9-466E-B300-404DABEBAB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="309">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1026,9 +1026,6 @@
     <t>Pressure units when using the hydraulics module</t>
   </si>
   <si>
-    <t>Table of Production Rate Forecasts by Pads [bbl/day]</t>
-  </si>
-  <si>
     <t>psi</t>
   </si>
   <si>
@@ -1675,7 +1672,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1951,6 +1948,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6490,7 +6493,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -6559,7 +6562,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -6908,19 +6911,19 @@
         <v>293</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D9" s="61" t="s">
         <v>295</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F9" s="60" t="s">
         <v>236</v>
       </c>
       <c r="G9" s="60" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H9" s="61"/>
       <c r="I9" s="60"/>
@@ -6953,13 +6956,13 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>260</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="60"/>
@@ -6987,7 +6990,7 @@
         <v>255</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>255</v>
@@ -7319,7 +7322,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -7342,7 +7345,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -8257,7 +8260,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -8305,7 +8308,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -8328,7 +8331,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -8351,7 +8354,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -13602,7 +13605,7 @@
   <dimension ref="A1:BC23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13615,8 +13618,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>296</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT("Well pressure at production or completions pad [",VLOOKUP("pressure", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Well pressure at production or completions pad [psi]</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>289</v>
@@ -13797,160 +13801,160 @@
       <c r="A3" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="113">
         <v>70</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="113">
         <v>60.517606191550563</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="113">
         <v>55.577956756392922</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="113">
         <v>52.319723702222852</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="113">
         <v>49.924570703576457</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="113">
         <v>48.049212855920203</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="113">
         <v>46.518687368204731</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="113">
         <v>45.232349072312232</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="113">
         <v>44.127275388792604</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3" s="113">
         <v>43.161650130303755</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="113">
         <v>42.306351767253425</v>
       </c>
-      <c r="M3" s="34">
+      <c r="M3" s="113">
         <v>41.540333448979538</v>
       </c>
-      <c r="N3" s="34">
+      <c r="N3" s="113">
         <v>40.847918977390528</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="113">
         <v>40.217137181383883</v>
       </c>
-      <c r="P3" s="34">
+      <c r="P3" s="113">
         <v>39.638651880640772</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="113">
         <v>39.105049832527698</v>
       </c>
-      <c r="R3" s="34">
+      <c r="R3" s="113">
         <v>38.610352492430636</v>
       </c>
-      <c r="S3" s="34">
+      <c r="S3" s="113">
         <v>38.149672489786461</v>
       </c>
-      <c r="T3" s="34">
+      <c r="T3" s="113">
         <v>37.718966435583724</v>
       </c>
-      <c r="U3" s="34">
+      <c r="U3" s="113">
         <v>37.314853502331573</v>
       </c>
-      <c r="V3" s="34">
+      <c r="V3" s="113">
         <v>36.934479927346352</v>
       </c>
-      <c r="W3" s="34">
+      <c r="W3" s="113">
         <v>36.575416223597891</v>
       </c>
-      <c r="X3" s="34">
+      <c r="X3" s="113">
         <v>36.235578102982899</v>
       </c>
-      <c r="Y3" s="34">
+      <c r="Y3" s="113">
         <v>35.913164867586268</v>
       </c>
-      <c r="Z3" s="34">
+      <c r="Z3" s="113">
         <v>35.606610856234362</v>
       </c>
-      <c r="AA3" s="34">
+      <c r="AA3" s="113">
         <v>35.314546777401212</v>
       </c>
-      <c r="AB3" s="34">
+      <c r="AB3" s="113">
         <v>35.035768619082248</v>
       </c>
-      <c r="AC3" s="34">
+      <c r="AC3" s="113">
         <v>34.76921242992222</v>
       </c>
-      <c r="AD3" s="34">
+      <c r="AD3" s="113">
         <v>34.513933696143681</v>
       </c>
-      <c r="AE3" s="34">
+      <c r="AE3" s="113">
         <v>34.269090349665476</v>
       </c>
-      <c r="AF3" s="34">
+      <c r="AF3" s="113">
         <v>34.033928670196069</v>
       </c>
-      <c r="AG3" s="34">
+      <c r="AG3" s="113">
         <v>33.807771512369591</v>
       </c>
-      <c r="AH3" s="34">
+      <c r="AH3" s="113">
         <v>33.590008414873687</v>
       </c>
-      <c r="AI3" s="34">
+      <c r="AI3" s="113">
         <v>33.380087243626704</v>
       </c>
-      <c r="AJ3" s="34">
+      <c r="AJ3" s="113">
         <v>33.177507093592951</v>
       </c>
-      <c r="AK3" s="34">
+      <c r="AK3" s="113">
         <v>32.981812229621823</v>
       </c>
-      <c r="AL3" s="34">
+      <c r="AL3" s="113">
         <v>32.792586889973059</v>
       </c>
-      <c r="AM3" s="34">
+      <c r="AM3" s="113">
         <v>32.609450810013847</v>
       </c>
-      <c r="AN3" s="34">
+      <c r="AN3" s="113">
         <v>32.432055350200763</v>
       </c>
-      <c r="AO3" s="34">
+      <c r="AO3" s="113">
         <v>32.26008013356433</v>
       </c>
-      <c r="AP3" s="34">
+      <c r="AP3" s="113">
         <v>32.093230114750334</v>
       </c>
-      <c r="AQ3" s="34">
+      <c r="AQ3" s="113">
         <v>31.931233016183935</v>
       </c>
-      <c r="AR3" s="34">
+      <c r="AR3" s="113">
         <v>31.773837077830798</v>
       </c>
-      <c r="AS3" s="34">
+      <c r="AS3" s="113">
         <v>31.620809075882097</v>
       </c>
-      <c r="AT3" s="34">
+      <c r="AT3" s="113">
         <v>31.471932572913797</v>
       </c>
-      <c r="AU3" s="34">
+      <c r="AU3" s="113">
         <v>31.327006367992745</v>
       </c>
-      <c r="AV3" s="34">
+      <c r="AV3" s="113">
         <v>31.185843120080861</v>
       </c>
-      <c r="AW3" s="34">
+      <c r="AW3" s="113">
         <v>31.048268122125929</v>
       </c>
-      <c r="AX3" s="34">
+      <c r="AX3" s="113">
         <v>30.91411820658244</v>
       </c>
-      <c r="AY3" s="34">
+      <c r="AY3" s="113">
         <v>30.783240765905425</v>
       </c>
-      <c r="AZ3" s="34">
+      <c r="AZ3" s="113">
         <v>30.655492873905679</v>
       </c>
-      <c r="BA3" s="34">
+      <c r="BA3" s="35">
         <v>30.530740495826539</v>
       </c>
       <c r="BB3" s="112"/>
@@ -13960,160 +13964,160 @@
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="113">
         <v>182</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="113">
         <v>142.79430581720862</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="113">
         <v>123.90218033801798</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="113">
         <v>112.03414161438738</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="113">
         <v>103.61720813537787</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="113">
         <v>97.211680387944355</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="113">
         <v>92.105820134502693</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="113">
         <v>87.900205932160958</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="113">
         <v>84.350276332498495</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="113">
         <v>81.296413771475287</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="113">
         <v>78.62921650265514</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="113">
         <v>76.270738562202581</v>
       </c>
-      <c r="N4" s="34">
+      <c r="N4" s="113">
         <v>74.163670321702583</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="113">
         <v>72.264761801269174</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P4" s="113">
         <v>70.540648398415001</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="113">
         <v>68.965103776223117</v>
       </c>
-      <c r="R4" s="34">
+      <c r="R4" s="113">
         <v>67.517175452344063</v>
       </c>
-      <c r="S4" s="34">
+      <c r="S4" s="113">
         <v>66.179885463674992</v>
       </c>
-      <c r="T4" s="34">
+      <c r="T4" s="113">
         <v>64.939303697171056</v>
       </c>
-      <c r="U4" s="34">
+      <c r="U4" s="113">
         <v>63.783873461133943</v>
       </c>
-      <c r="V4" s="34">
+      <c r="V4" s="113">
         <v>62.703911738935162</v>
       </c>
-      <c r="W4" s="34">
+      <c r="W4" s="113">
         <v>61.691232898063987</v>
       </c>
-      <c r="X4" s="34">
+      <c r="X4" s="113">
         <v>60.738861250108314</v>
       </c>
-      <c r="Y4" s="34">
+      <c r="Y4" s="113">
         <v>59.840808610744631</v>
       </c>
-      <c r="Z4" s="34">
+      <c r="Z4" s="113">
         <v>58.991900119616567</v>
       </c>
-      <c r="AA4" s="34">
+      <c r="AA4" s="113">
         <v>58.187636376065029</v>
       </c>
-      <c r="AB4" s="34">
+      <c r="AB4" s="113">
         <v>57.424083240169672</v>
       </c>
-      <c r="AC4" s="34">
+      <c r="AC4" s="113">
         <v>56.697782947572342</v>
       </c>
-      <c r="AD4" s="34">
+      <c r="AD4" s="113">
         <v>56.00568181561912</v>
       </c>
-      <c r="AE4" s="34">
+      <c r="AE4" s="113">
         <v>55.345070988722306</v>
       </c>
-      <c r="AF4" s="34">
+      <c r="AF4" s="113">
         <v>54.713537522426556</v>
       </c>
-      <c r="AG4" s="34">
+      <c r="AG4" s="113">
         <v>54.108923732623808</v>
       </c>
-      <c r="AH4" s="34">
+      <c r="AH4" s="113">
         <v>53.529293203016678</v>
       </c>
-      <c r="AI4" s="34">
+      <c r="AI4" s="113">
         <v>52.972902194814012</v>
       </c>
-      <c r="AJ4" s="34">
+      <c r="AJ4" s="113">
         <v>52.438175468991432</v>
       </c>
-      <c r="AK4" s="34">
+      <c r="AK4" s="113">
         <v>51.923685735427732</v>
       </c>
-      <c r="AL4" s="34">
+      <c r="AL4" s="113">
         <v>51.428136100746876</v>
       </c>
-      <c r="AM4" s="34">
+      <c r="AM4" s="113">
         <v>50.950345009288085</v>
       </c>
-      <c r="AN4" s="34">
+      <c r="AN4" s="113">
         <v>50.489233267741234</v>
       </c>
-      <c r="AO4" s="34">
+      <c r="AO4" s="113">
         <v>50.043812819864264</v>
       </c>
-      <c r="AP4" s="34">
+      <c r="AP4" s="113">
         <v>49.613176997996028</v>
       </c>
-      <c r="AQ4" s="34">
+      <c r="AQ4" s="113">
         <v>49.196492026289917</v>
       </c>
-      <c r="AR4" s="34">
+      <c r="AR4" s="113">
         <v>48.792989589369263</v>
       </c>
-      <c r="AS4" s="34">
+      <c r="AS4" s="113">
         <v>48.401960311465878</v>
       </c>
-      <c r="AT4" s="34">
+      <c r="AT4" s="113">
         <v>48.022748016599643</v>
       </c>
-      <c r="AU4" s="34">
+      <c r="AU4" s="113">
         <v>47.65474466119214</v>
       </c>
-      <c r="AV4" s="34">
+      <c r="AV4" s="113">
         <v>47.297385847613825</v>
       </c>
-      <c r="AW4" s="34">
+      <c r="AW4" s="113">
         <v>46.950146841273195</v>
       </c>
-      <c r="AX4" s="34">
+      <c r="AX4" s="113">
         <v>46.612539025545942</v>
       </c>
-      <c r="AY4" s="34">
+      <c r="AY4" s="113">
         <v>46.284106738564581</v>
       </c>
-      <c r="AZ4" s="34">
+      <c r="AZ4" s="113">
         <v>45.964424444010625</v>
       </c>
-      <c r="BA4" s="34">
+      <c r="BA4" s="35">
         <v>45.653094194859136</v>
       </c>
       <c r="BB4" s="112"/>
@@ -14123,160 +14127,160 @@
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="113">
         <v>112</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="113">
         <v>94.180398508416033</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="113">
         <v>85.101596792978356</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="113">
         <v>79.195959492893323</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="113">
         <v>74.898914157359272</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="113">
         <v>71.561627675582514</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="113">
         <v>68.856273130541624</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="113">
         <v>66.595598440152372</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="113">
         <v>64.663230149238075</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="113">
         <v>62.982228421319093</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="113">
         <v>61.499254518924594</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="113">
         <v>60.17591618211835</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="113">
         <v>58.983723438967779</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="113">
         <v>57.900993243203104</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="113">
         <v>56.910867793316854</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="113">
         <v>56</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="113">
         <v>55.15765477661067</v>
       </c>
-      <c r="S5" s="34">
+      <c r="S5" s="113">
         <v>54.375078431220224</v>
       </c>
-      <c r="T5" s="34">
+      <c r="T5" s="113">
         <v>53.645046049680367</v>
       </c>
-      <c r="U5" s="34">
+      <c r="U5" s="113">
         <v>52.961530104177847</v>
       </c>
-      <c r="V5" s="34">
+      <c r="V5" s="113">
         <v>52.319453505558414</v>
       </c>
-      <c r="W5" s="34">
+      <c r="W5" s="113">
         <v>51.714502665739495</v>
       </c>
-      <c r="X5" s="34">
+      <c r="X5" s="113">
         <v>51.142983975633911</v>
       </c>
-      <c r="Y5" s="34">
+      <c r="Y5" s="113">
         <v>50.601712202151305</v>
       </c>
-      <c r="Z5" s="34">
+      <c r="Z5" s="113">
         <v>50.087922695995289</v>
       </c>
-      <c r="AA5" s="34">
+      <c r="AA5" s="113">
         <v>49.599201598144511</v>
       </c>
-      <c r="AB5" s="34">
+      <c r="AB5" s="113">
         <v>49.133429816893056</v>
       </c>
-      <c r="AC5" s="34">
+      <c r="AC5" s="113">
         <v>48.688737657839042</v>
       </c>
-      <c r="AD5" s="34">
+      <c r="AD5" s="113">
         <v>48.263467779397473</v>
       </c>
-      <c r="AE5" s="34">
+      <c r="AE5" s="113">
         <v>47.856144716378218</v>
       </c>
-      <c r="AF5" s="34">
+      <c r="AF5" s="113">
         <v>47.465449630482432</v>
       </c>
-      <c r="AG5" s="34">
+      <c r="AG5" s="113">
         <v>47.090199254208017</v>
       </c>
-      <c r="AH5" s="34">
+      <c r="AH5" s="113">
         <v>46.729328224448864</v>
       </c>
-      <c r="AI5" s="34">
+      <c r="AI5" s="113">
         <v>46.381874175453831</v>
       </c>
-      <c r="AJ5" s="34">
+      <c r="AJ5" s="113">
         <v>46.046965092858215</v>
       </c>
-      <c r="AK5" s="34">
+      <c r="AK5" s="113">
         <v>45.723808531952663</v>
       </c>
-      <c r="AL5" s="34">
+      <c r="AL5" s="113">
         <v>45.411682381942228</v>
       </c>
-      <c r="AM5" s="34">
+      <c r="AM5" s="113">
         <v>45.109926919296662</v>
       </c>
-      <c r="AN5" s="34">
+      <c r="AN5" s="113">
         <v>44.817937941531994</v>
       </c>
-      <c r="AO5" s="34">
+      <c r="AO5" s="113">
         <v>44.535160810954835</v>
       </c>
-      <c r="AP5" s="34">
+      <c r="AP5" s="113">
         <v>44.261085268333339</v>
       </c>
-      <c r="AQ5" s="34">
+      <c r="AQ5" s="113">
         <v>43.995240900857453</v>
       </c>
-      <c r="AR5" s="34">
+      <c r="AR5" s="113">
         <v>43.737193168425812</v>
       </c>
-      <c r="AS5" s="34">
+      <c r="AS5" s="113">
         <v>43.486539908249007</v>
       </c>
-      <c r="AT5" s="34">
+      <c r="AT5" s="113">
         <v>43.242908250762049</v>
       </c>
-      <c r="AU5" s="34">
+      <c r="AU5" s="113">
         <v>43.005951890488717</v>
       </c>
-      <c r="AV5" s="34">
+      <c r="AV5" s="113">
         <v>42.77534866426678</v>
       </c>
-      <c r="AW5" s="34">
+      <c r="AW5" s="113">
         <v>42.550798396489178</v>
       </c>
-      <c r="AX5" s="34">
+      <c r="AX5" s="113">
         <v>42.332020977033459</v>
       </c>
-      <c r="AY5" s="34">
+      <c r="AY5" s="113">
         <v>42.118754642567616</v>
       </c>
-      <c r="AZ5" s="34">
+      <c r="AZ5" s="113">
         <v>41.910754436119802</v>
       </c>
-      <c r="BA5" s="34">
+      <c r="BA5" s="35">
         <v>41.707790823326015</v>
       </c>
       <c r="BB5" s="112"/>
@@ -14285,160 +14289,160 @@
       <c r="A6" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="113">
         <v>28</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="113">
         <v>27.614515725814059</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="113">
         <v>27.391486800416793</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="113">
         <v>27.234338527543994</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="113">
         <v>27.113066000317634</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="113">
         <v>27.014380107269201</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="113">
         <v>26.931222659734384</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="113">
         <v>26.859395341107401</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="113">
         <v>26.796198183478836</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="113">
         <v>26.739792408600206</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="113">
         <v>26.688869470315883</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="113">
         <v>26.642465153403709</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="113">
         <v>26.599848572970323</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="113">
         <v>26.560452559022682</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="113">
         <v>26.523828195233211</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="113">
         <v>26.489614108316687</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="113">
         <v>26.457515115394646</v>
       </c>
-      <c r="S6" s="34">
+      <c r="S6" s="113">
         <v>26.427287004632369</v>
       </c>
-      <c r="T6" s="34">
+      <c r="T6" s="113">
         <v>26.398725450373156</v>
       </c>
-      <c r="U6" s="34">
+      <c r="U6" s="113">
         <v>26.371657784724775</v>
       </c>
-      <c r="V6" s="34">
+      <c r="V6" s="113">
         <v>26.34593678582857</v>
       </c>
-      <c r="W6" s="34">
+      <c r="W6" s="113">
         <v>26.321435917579883</v>
       </c>
-      <c r="X6" s="34">
+      <c r="X6" s="113">
         <v>26.298045632116015</v>
       </c>
-      <c r="Y6" s="34">
+      <c r="Y6" s="113">
         <v>26.275670462611419</v>
       </c>
-      <c r="Z6" s="34">
+      <c r="Z6" s="113">
         <v>26.254226712056433</v>
       </c>
-      <c r="AA6" s="34">
+      <c r="AA6" s="113">
         <v>26.233640597234345</v>
       </c>
-      <c r="AB6" s="34">
+      <c r="AB6" s="113">
         <v>26.213846744432601</v>
       </c>
-      <c r="AC6" s="34">
+      <c r="AC6" s="113">
         <v>26.1947869598525</v>
       </c>
-      <c r="AD6" s="34">
+      <c r="AD6" s="113">
         <v>26.176409216667555</v>
       </c>
-      <c r="AE6" s="34">
+      <c r="AE6" s="113">
         <v>26.158666814502062</v>
       </c>
-      <c r="AF6" s="34">
+      <c r="AF6" s="113">
         <v>26.141517677285716</v>
       </c>
-      <c r="AG6" s="34">
+      <c r="AG6" s="113">
         <v>26.124923763030608</v>
       </c>
-      <c r="AH6" s="34">
+      <c r="AH6" s="113">
         <v>26.108850564793013</v>
       </c>
-      <c r="AI6" s="34">
+      <c r="AI6" s="113">
         <v>26.09326668642959</v>
       </c>
-      <c r="AJ6" s="34">
+      <c r="AJ6" s="113">
         <v>26.078143480093868</v>
       </c>
-      <c r="AK6" s="34">
+      <c r="AK6" s="113">
         <v>26.063454735000789</v>
       </c>
-      <c r="AL6" s="34">
+      <c r="AL6" s="113">
         <v>26.049176409002182</v>
       </c>
-      <c r="AM6" s="34">
+      <c r="AM6" s="113">
         <v>26.035286396099192</v>
       </c>
-      <c r="AN6" s="34">
+      <c r="AN6" s="113">
         <v>26.021764324271505</v>
       </c>
-      <c r="AO6" s="34">
+      <c r="AO6" s="113">
         <v>26.008591379002468</v>
       </c>
-      <c r="AP6" s="34">
+      <c r="AP6" s="113">
         <v>25.99575014867985</v>
       </c>
-      <c r="AQ6" s="34">
+      <c r="AQ6" s="113">
         <v>25.983224488698792</v>
       </c>
-      <c r="AR6" s="34">
+      <c r="AR6" s="113">
         <v>25.970999401617426</v>
       </c>
-      <c r="AS6" s="34">
+      <c r="AS6" s="113">
         <v>25.959060931143451</v>
       </c>
-      <c r="AT6" s="34">
+      <c r="AT6" s="113">
         <v>25.947396068080472</v>
       </c>
-      <c r="AU6" s="34">
+      <c r="AU6" s="113">
         <v>25.935992666651551</v>
       </c>
-      <c r="AV6" s="34">
+      <c r="AV6" s="113">
         <v>25.924839369856429</v>
       </c>
-      <c r="AW6" s="34">
+      <c r="AW6" s="113">
         <v>25.913925542717532</v>
       </c>
-      <c r="AX6" s="34">
+      <c r="AX6" s="113">
         <v>25.903241212435386</v>
       </c>
-      <c r="AY6" s="34">
+      <c r="AY6" s="113">
         <v>25.892777014613209</v>
       </c>
-      <c r="AZ6" s="34">
+      <c r="AZ6" s="113">
         <v>25.882524144827151</v>
       </c>
-      <c r="BA6" s="34">
+      <c r="BA6" s="35">
         <v>25.872474314917209</v>
       </c>
       <c r="BB6" s="112"/>
@@ -14447,160 +14451,160 @@
       <c r="A7" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="113">
         <v>21</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="113">
         <v>20.854942404177752</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="113">
         <v>20.770554087615587</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="113">
         <v>20.710886794360544</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="113">
         <v>20.664723310632613</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="113">
         <v>20.627081390480086</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="113">
         <v>20.595309099181218</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="113">
         <v>20.567826249325464</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="113">
         <v>20.543615100312593</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="113">
         <v>20.521981640072024</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="113">
         <v>20.502431420626074</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="113">
         <v>20.484599731654715</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="113">
         <v>20.468209863695524</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="113">
         <v>20.453046907602968</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="113">
         <v>20.438940629957393</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="113">
         <v>20.425753895657994</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="113">
         <v>20.413374612431571</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="113">
         <v>20.401709985267413</v>
       </c>
-      <c r="T7" s="34">
+      <c r="T7" s="113">
         <v>20.39068232902904</v>
       </c>
-      <c r="U7" s="34">
+      <c r="U7" s="113">
         <v>20.380225958252158</v>
       </c>
-      <c r="V7" s="34">
+      <c r="V7" s="113">
         <v>20.370284837890704</v>
       </c>
-      <c r="W7" s="34">
+      <c r="W7" s="113">
         <v>20.360810782036236</v>
       </c>
-      <c r="X7" s="34">
+      <c r="X7" s="113">
         <v>20.351762054078442</v>
       </c>
-      <c r="Y7" s="34">
+      <c r="Y7" s="113">
         <v>20.343102265537819</v>
       </c>
-      <c r="Z7" s="34">
+      <c r="Z7" s="113">
         <v>20.334799500238226</v>
       </c>
-      <c r="AA7" s="34">
+      <c r="AA7" s="113">
         <v>20.326825610666337</v>
       </c>
-      <c r="AB7" s="34">
+      <c r="AB7" s="113">
         <v>20.319155647438048</v>
       </c>
-      <c r="AC7" s="34">
+      <c r="AC7" s="113">
         <v>20.311767392762178</v>
       </c>
-      <c r="AD7" s="34">
+      <c r="AD7" s="113">
         <v>20.304640975957049</v>
       </c>
-      <c r="AE7" s="34">
+      <c r="AE7" s="113">
         <v>20.297758554293807</v>
       </c>
-      <c r="AF7" s="34">
+      <c r="AF7" s="113">
         <v>20.291104046287135</v>
       </c>
-      <c r="AG7" s="34">
+      <c r="AG7" s="113">
         <v>20.284662907421758</v>
       </c>
-      <c r="AH7" s="34">
+      <c r="AH7" s="113">
         <v>20.278421940463957</v>
       </c>
-      <c r="AI7" s="34">
+      <c r="AI7" s="113">
         <v>20.272369134150704</v>
       </c>
-      <c r="AJ7" s="34">
+      <c r="AJ7" s="113">
         <v>20.266493525311141</v>
       </c>
-      <c r="AK7" s="34">
+      <c r="AK7" s="113">
         <v>20.2607850804519</v>
       </c>
-      <c r="AL7" s="34">
+      <c r="AL7" s="113">
         <v>20.255234593600356</v>
       </c>
-      <c r="AM7" s="34">
+      <c r="AM7" s="113">
         <v>20.249833597799324</v>
       </c>
-      <c r="AN7" s="34">
+      <c r="AN7" s="113">
         <v>20.244574288121651</v>
       </c>
-      <c r="AO7" s="34">
+      <c r="AO7" s="113">
         <v>20.239449454451293</v>
       </c>
-      <c r="AP7" s="34">
+      <c r="AP7" s="113">
         <v>20.234452422581334</v>
       </c>
-      <c r="AQ7" s="34">
+      <c r="AQ7" s="113">
         <v>20.229577002424097</v>
       </c>
-      <c r="AR7" s="34">
+      <c r="AR7" s="113">
         <v>20.224817442327495</v>
       </c>
-      <c r="AS7" s="34">
+      <c r="AS7" s="113">
         <v>20.220168388653676</v>
       </c>
-      <c r="AT7" s="34">
+      <c r="AT7" s="113">
         <v>20.215624849909229</v>
       </c>
-      <c r="AU7" s="34">
+      <c r="AU7" s="113">
         <v>20.211182164825537</v>
       </c>
-      <c r="AV7" s="34">
+      <c r="AV7" s="113">
         <v>20.206835973878707</v>
       </c>
-      <c r="AW7" s="34">
+      <c r="AW7" s="113">
         <v>20.202582193813768</v>
       </c>
-      <c r="AX7" s="34">
+      <c r="AX7" s="113">
         <v>20.198416994800787</v>
       </c>
-      <c r="AY7" s="34">
+      <c r="AY7" s="113">
         <v>20.194336779903374</v>
       </c>
-      <c r="AZ7" s="34">
+      <c r="AZ7" s="113">
         <v>20.190338166584226</v>
       </c>
-      <c r="BA7" s="34">
+      <c r="BA7" s="35">
         <v>20.186417970010083</v>
       </c>
       <c r="BB7" s="112"/>
@@ -14609,160 +14613,160 @@
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="113">
         <v>98</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="113">
         <v>87.106582754323867</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="113">
         <v>81.304664562223252</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="113">
         <v>77.424048562610963</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="113">
         <v>74.542023006203664</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="113">
         <v>72.267056040835129</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="113">
         <v>70.397852140534482</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="113">
         <v>68.817798911161873</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="113">
         <v>67.453555914037167</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="113">
         <v>66.25613158841422</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="113">
         <v>65.191251618189256</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="113">
         <v>64.234043851350677</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="113">
         <v>63.36591432350513</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="113">
         <v>62.57261564496045</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P8" s="113">
         <v>61.843001799070578</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="113">
         <v>61.168196896178983</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="113">
         <v>60.541023533455977</v>
       </c>
-      <c r="S8" s="34">
+      <c r="S8" s="113">
         <v>59.955599492851945</v>
       </c>
-      <c r="T8" s="34">
+      <c r="T8" s="113">
         <v>59.407046793072084</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U8" s="113">
         <v>58.891277644771172</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V8" s="113">
         <v>58.404834226399458</v>
       </c>
-      <c r="W8" s="34">
+      <c r="W8" s="113">
         <v>57.944766876915835</v>
       </c>
-      <c r="X8" s="34">
+      <c r="X8" s="113">
         <v>57.508540198314904</v>
       </c>
-      <c r="Y8" s="34">
+      <c r="Y8" s="113">
         <v>57.093959759005585</v>
       </c>
-      <c r="Z8" s="34">
+      <c r="Z8" s="113">
         <v>56.699114223034641</v>
       </c>
-      <c r="AA8" s="34">
+      <c r="AA8" s="113">
         <v>56.322329181875475</v>
       </c>
-      <c r="AB8" s="34">
+      <c r="AB8" s="113">
         <v>55.962129970611855</v>
       </c>
-      <c r="AC8" s="34">
+      <c r="AC8" s="113">
         <v>55.617211457471925</v>
       </c>
-      <c r="AD8" s="34">
+      <c r="AD8" s="113">
         <v>55.286413300502147</v>
       </c>
-      <c r="AE8" s="34">
+      <c r="AE8" s="113">
         <v>54.968699530474915</v>
       </c>
-      <c r="AF8" s="34">
+      <c r="AF8" s="113">
         <v>54.663141586768845</v>
       </c>
-      <c r="AG8" s="34">
+      <c r="AG8" s="113">
         <v>54.368904131324392</v>
       </c>
-      <c r="AH8" s="34">
+      <c r="AH8" s="113">
         <v>54.085233114371128</v>
       </c>
-      <c r="AI8" s="34">
+      <c r="AI8" s="113">
         <v>53.81144567804543</v>
       </c>
-      <c r="AJ8" s="34">
+      <c r="AJ8" s="113">
         <v>53.546921569867813</v>
       </c>
-      <c r="AK8" s="34">
+      <c r="AK8" s="113">
         <v>53.291095804175576</v>
       </c>
-      <c r="AL8" s="34">
+      <c r="AL8" s="113">
         <v>53.04345236096021</v>
       </c>
-      <c r="AM8" s="34">
+      <c r="AM8" s="113">
         <v>52.803518751742082</v>
       </c>
-      <c r="AN8" s="34">
+      <c r="AN8" s="113">
         <v>52.570861313787368</v>
       </c>
-      <c r="AO8" s="34">
+      <c r="AO8" s="113">
         <v>52.345081119103305</v>
       </c>
-      <c r="AP8" s="34">
+      <c r="AP8" s="113">
         <v>52.125810404718678</v>
       </c>
-      <c r="AQ8" s="34">
+      <c r="AQ8" s="113">
         <v>51.912709446881955</v>
       </c>
-      <c r="AR8" s="34">
+      <c r="AR8" s="113">
         <v>51.70546381484025</v>
       </c>
-      <c r="AS8" s="34">
+      <c r="AS8" s="113">
         <v>51.503781950449742</v>
       </c>
-      <c r="AT8" s="34">
+      <c r="AT8" s="113">
         <v>51.307393028514312</v>
       </c>
-      <c r="AU8" s="34">
+      <c r="AU8" s="113">
         <v>51.11604505984571</v>
       </c>
-      <c r="AV8" s="34">
+      <c r="AV8" s="113">
         <v>50.929503204889954</v>
       </c>
-      <c r="AW8" s="34">
+      <c r="AW8" s="113">
         <v>50.747548270610785</v>
       </c>
-      <c r="AX8" s="34">
+      <c r="AX8" s="113">
         <v>50.569975367352612</v>
       </c>
-      <c r="AY8" s="34">
+      <c r="AY8" s="113">
         <v>50.396592705771731</v>
       </c>
-      <c r="AZ8" s="34">
+      <c r="AZ8" s="113">
         <v>50.227220516747984</v>
       </c>
-      <c r="BA8" s="34">
+      <c r="BA8" s="35">
         <v>50.061690079564336</v>
       </c>
       <c r="BB8" s="112"/>
@@ -14771,160 +14775,160 @@
       <c r="A9" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="113">
         <v>140</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="113">
         <v>113.71533548987296</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="113">
         <v>100.69123306548103</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="113">
         <v>92.365553754102621</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="113">
         <v>86.384740780801337</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="113">
         <v>81.786695349501173</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="113">
         <v>78.090575542454445</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="113">
         <v>75.024142377540514</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="113">
         <v>72.419460116050118</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="113">
         <v>70.166212707818104</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="113">
         <v>68.188357611615999</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="113">
         <v>66.431439287689713</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="113">
         <v>64.855233905051406</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="113">
         <v>63.429257117196265</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9" s="113">
         <v>62.1299004804345</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="113">
         <v>60.938539430728696</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="113">
         <v>59.840244490356326</v>
       </c>
-      <c r="S9" s="34">
+      <c r="S9" s="113">
         <v>58.82288002208653</v>
       </c>
-      <c r="T9" s="34">
+      <c r="T9" s="113">
         <v>57.876459420616506</v>
       </c>
-      <c r="U9" s="34">
+      <c r="U9" s="113">
         <v>56.992674415166618</v>
       </c>
-      <c r="V9" s="34">
+      <c r="V9" s="113">
         <v>56.164545301163088</v>
       </c>
-      <c r="W9" s="34">
+      <c r="W9" s="113">
         <v>55.386156873631037</v>
       </c>
-      <c r="X9" s="34">
+      <c r="X9" s="113">
         <v>54.652456201512216</v>
       </c>
-      <c r="Y9" s="34">
+      <c r="Y9" s="113">
         <v>53.959095754819742</v>
       </c>
-      <c r="Z9" s="34">
+      <c r="Z9" s="113">
         <v>53.302310284044609</v>
       </c>
-      <c r="AA9" s="34">
+      <c r="AA9" s="113">
         <v>52.678819155622179</v>
       </c>
-      <c r="AB9" s="34">
+      <c r="AB9" s="113">
         <v>52.085748121582213</v>
       </c>
-      <c r="AC9" s="34">
+      <c r="AC9" s="113">
         <v>51.520566092538473</v>
       </c>
-      <c r="AD9" s="34">
+      <c r="AD9" s="113">
         <v>50.981033612919759</v>
       </c>
-      <c r="AE9" s="34">
+      <c r="AE9" s="113">
         <v>50.465160550607365</v>
       </c>
-      <c r="AF9" s="34">
+      <c r="AF9" s="113">
         <v>49.971171106028024</v>
       </c>
-      <c r="AG9" s="34">
+      <c r="AG9" s="113">
         <v>49.497474683058336</v>
       </c>
-      <c r="AH9" s="34">
+      <c r="AH9" s="113">
         <v>49.042641490168528</v>
       </c>
-      <c r="AI9" s="34">
+      <c r="AI9" s="113">
         <v>48.605381985834953</v>
       </c>
-      <c r="AJ9" s="34">
+      <c r="AJ9" s="113">
         <v>48.184529468989389</v>
       </c>
-      <c r="AK9" s="34">
+      <c r="AK9" s="113">
         <v>47.779025258515126</v>
       </c>
-      <c r="AL9" s="34">
+      <c r="AL9" s="113">
         <v>47.387906016587571</v>
       </c>
-      <c r="AM9" s="34">
+      <c r="AM9" s="113">
         <v>47.010292857010178</v>
       </c>
-      <c r="AN9" s="34">
+      <c r="AN9" s="113">
         <v>46.645381947498691</v>
       </c>
-      <c r="AO9" s="34">
+      <c r="AO9" s="113">
         <v>46.292436368469808</v>
       </c>
-      <c r="AP9" s="34">
+      <c r="AP9" s="113">
         <v>45.950779033544492</v>
       </c>
-      <c r="AQ9" s="34">
+      <c r="AQ9" s="113">
         <v>45.619786511128062</v>
       </c>
-      <c r="AR9" s="34">
+      <c r="AR9" s="113">
         <v>45.298883613931302</v>
       </c>
-      <c r="AS9" s="34">
+      <c r="AS9" s="113">
         <v>44.987538645569209</v>
       </c>
-      <c r="AT9" s="34">
+      <c r="AT9" s="113">
         <v>44.685259211504082</v>
       </c>
-      <c r="AU9" s="34">
+      <c r="AU9" s="113">
         <v>44.391588516432506</v>
       </c>
-      <c r="AV9" s="34">
+      <c r="AV9" s="113">
         <v>44.106102082408995</v>
       </c>
-      <c r="AW9" s="34">
+      <c r="AW9" s="113">
         <v>43.828404832067903</v>
       </c>
-      <c r="AX9" s="34">
+      <c r="AX9" s="113">
         <v>43.558128489655594</v>
       </c>
-      <c r="AY9" s="34">
+      <c r="AY9" s="113">
         <v>43.29492925953884</v>
       </c>
-      <c r="AZ9" s="34">
+      <c r="AZ9" s="113">
         <v>43.038485747670251</v>
       </c>
-      <c r="BA9" s="34">
+      <c r="BA9" s="35">
         <v>42.788497096370868</v>
       </c>
       <c r="BB9" s="112"/>
@@ -14933,160 +14937,160 @@
       <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="113">
         <v>56</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="113">
         <v>52.613273955984667</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="113">
         <v>50.727926868401262</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="113">
         <v>49.431367792276681</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="113">
         <v>48.448543628421504</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="113">
         <v>47.660041313327689</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="113">
         <v>47.003392376097217</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="113">
         <v>46.441894565608735</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="113">
         <v>45.952188649390486</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="113">
         <v>45.518508905189556</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="113">
         <v>45.12972481364114</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="113">
         <v>44.777693042351018</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10" s="113">
         <v>44.456280633208564</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="113">
         <v>44.160756427575777</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="113">
         <v>43.887396036841317</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="113">
         <v>43.633216460987995</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="113">
         <v>43.395792515969809</v>
       </c>
-      <c r="S10" s="34">
+      <c r="S10" s="113">
         <v>43.173126612276249</v>
       </c>
-      <c r="T10" s="34">
+      <c r="T10" s="113">
         <v>42.963554331341889</v>
       </c>
-      <c r="U10" s="34">
+      <c r="U10" s="113">
         <v>42.765674626726174</v>
       </c>
-      <c r="V10" s="34">
+      <c r="V10" s="113">
         <v>42.578297339668381</v>
       </c>
-      <c r="W10" s="34">
+      <c r="W10" s="113">
         <v>42.400403128183932</v>
       </c>
-      <c r="X10" s="34">
+      <c r="X10" s="113">
         <v>42.231112452332333</v>
       </c>
-      <c r="Y10" s="34">
+      <c r="Y10" s="113">
         <v>42.069661270610752</v>
       </c>
-      <c r="Z10" s="34">
+      <c r="Z10" s="113">
         <v>41.915381780626092</v>
       </c>
-      <c r="AA10" s="34">
+      <c r="AA10" s="113">
         <v>41.767687000341745</v>
       </c>
-      <c r="AB10" s="34">
+      <c r="AB10" s="113">
         <v>41.626058308022486</v>
       </c>
-      <c r="AC10" s="34">
+      <c r="AC10" s="113">
         <v>41.490035286206336</v>
       </c>
-      <c r="AD10" s="34">
+      <c r="AD10" s="113">
         <v>41.359207377779938</v>
       </c>
-      <c r="AE10" s="34">
+      <c r="AE10" s="113">
         <v>41.233206980377282</v>
       </c>
-      <c r="AF10" s="34">
+      <c r="AF10" s="113">
         <v>41.111703692147515</v>
       </c>
-      <c r="AG10" s="34">
+      <c r="AG10" s="113">
         <v>40.994399486477512</v>
       </c>
-      <c r="AH10" s="34">
+      <c r="AH10" s="113">
         <v>40.881024641740389</v>
       </c>
-      <c r="AI10" s="34">
+      <c r="AI10" s="113">
         <v>40.771334288924791</v>
       </c>
-      <c r="AJ10" s="34">
+      <c r="AJ10" s="113">
         <v>40.665105468163581</v>
       </c>
-      <c r="AK10" s="34">
+      <c r="AK10" s="113">
         <v>40.5621346069304</v>
       </c>
-      <c r="AL10" s="34">
+      <c r="AL10" s="113">
         <v>40.462235349604718</v>
       </c>
-      <c r="AM10" s="34">
+      <c r="AM10" s="113">
         <v>40.365236681387891</v>
       </c>
-      <c r="AN10" s="34">
+      <c r="AN10" s="113">
         <v>40.270981300045143</v>
       </c>
-      <c r="AO10" s="34">
+      <c r="AO10" s="113">
         <v>40.179324197293681</v>
       </c>
-      <c r="AP10" s="34">
+      <c r="AP10" s="113">
         <v>40.090131418336199</v>
       </c>
-      <c r="AQ10" s="34">
+      <c r="AQ10" s="113">
         <v>40.003278973416883</v>
       </c>
-      <c r="AR10" s="34">
+      <c r="AR10" s="113">
         <v>39.918651879632165</v>
       </c>
-      <c r="AS10" s="34">
+      <c r="AS10" s="113">
         <v>39.836143314773757</v>
       </c>
-      <c r="AT10" s="34">
+      <c r="AT10" s="113">
         <v>39.755653867883034</v>
       </c>
-      <c r="AU10" s="34">
+      <c r="AU10" s="113">
         <v>39.677090873581363</v>
       </c>
-      <c r="AV10" s="34">
+      <c r="AV10" s="113">
         <v>39.600367819212252</v>
       </c>
-      <c r="AW10" s="34">
+      <c r="AW10" s="113">
         <v>39.525403815466447</v>
       </c>
-      <c r="AX10" s="34">
+      <c r="AX10" s="113">
         <v>39.452123122524185</v>
       </c>
-      <c r="AY10" s="34">
+      <c r="AY10" s="113">
         <v>39.380454724888729</v>
       </c>
-      <c r="AZ10" s="34">
+      <c r="AZ10" s="113">
         <v>39.310331949043416</v>
       </c>
-      <c r="BA10" s="34">
+      <c r="BA10" s="35">
         <v>39.241692118871413</v>
       </c>
       <c r="BB10" s="112"/>
@@ -15095,160 +15099,160 @@
       <c r="A11" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="113">
         <v>70</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="113">
         <v>60.517606191550563</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="113">
         <v>55.577956756392922</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="113">
         <v>52.319723702222852</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="113">
         <v>49.924570703576457</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="113">
         <v>48.049212855920203</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="113">
         <v>46.518687368204731</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="113">
         <v>45.232349072312232</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="113">
         <v>44.127275388792604</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="113">
         <v>43.161650130303755</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11" s="113">
         <v>42.306351767253425</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="113">
         <v>41.540333448979538</v>
       </c>
-      <c r="N11" s="34">
+      <c r="N11" s="113">
         <v>40.847918977390528</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="113">
         <v>40.217137181383883</v>
       </c>
-      <c r="P11" s="34">
+      <c r="P11" s="113">
         <v>39.638651880640772</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="113">
         <v>39.105049832527698</v>
       </c>
-      <c r="R11" s="34">
+      <c r="R11" s="113">
         <v>38.610352492430636</v>
       </c>
-      <c r="S11" s="34">
+      <c r="S11" s="113">
         <v>38.149672489786461</v>
       </c>
-      <c r="T11" s="34">
+      <c r="T11" s="113">
         <v>37.718966435583724</v>
       </c>
-      <c r="U11" s="34">
+      <c r="U11" s="113">
         <v>37.314853502331573</v>
       </c>
-      <c r="V11" s="34">
+      <c r="V11" s="113">
         <v>36.934479927346352</v>
       </c>
-      <c r="W11" s="34">
+      <c r="W11" s="113">
         <v>36.575416223597891</v>
       </c>
-      <c r="X11" s="34">
+      <c r="X11" s="113">
         <v>36.235578102982899</v>
       </c>
-      <c r="Y11" s="34">
+      <c r="Y11" s="113">
         <v>35.913164867586268</v>
       </c>
-      <c r="Z11" s="34">
+      <c r="Z11" s="113">
         <v>35.606610856234362</v>
       </c>
-      <c r="AA11" s="34">
+      <c r="AA11" s="113">
         <v>35.314546777401212</v>
       </c>
-      <c r="AB11" s="34">
+      <c r="AB11" s="113">
         <v>35.035768619082248</v>
       </c>
-      <c r="AC11" s="34">
+      <c r="AC11" s="113">
         <v>34.76921242992222</v>
       </c>
-      <c r="AD11" s="34">
+      <c r="AD11" s="113">
         <v>34.513933696143681</v>
       </c>
-      <c r="AE11" s="34">
+      <c r="AE11" s="113">
         <v>34.269090349665476</v>
       </c>
-      <c r="AF11" s="34">
+      <c r="AF11" s="113">
         <v>34.033928670196069</v>
       </c>
-      <c r="AG11" s="34">
+      <c r="AG11" s="113">
         <v>33.807771512369591</v>
       </c>
-      <c r="AH11" s="34">
+      <c r="AH11" s="113">
         <v>33.590008414873687</v>
       </c>
-      <c r="AI11" s="34">
+      <c r="AI11" s="113">
         <v>33.380087243626704</v>
       </c>
-      <c r="AJ11" s="34">
+      <c r="AJ11" s="113">
         <v>33.177507093592951</v>
       </c>
-      <c r="AK11" s="34">
+      <c r="AK11" s="113">
         <v>32.981812229621823</v>
       </c>
-      <c r="AL11" s="34">
+      <c r="AL11" s="113">
         <v>32.792586889973059</v>
       </c>
-      <c r="AM11" s="34">
+      <c r="AM11" s="113">
         <v>32.609450810013847</v>
       </c>
-      <c r="AN11" s="34">
+      <c r="AN11" s="113">
         <v>32.432055350200763</v>
       </c>
-      <c r="AO11" s="34">
+      <c r="AO11" s="113">
         <v>32.26008013356433</v>
       </c>
-      <c r="AP11" s="34">
+      <c r="AP11" s="113">
         <v>32.093230114750334</v>
       </c>
-      <c r="AQ11" s="34">
+      <c r="AQ11" s="113">
         <v>31.931233016183935</v>
       </c>
-      <c r="AR11" s="34">
+      <c r="AR11" s="113">
         <v>31.773837077830798</v>
       </c>
-      <c r="AS11" s="34">
+      <c r="AS11" s="113">
         <v>31.620809075882097</v>
       </c>
-      <c r="AT11" s="34">
+      <c r="AT11" s="113">
         <v>31.471932572913797</v>
       </c>
-      <c r="AU11" s="34">
+      <c r="AU11" s="113">
         <v>31.327006367992745</v>
       </c>
-      <c r="AV11" s="34">
+      <c r="AV11" s="113">
         <v>31.185843120080861</v>
       </c>
-      <c r="AW11" s="34">
+      <c r="AW11" s="113">
         <v>31.048268122125929</v>
       </c>
-      <c r="AX11" s="34">
+      <c r="AX11" s="113">
         <v>30.91411820658244</v>
       </c>
-      <c r="AY11" s="34">
+      <c r="AY11" s="113">
         <v>30.783240765905425</v>
       </c>
-      <c r="AZ11" s="34">
+      <c r="AZ11" s="113">
         <v>30.655492873905679</v>
       </c>
-      <c r="BA11" s="34">
+      <c r="BA11" s="35">
         <v>30.530740495826539</v>
       </c>
       <c r="BB11" s="112"/>
@@ -15257,160 +15261,160 @@
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="113">
         <v>84</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="113">
         <v>73.126247316874441</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="113">
         <v>67.430291187859368</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="113">
         <v>63.660095793436724</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="113">
         <v>60.881491748926429</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="113">
         <v>58.701477976812654</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="113">
         <v>56.9193167256404</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="113">
         <v>55.419332252461565</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="113">
         <v>54.129097258089359</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="113">
         <v>53.000416936336229</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="113">
         <v>51.999689337443023</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="113">
         <v>51.10260471902928</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12" s="113">
         <v>50.291039865485807</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="113">
         <v>49.551143237936756</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12" s="113">
         <v>48.872103768825795</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12" s="113">
         <v>48.245330909875477</v>
       </c>
-      <c r="R12" s="34">
+      <c r="R12" s="113">
         <v>47.66389199641273</v>
       </c>
-      <c r="S12" s="34">
+      <c r="S12" s="113">
         <v>47.122116108740386</v>
       </c>
-      <c r="T12" s="34">
+      <c r="T12" s="113">
         <v>46.615308837581765</v>
       </c>
-      <c r="U12" s="34">
+      <c r="U12" s="113">
         <v>46.139542818856953</v>
       </c>
-      <c r="V12" s="34">
+      <c r="V12" s="113">
         <v>45.691501202665798</v>
       </c>
-      <c r="W12" s="34">
+      <c r="W12" s="113">
         <v>45.268358843934486</v>
       </c>
-      <c r="X12" s="34">
+      <c r="X12" s="113">
         <v>44.867690854914393</v>
       </c>
-      <c r="Y12" s="34">
+      <c r="Y12" s="113">
         <v>44.487401324050111</v>
       </c>
-      <c r="Z12" s="34">
+      <c r="Z12" s="113">
         <v>44.12566711398329</v>
       </c>
-      <c r="AA12" s="34">
+      <c r="AA12" s="113">
         <v>43.780893083646518</v>
       </c>
-      <c r="AB12" s="34">
+      <c r="AB12" s="113">
         <v>43.451676069630075</v>
       </c>
-      <c r="AC12" s="34">
+      <c r="AC12" s="113">
         <v>43.136775657752764</v>
       </c>
-      <c r="AD12" s="34">
+      <c r="AD12" s="113">
         <v>42.835090271859663</v>
       </c>
-      <c r="AE12" s="34">
+      <c r="AE12" s="113">
         <v>42.545637465417933</v>
       </c>
-      <c r="AF12" s="34">
+      <c r="AF12" s="113">
         <v>42.267537563875166</v>
       </c>
-      <c r="AG12" s="34">
+      <c r="AG12" s="113">
         <v>42</v>
       </c>
-      <c r="AH12" s="34">
+      <c r="AH12" s="113">
         <v>41.742311829785834</v>
       </c>
-      <c r="AI12" s="34">
+      <c r="AI12" s="113">
         <v>41.493828026362721</v>
       </c>
-      <c r="AJ12" s="34">
+      <c r="AJ12" s="113">
         <v>41.25396323317387</v>
       </c>
-      <c r="AK12" s="34">
+      <c r="AK12" s="113">
         <v>41.022184722169307</v>
       </c>
-      <c r="AL12" s="34">
+      <c r="AL12" s="113">
         <v>40.79800635280786</v>
       </c>
-      <c r="AM12" s="34">
+      <c r="AM12" s="113">
         <v>40.580983366779598</v>
       </c>
-      <c r="AN12" s="34">
+      <c r="AN12" s="113">
         <v>40.370707884166102</v>
       </c>
-      <c r="AO12" s="34">
+      <c r="AO12" s="113">
         <v>40.166804991181557</v>
       </c>
-      <c r="AP12" s="34">
+      <c r="AP12" s="113">
         <v>39.968929329125636</v>
       </c>
-      <c r="AQ12" s="34">
+      <c r="AQ12" s="113">
         <v>39.776762109826237</v>
       </c>
-      <c r="AR12" s="34">
+      <c r="AR12" s="113">
         <v>39.590008495482891</v>
       </c>
-      <c r="AS12" s="34">
+      <c r="AS12" s="113">
         <v>39.408395291078257</v>
       </c>
-      <c r="AT12" s="34">
+      <c r="AT12" s="113">
         <v>39.231668905895276</v>
       </c>
-      <c r="AU12" s="34">
+      <c r="AU12" s="113">
         <v>39.059593547542079</v>
       </c>
-      <c r="AV12" s="34">
+      <c r="AV12" s="113">
         <v>38.891949617542565</v>
       </c>
-      <c r="AW12" s="34">
+      <c r="AW12" s="113">
         <v>38.728532282232564</v>
       </c>
-      <c r="AX12" s="34">
+      <c r="AX12" s="113">
         <v>38.569150196592467</v>
       </c>
-      <c r="AY12" s="34">
+      <c r="AY12" s="113">
         <v>38.413624361895408</v>
       </c>
-      <c r="AZ12" s="34">
+      <c r="AZ12" s="113">
         <v>38.261787100771315</v>
       </c>
-      <c r="BA12" s="34">
+      <c r="BA12" s="35">
         <v>38.113481135575853</v>
       </c>
       <c r="BB12" s="112"/>
@@ -15419,160 +15423,160 @@
       <c r="A13" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="113">
         <v>24.5</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="113">
         <v>23.830046211600994</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="113">
         <v>23.44667341054398</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="113">
         <v>23.178412344777101</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="113">
         <v>22.972448373049378</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="113">
         <v>22.805522893125691</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="113">
         <v>22.665336060880964</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="113">
         <v>22.544597440309442</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="113">
         <v>22.438632409008573</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="113">
         <v>22.344265564219786</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="113">
         <v>22.259242300111225</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="113">
         <v>22.18190467032284</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="113">
         <v>22.110998253279732</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="113">
         <v>22.045551254377951</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13" s="113">
         <v>21.984795691570252</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="113">
         <v>21.928114237735322</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13" s="113">
         <v>21.875003315041759</v>
       </c>
-      <c r="S13" s="34">
+      <c r="S13" s="113">
         <v>21.825046825787844</v>
       </c>
-      <c r="T13" s="34">
+      <c r="T13" s="113">
         <v>21.777897043880607</v>
       </c>
-      <c r="U13" s="34">
+      <c r="U13" s="113">
         <v>21.733260447332345</v>
       </c>
-      <c r="V13" s="34">
+      <c r="V13" s="113">
         <v>21.690887035089848</v>
       </c>
-      <c r="W13" s="34">
+      <c r="W13" s="113">
         <v>21.650562148852</v>
       </c>
-      <c r="X13" s="34">
+      <c r="X13" s="113">
         <v>21.612100127151752</v>
       </c>
-      <c r="Y13" s="34">
+      <c r="Y13" s="113">
         <v>21.575339320617193</v>
       </c>
-      <c r="Z13" s="34">
+      <c r="Z13" s="113">
         <v>21.540138132751803</v>
       </c>
-      <c r="AA13" s="34">
+      <c r="AA13" s="113">
         <v>21.506371843276938</v>
       </c>
-      <c r="AB13" s="34">
+      <c r="AB13" s="113">
         <v>21.473930035643747</v>
       </c>
-      <c r="AC13" s="34">
+      <c r="AC13" s="113">
         <v>21.44271449600183</v>
       </c>
-      <c r="AD13" s="34">
+      <c r="AD13" s="113">
         <v>21.412637483701189</v>
       </c>
-      <c r="AE13" s="34">
+      <c r="AE13" s="113">
         <v>21.383620297254108</v>
       </c>
-      <c r="AF13" s="34">
+      <c r="AF13" s="113">
         <v>21.355592077245049</v>
       </c>
-      <c r="AG13" s="34">
+      <c r="AG13" s="113">
         <v>21.328488800755039</v>
       </c>
-      <c r="AH13" s="34">
+      <c r="AH13" s="113">
         <v>21.302252431709132</v>
       </c>
-      <c r="AI13" s="34">
+      <c r="AI13" s="113">
         <v>21.276830199035512</v>
       </c>
-      <c r="AJ13" s="34">
+      <c r="AJ13" s="113">
         <v>21.252173980261318</v>
       </c>
-      <c r="AK13" s="34">
+      <c r="AK13" s="113">
         <v>21.228239772607342</v>
       </c>
-      <c r="AL13" s="34">
+      <c r="AL13" s="113">
         <v>21.204987237103634</v>
       </c>
-      <c r="AM13" s="34">
+      <c r="AM13" s="113">
         <v>21.18237930396586</v>
       </c>
-      <c r="AN13" s="34">
+      <c r="AN13" s="113">
         <v>21.160381829622793</v>
       </c>
-      <c r="AO13" s="34">
+      <c r="AO13" s="113">
         <v>21.138963297497543</v>
       </c>
-      <c r="AP13" s="34">
+      <c r="AP13" s="113">
         <v>21.118094556018391</v>
       </c>
-      <c r="AQ13" s="34">
+      <c r="AQ13" s="113">
         <v>21.097748588441142</v>
       </c>
-      <c r="AR13" s="34">
+      <c r="AR13" s="113">
         <v>21.077900309962892</v>
       </c>
-      <c r="AS13" s="34">
+      <c r="AS13" s="113">
         <v>21.058526388338066</v>
       </c>
-      <c r="AT13" s="34">
+      <c r="AT13" s="113">
         <v>21.039605084807437</v>
       </c>
-      <c r="AU13" s="34">
+      <c r="AU13" s="113">
         <v>21.021116112643838</v>
       </c>
-      <c r="AV13" s="34">
+      <c r="AV13" s="113">
         <v>21.003040511026811</v>
       </c>
-      <c r="AW13" s="34">
+      <c r="AW13" s="113">
         <v>20.985360532297133</v>
       </c>
-      <c r="AX13" s="34">
+      <c r="AX13" s="113">
         <v>20.968059540925346</v>
       </c>
-      <c r="AY13" s="34">
+      <c r="AY13" s="113">
         <v>20.951121922765068</v>
       </c>
-      <c r="AZ13" s="34">
+      <c r="AZ13" s="113">
         <v>20.934533003361267</v>
       </c>
-      <c r="BA13" s="34">
+      <c r="BA13" s="35">
         <v>20.918278974251585</v>
       </c>
       <c r="BB13" s="112"/>
@@ -15581,160 +15585,160 @@
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="113">
         <v>30.8</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="113">
         <v>29.138575519148358</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="113">
         <v>28.20856645703935</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="113">
         <v>27.566772184581549</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="113">
         <v>27.079030795459406</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="113">
         <v>26.686929999849234</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="113">
         <v>26.359846280020435</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="113">
         <v>26.079755620765837</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="113">
         <v>25.835169531207978</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="113">
         <v>25.618324149962266</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14" s="113">
         <v>25.423731990790294</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M14" s="113">
         <v>25.247374193988069</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14" s="113">
         <v>25.086221253979872</v>
       </c>
-      <c r="O14" s="34">
+      <c r="O14" s="113">
         <v>24.937934139724586</v>
       </c>
-      <c r="P14" s="34">
+      <c r="P14" s="113">
         <v>24.800670122919865</v>
       </c>
-      <c r="Q14" s="34">
+      <c r="Q14" s="113">
         <v>24.672952229760362</v>
       </c>
-      <c r="R14" s="34">
+      <c r="R14" s="113">
         <v>24.553578870502466</v>
       </c>
-      <c r="S14" s="34">
+      <c r="S14" s="113">
         <v>24.441559689451434</v>
       </c>
-      <c r="T14" s="34">
+      <c r="T14" s="113">
         <v>24.336069020139952</v>
       </c>
-      <c r="U14" s="34">
+      <c r="U14" s="113">
         <v>24.236411458366806</v>
       </c>
-      <c r="V14" s="34">
+      <c r="V14" s="113">
         <v>24.141995960626556</v>
       </c>
-      <c r="W14" s="34">
+      <c r="W14" s="113">
         <v>24.052316058189312</v>
       </c>
-      <c r="X14" s="34">
+      <c r="X14" s="113">
         <v>23.966934535120057</v>
       </c>
-      <c r="Y14" s="34">
+      <c r="Y14" s="113">
         <v>23.885471415964894</v>
       </c>
-      <c r="Z14" s="34">
+      <c r="Z14" s="113">
         <v>23.807594442254508</v>
       </c>
-      <c r="AA14" s="34">
+      <c r="AA14" s="113">
         <v>23.733011444777823</v>
       </c>
-      <c r="AB14" s="34">
+      <c r="AB14" s="113">
         <v>23.661464176946701</v>
       </c>
-      <c r="AC14" s="34">
+      <c r="AC14" s="113">
         <v>23.592723286425738</v>
       </c>
-      <c r="AD14" s="34">
+      <c r="AD14" s="113">
         <v>23.526584182355492</v>
       </c>
-      <c r="AE14" s="34">
+      <c r="AE14" s="113">
         <v>23.462863613707363</v>
       </c>
-      <c r="AF14" s="34">
+      <c r="AF14" s="113">
         <v>23.401396817103706</v>
       </c>
-      <c r="AG14" s="34">
+      <c r="AG14" s="113">
         <v>23.342035124260132</v>
       </c>
-      <c r="AH14" s="34">
+      <c r="AH14" s="113">
         <v>23.284643943122255</v>
       </c>
-      <c r="AI14" s="34">
+      <c r="AI14" s="113">
         <v>23.229101044918881</v>
       </c>
-      <c r="AJ14" s="34">
+      <c r="AJ14" s="113">
         <v>23.17529510325485</v>
       </c>
-      <c r="AK14" s="34">
+      <c r="AK14" s="113">
         <v>23.12312444210561</v>
       </c>
-      <c r="AL14" s="34">
+      <c r="AL14" s="113">
         <v>23.072495957938219</v>
       </c>
-      <c r="AM14" s="34">
+      <c r="AM14" s="113">
         <v>23.023324187745274</v>
       </c>
-      <c r="AN14" s="34">
+      <c r="AN14" s="113">
         <v>22.975530499963771</v>
       </c>
-      <c r="AO14" s="34">
+      <c r="AO14" s="113">
         <v>22.92904238937577</v>
       </c>
-      <c r="AP14" s="34">
+      <c r="AP14" s="113">
         <v>22.883792860390752</v>
       </c>
-      <c r="AQ14" s="34">
+      <c r="AQ14" s="113">
         <v>22.839719885769203</v>
       </c>
-      <c r="AR14" s="34">
+      <c r="AR14" s="113">
         <v>22.796765930001499</v>
       </c>
-      <c r="AS14" s="34">
+      <c r="AS14" s="113">
         <v>22.754877528310846</v>
       </c>
-      <c r="AT14" s="34">
+      <c r="AT14" s="113">
         <v>22.714004913684917</v>
       </c>
-      <c r="AU14" s="34">
+      <c r="AU14" s="113">
         <v>22.674101685522096</v>
       </c>
-      <c r="AV14" s="34">
+      <c r="AV14" s="113">
         <v>22.635124514454418</v>
       </c>
-      <c r="AW14" s="34">
+      <c r="AW14" s="113">
         <v>22.597032878719233</v>
       </c>
-      <c r="AX14" s="34">
+      <c r="AX14" s="113">
         <v>22.559788828126852</v>
       </c>
-      <c r="AY14" s="34">
+      <c r="AY14" s="113">
         <v>22.523356772236678</v>
       </c>
-      <c r="AZ14" s="34">
+      <c r="AZ14" s="113">
         <v>22.487703289828765</v>
       </c>
-      <c r="BA14" s="34">
+      <c r="BA14" s="35">
         <v>22.452796957158139</v>
       </c>
       <c r="BB14" s="112"/>
@@ -15743,160 +15747,160 @@
       <c r="A15" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="113">
         <v>22.400000000000002</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="113">
         <v>21.939014665947159</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="113">
         <v>21.673766023933918</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="113">
         <v>21.487516272885923</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="113">
         <v>21.344152647599405</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="113">
         <v>21.227726368990783</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="113">
         <v>21.129784956042016</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="113">
         <v>21.04530958239387</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="113">
         <v>20.971077395546082</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="113">
         <v>20.904896337852598</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="113">
         <v>20.845208228921614</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="113">
         <v>20.790866077410808</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="113">
         <v>20.741001254631563</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="113">
         <v>20.69494026959444</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="113">
         <v>20.652150467107106</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="113">
         <v>20.612203373997204</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15" s="113">
         <v>20.574749232937965</v>
       </c>
-      <c r="S15" s="34">
+      <c r="S15" s="113">
         <v>20.539498863464221</v>
       </c>
-      <c r="T15" s="34">
+      <c r="T15" s="113">
         <v>20.506210459040503</v>
       </c>
-      <c r="U15" s="34">
+      <c r="U15" s="113">
         <v>20.474679792243453</v>
       </c>
-      <c r="V15" s="34">
+      <c r="V15" s="113">
         <v>20.444732824700605</v>
       </c>
-      <c r="W15" s="34">
+      <c r="W15" s="113">
         <v>20.41622004683186</v>
       </c>
-      <c r="X15" s="34">
+      <c r="X15" s="113">
         <v>20.389012083509414</v>
       </c>
-      <c r="Y15" s="34">
+      <c r="Y15" s="113">
         <v>20.362996240627634</v>
       </c>
-      <c r="Z15" s="34">
+      <c r="Z15" s="113">
         <v>20.338073760893952</v>
       </c>
-      <c r="AA15" s="34">
+      <c r="AA15" s="113">
         <v>20.314157621062066</v>
       </c>
-      <c r="AB15" s="34">
+      <c r="AB15" s="113">
         <v>20.291170747360507</v>
       </c>
-      <c r="AC15" s="34">
+      <c r="AC15" s="113">
         <v>20.269044557389865</v>
       </c>
-      <c r="AD15" s="34">
+      <c r="AD15" s="113">
         <v>20.24771775939687</v>
       </c>
-      <c r="AE15" s="34">
+      <c r="AE15" s="113">
         <v>20.227135356304029</v>
       </c>
-      <c r="AF15" s="34">
+      <c r="AF15" s="113">
         <v>20.207247814006049</v>
       </c>
-      <c r="AG15" s="34">
+      <c r="AG15" s="113">
         <v>20.188010362482597</v>
       </c>
-      <c r="AH15" s="34">
+      <c r="AH15" s="113">
         <v>20.169382405081652</v>
       </c>
-      <c r="AI15" s="34">
+      <c r="AI15" s="113">
         <v>20.151327016500499</v>
       </c>
-      <c r="AJ15" s="34">
+      <c r="AJ15" s="113">
         <v>20.133810513960277</v>
       </c>
-      <c r="AK15" s="34">
+      <c r="AK15" s="113">
         <v>20.116802089140478</v>
       </c>
-      <c r="AL15" s="34">
+      <c r="AL15" s="113">
         <v>20.100273490835022</v>
       </c>
-      <c r="AM15" s="34">
+      <c r="AM15" s="113">
         <v>20.084198750173602</v>
       </c>
-      <c r="AN15" s="34">
+      <c r="AN15" s="113">
         <v>20.068553941741261</v>
       </c>
-      <c r="AO15" s="34">
+      <c r="AO15" s="113">
         <v>20.053316975116118</v>
       </c>
-      <c r="AP15" s="34">
+      <c r="AP15" s="113">
         <v>20.038467412296157</v>
       </c>
-      <c r="AQ15" s="34">
+      <c r="AQ15" s="113">
         <v>20.023986307253477</v>
       </c>
-      <c r="AR15" s="34">
+      <c r="AR15" s="113">
         <v>20.00985606447653</v>
       </c>
-      <c r="AS15" s="34">
+      <c r="AS15" s="113">
         <v>19.996060313868242</v>
       </c>
-      <c r="AT15" s="34">
+      <c r="AT15" s="113">
         <v>19.982583799783793</v>
       </c>
-      <c r="AU15" s="34">
+      <c r="AU15" s="113">
         <v>19.969412282334236</v>
       </c>
-      <c r="AV15" s="34">
+      <c r="AV15" s="113">
         <v>19.956532449365408</v>
       </c>
-      <c r="AW15" s="34">
+      <c r="AW15" s="113">
         <v>19.943931837756995</v>
       </c>
-      <c r="AX15" s="34">
+      <c r="AX15" s="113">
         <v>19.931598762883016</v>
       </c>
-      <c r="AY15" s="34">
+      <c r="AY15" s="113">
         <v>19.919522255239624</v>
       </c>
-      <c r="AZ15" s="34">
+      <c r="AZ15" s="113">
         <v>19.907692003384433</v>
       </c>
-      <c r="BA15" s="34">
+      <c r="BA15" s="35">
         <v>19.896098302448351</v>
       </c>
       <c r="BB15" s="112"/>
@@ -15905,322 +15909,322 @@
       <c r="A16" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="113">
         <v>44.800000000000004</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="113">
         <v>40.939648970277148</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="113">
         <v>38.837588051505755</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="113">
         <v>37.411938790390955</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="113">
         <v>36.342258522558147</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="113">
         <v>35.491009412519531</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="113">
         <v>34.786863157736931</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="113">
         <v>34.188206280716528</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="113">
         <v>33.66871084059067</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="113">
         <v>33.210698810281102</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16" s="113">
         <v>32.801746271483424</v>
       </c>
-      <c r="M16" s="34">
+      <c r="M16" s="113">
         <v>32.432800601548031</v>
       </c>
-      <c r="N16" s="34">
+      <c r="N16" s="113">
         <v>32.09706917316533</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O16" s="113">
         <v>31.789329608366447</v>
       </c>
-      <c r="P16" s="34">
+      <c r="P16" s="113">
         <v>31.505483601795479</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="113">
         <v>31.24225812624908</v>
       </c>
-      <c r="R16" s="34">
+      <c r="R16" s="113">
         <v>30.996999351696449</v>
       </c>
-      <c r="S16" s="34">
+      <c r="S16" s="113">
         <v>30.767526854811315</v>
       </c>
-      <c r="T16" s="34">
+      <c r="T16" s="113">
         <v>30.552028175253362</v>
       </c>
-      <c r="U16" s="34">
+      <c r="U16" s="113">
         <v>30.348981056931009</v>
       </c>
-      <c r="V16" s="34">
+      <c r="V16" s="113">
         <v>30.157095109917172</v>
       </c>
-      <c r="W16" s="34">
+      <c r="W16" s="113">
         <v>29.975267365326538</v>
       </c>
-      <c r="X16" s="34">
+      <c r="X16" s="113">
         <v>29.802547944516306</v>
       </c>
-      <c r="Y16" s="34">
+      <c r="Y16" s="113">
         <v>29.638113208713616</v>
       </c>
-      <c r="Z16" s="34">
+      <c r="Z16" s="113">
         <v>29.481244520545768</v>
       </c>
-      <c r="AA16" s="34">
+      <c r="AA16" s="113">
         <v>29.331311270627062</v>
       </c>
-      <c r="AB16" s="34">
+      <c r="AB16" s="113">
         <v>29.187757184199242</v>
       </c>
-      <c r="AC16" s="34">
+      <c r="AC16" s="113">
         <v>29.050089177833929</v>
       </c>
-      <c r="AD16" s="34">
+      <c r="AD16" s="113">
         <v>28.917868218567229</v>
       </c>
-      <c r="AE16" s="34">
+      <c r="AE16" s="113">
         <v>28.79070177000736</v>
       </c>
-      <c r="AF16" s="34">
+      <c r="AF16" s="113">
         <v>28.668237506941111</v>
       </c>
-      <c r="AG16" s="34">
+      <c r="AG16" s="113">
         <v>28.55015805195147</v>
       </c>
-      <c r="AH16" s="34">
+      <c r="AH16" s="113">
         <v>28.436176541560002</v>
       </c>
-      <c r="AI16" s="34">
+      <c r="AI16" s="113">
         <v>28.32603287032055</v>
       </c>
-      <c r="AJ16" s="34">
+      <c r="AJ16" s="113">
         <v>28.219490492574312</v>
       </c>
-      <c r="AK16" s="34">
+      <c r="AK16" s="113">
         <v>28.116333685704248</v>
       </c>
-      <c r="AL16" s="34">
+      <c r="AL16" s="113">
         <v>28.016365197487396</v>
       </c>
-      <c r="AM16" s="34">
+      <c r="AM16" s="113">
         <v>27.91940421484129</v>
       </c>
-      <c r="AN16" s="34">
+      <c r="AN16" s="113">
         <v>27.825284602858915</v>
       </c>
-      <c r="AO16" s="34">
+      <c r="AO16" s="113">
         <v>27.733853372239871</v>
       </c>
-      <c r="AP16" s="34">
+      <c r="AP16" s="113">
         <v>27.64496934059191</v>
       </c>
-      <c r="AQ16" s="34">
+      <c r="AQ16" s="113">
         <v>27.558501959001575</v>
       </c>
-      <c r="AR16" s="34">
+      <c r="AR16" s="113">
         <v>27.474330280065281</v>
       </c>
-      <c r="AS16" s="34">
+      <c r="AS16" s="113">
         <v>27.392342047470372</v>
       </c>
-      <c r="AT16" s="34">
+      <c r="AT16" s="113">
         <v>27.312432890401837</v>
       </c>
-      <c r="AU16" s="34">
+      <c r="AU16" s="113">
         <v>27.234505608668574</v>
       </c>
-      <c r="AV16" s="34">
+      <c r="AV16" s="113">
         <v>27.158469536603342</v>
       </c>
-      <c r="AW16" s="34">
+      <c r="AW16" s="113">
         <v>27.084239975581909</v>
       </c>
-      <c r="AX16" s="34">
+      <c r="AX16" s="113">
         <v>27.011737686498105</v>
       </c>
-      <c r="AY16" s="34">
+      <c r="AY16" s="113">
         <v>26.940888434777907</v>
       </c>
-      <c r="AZ16" s="34">
+      <c r="AZ16" s="113">
         <v>26.871622581561994</v>
       </c>
-      <c r="BA16" s="34">
+      <c r="BA16" s="35">
         <v>26.803874715567087</v>
       </c>
       <c r="BB16" s="112"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="97">
         <v>17.5</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="97">
         <v>17.379118670148127</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="97">
         <v>17.308795073012988</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="97">
         <v>17.259072328633785</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="97">
         <v>17.220602758860512</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="97">
         <v>17.189234492066738</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="97">
         <v>17.162757582651015</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="97">
         <v>17.13985520777122</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="97">
         <v>17.119679250260496</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="97">
         <v>17.101651366726689</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="97">
         <v>17.085359517188394</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="97">
         <v>17.070499776378931</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N17" s="97">
         <v>17.056841553079604</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="97">
         <v>17.044205756335806</v>
       </c>
-      <c r="P17" s="34">
+      <c r="P17" s="97">
         <v>17.032450524964492</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17" s="97">
         <v>17.021461579714998</v>
       </c>
-      <c r="R17" s="34">
+      <c r="R17" s="97">
         <v>17.011145510359643</v>
       </c>
-      <c r="S17" s="34">
+      <c r="S17" s="97">
         <v>17.001424987722839</v>
       </c>
-      <c r="T17" s="34">
+      <c r="T17" s="97">
         <v>16.992235274190868</v>
       </c>
-      <c r="U17" s="34">
+      <c r="U17" s="97">
         <v>16.983521631876801</v>
       </c>
-      <c r="V17" s="34">
+      <c r="V17" s="97">
         <v>16.975237364908921</v>
       </c>
-      <c r="W17" s="34">
+      <c r="W17" s="97">
         <v>16.967342318363528</v>
       </c>
-      <c r="X17" s="34">
+      <c r="X17" s="97">
         <v>16.959801711732034</v>
       </c>
-      <c r="Y17" s="34">
+      <c r="Y17" s="97">
         <v>16.952585221281517</v>
       </c>
-      <c r="Z17" s="34">
+      <c r="Z17" s="97">
         <v>16.945666250198524</v>
       </c>
-      <c r="AA17" s="34">
+      <c r="AA17" s="97">
         <v>16.939021342221945</v>
       </c>
-      <c r="AB17" s="34">
+      <c r="AB17" s="97">
         <v>16.932629706198373</v>
       </c>
-      <c r="AC17" s="34">
+      <c r="AC17" s="97">
         <v>16.926472827301815</v>
       </c>
-      <c r="AD17" s="34">
+      <c r="AD17" s="97">
         <v>16.920534146630875</v>
       </c>
-      <c r="AE17" s="34">
+      <c r="AE17" s="97">
         <v>16.914798795244842</v>
       </c>
-      <c r="AF17" s="34">
+      <c r="AF17" s="97">
         <v>16.909253371905947</v>
       </c>
-      <c r="AG17" s="34">
+      <c r="AG17" s="97">
         <v>16.903885756184795</v>
       </c>
-      <c r="AH17" s="34">
+      <c r="AH17" s="97">
         <v>16.898684950386627</v>
       </c>
-      <c r="AI17" s="34">
+      <c r="AI17" s="97">
         <v>16.893640945125586</v>
       </c>
-      <c r="AJ17" s="34">
+      <c r="AJ17" s="97">
         <v>16.888744604425948</v>
       </c>
-      <c r="AK17" s="34">
+      <c r="AK17" s="97">
         <v>16.883987567043249</v>
       </c>
-      <c r="AL17" s="34">
+      <c r="AL17" s="97">
         <v>16.879362161333628</v>
       </c>
-      <c r="AM17" s="34">
+      <c r="AM17" s="97">
         <v>16.874861331499435</v>
       </c>
-      <c r="AN17" s="34">
+      <c r="AN17" s="97">
         <v>16.870478573434706</v>
       </c>
-      <c r="AO17" s="34">
+      <c r="AO17" s="97">
         <v>16.86620787870941</v>
       </c>
-      <c r="AP17" s="34">
+      <c r="AP17" s="97">
         <v>16.862043685484444</v>
       </c>
-      <c r="AQ17" s="34">
+      <c r="AQ17" s="97">
         <v>16.857980835353413</v>
       </c>
-      <c r="AR17" s="34">
+      <c r="AR17" s="97">
         <v>16.854014535272913</v>
       </c>
-      <c r="AS17" s="34">
+      <c r="AS17" s="97">
         <v>16.850140323878062</v>
       </c>
-      <c r="AT17" s="34">
+      <c r="AT17" s="97">
         <v>16.84635404159102</v>
       </c>
-      <c r="AU17" s="34">
+      <c r="AU17" s="97">
         <v>16.84265180402128</v>
       </c>
-      <c r="AV17" s="34">
+      <c r="AV17" s="97">
         <v>16.839029978232258</v>
       </c>
-      <c r="AW17" s="34">
+      <c r="AW17" s="97">
         <v>16.835485161511471</v>
       </c>
-      <c r="AX17" s="34">
+      <c r="AX17" s="97">
         <v>16.832014162333987</v>
       </c>
-      <c r="AY17" s="34">
+      <c r="AY17" s="97">
         <v>16.828613983252815</v>
       </c>
-      <c r="AZ17" s="34">
+      <c r="AZ17" s="97">
         <v>16.825281805486856</v>
       </c>
-      <c r="BA17" s="34">
+      <c r="BA17" s="44">
         <v>16.822014975008404</v>
       </c>
       <c r="BB17" s="112"/>
@@ -16229,160 +16233,160 @@
       <c r="A18" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="114">
         <v>0</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="114">
         <v>630</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="114">
         <v>700</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="114">
         <v>700</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="114">
         <v>700</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="114">
         <v>700</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="114">
         <v>700</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="114">
         <v>700</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="114">
         <v>700</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="114">
         <v>700</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="114">
         <v>520</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="114">
         <v>0</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="114">
         <v>0</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="114">
         <v>0</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="114">
         <v>0</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="114">
         <v>0</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="114">
         <v>0</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="114">
         <v>0</v>
       </c>
-      <c r="T18" s="7">
+      <c r="T18" s="114">
         <v>0</v>
       </c>
-      <c r="U18" s="7">
+      <c r="U18" s="114">
         <v>0</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V18" s="114">
         <v>0</v>
       </c>
-      <c r="W18" s="7">
+      <c r="W18" s="114">
         <v>0</v>
       </c>
-      <c r="X18" s="7">
+      <c r="X18" s="114">
         <v>0</v>
       </c>
-      <c r="Y18" s="7">
+      <c r="Y18" s="114">
         <v>0</v>
       </c>
-      <c r="Z18" s="7">
+      <c r="Z18" s="114">
         <v>0</v>
       </c>
-      <c r="AA18" s="7">
+      <c r="AA18" s="114">
         <v>0</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AB18" s="114">
         <v>0</v>
       </c>
-      <c r="AC18" s="7">
+      <c r="AC18" s="114">
         <v>0</v>
       </c>
-      <c r="AD18" s="7">
+      <c r="AD18" s="114">
         <v>0</v>
       </c>
-      <c r="AE18" s="7">
+      <c r="AE18" s="114">
         <v>0</v>
       </c>
-      <c r="AF18" s="7">
+      <c r="AF18" s="114">
         <v>0</v>
       </c>
-      <c r="AG18" s="7">
+      <c r="AG18" s="114">
         <v>0</v>
       </c>
-      <c r="AH18" s="7">
+      <c r="AH18" s="114">
         <v>0</v>
       </c>
-      <c r="AI18" s="7">
+      <c r="AI18" s="114">
         <v>0</v>
       </c>
-      <c r="AJ18" s="7">
+      <c r="AJ18" s="114">
         <v>0</v>
       </c>
-      <c r="AK18" s="7">
+      <c r="AK18" s="114">
         <v>0</v>
       </c>
-      <c r="AL18" s="7">
+      <c r="AL18" s="114">
         <v>0</v>
       </c>
-      <c r="AM18" s="7">
+      <c r="AM18" s="114">
         <v>0</v>
       </c>
-      <c r="AN18" s="7">
+      <c r="AN18" s="114">
         <v>0</v>
       </c>
-      <c r="AO18" s="7">
+      <c r="AO18" s="114">
         <v>0</v>
       </c>
-      <c r="AP18" s="7">
+      <c r="AP18" s="114">
         <v>0</v>
       </c>
-      <c r="AQ18" s="7">
+      <c r="AQ18" s="114">
         <v>0</v>
       </c>
-      <c r="AR18" s="7">
+      <c r="AR18" s="114">
         <v>0</v>
       </c>
-      <c r="AS18" s="7">
+      <c r="AS18" s="114">
         <v>0</v>
       </c>
-      <c r="AT18" s="7">
+      <c r="AT18" s="114">
         <v>0</v>
       </c>
-      <c r="AU18" s="7">
+      <c r="AU18" s="114">
         <v>0</v>
       </c>
-      <c r="AV18" s="7">
+      <c r="AV18" s="114">
         <v>0</v>
       </c>
-      <c r="AW18" s="7">
+      <c r="AW18" s="114">
         <v>0</v>
       </c>
-      <c r="AX18" s="7">
+      <c r="AX18" s="114">
         <v>0</v>
       </c>
-      <c r="AY18" s="7">
+      <c r="AY18" s="114">
         <v>0</v>
       </c>
-      <c r="AZ18" s="7">
+      <c r="AZ18" s="114">
         <v>0</v>
       </c>
-      <c r="BA18" s="7">
+      <c r="BA18" s="29">
         <v>0</v>
       </c>
       <c r="BB18" s="112"/>
@@ -16391,160 +16395,160 @@
       <c r="A19" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="114">
         <v>0</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="114">
         <v>0</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="114">
         <v>0</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="114">
         <v>0</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="114">
         <v>0</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="114">
         <v>0</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="114">
         <v>0</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="114">
         <v>0</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="114">
         <v>0</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="114">
         <v>0</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="114">
         <v>0</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="114">
         <v>0</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="114">
         <v>0</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="114">
         <v>0</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="114">
         <v>0</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="114">
         <v>0</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="114">
         <v>0</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="114">
         <v>0</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T19" s="114">
         <v>0</v>
       </c>
-      <c r="U19" s="7">
+      <c r="U19" s="114">
         <v>0</v>
       </c>
-      <c r="V19" s="7">
+      <c r="V19" s="114">
         <v>0</v>
       </c>
-      <c r="W19" s="7">
+      <c r="W19" s="114">
         <v>560</v>
       </c>
-      <c r="X19" s="7">
+      <c r="X19" s="114">
         <v>600</v>
       </c>
-      <c r="Y19" s="7">
+      <c r="Y19" s="114">
         <v>600</v>
       </c>
-      <c r="Z19" s="7">
+      <c r="Z19" s="114">
         <v>600</v>
       </c>
-      <c r="AA19" s="7">
+      <c r="AA19" s="114">
         <v>600</v>
       </c>
-      <c r="AB19" s="7">
+      <c r="AB19" s="114">
         <v>600</v>
       </c>
-      <c r="AC19" s="7">
+      <c r="AC19" s="114">
         <v>600</v>
       </c>
-      <c r="AD19" s="7">
+      <c r="AD19" s="114">
         <v>600</v>
       </c>
-      <c r="AE19" s="7">
+      <c r="AE19" s="114">
         <v>600</v>
       </c>
-      <c r="AF19" s="7">
+      <c r="AF19" s="114">
         <v>600</v>
       </c>
-      <c r="AG19" s="7">
+      <c r="AG19" s="114">
         <v>600</v>
       </c>
-      <c r="AH19" s="7">
+      <c r="AH19" s="114">
         <v>600</v>
       </c>
-      <c r="AI19" s="7">
+      <c r="AI19" s="114">
         <v>600</v>
       </c>
-      <c r="AJ19" s="7">
+      <c r="AJ19" s="114">
         <v>300</v>
       </c>
-      <c r="AK19" s="7">
+      <c r="AK19" s="114">
         <v>0</v>
       </c>
-      <c r="AL19" s="7">
+      <c r="AL19" s="114">
         <v>0</v>
       </c>
-      <c r="AM19" s="7">
+      <c r="AM19" s="114">
         <v>0</v>
       </c>
-      <c r="AN19" s="7">
+      <c r="AN19" s="114">
         <v>0</v>
       </c>
-      <c r="AO19" s="7">
+      <c r="AO19" s="114">
         <v>0</v>
       </c>
-      <c r="AP19" s="7">
+      <c r="AP19" s="114">
         <v>0</v>
       </c>
-      <c r="AQ19" s="7">
+      <c r="AQ19" s="114">
         <v>0</v>
       </c>
-      <c r="AR19" s="7">
+      <c r="AR19" s="114">
         <v>0</v>
       </c>
-      <c r="AS19" s="7">
+      <c r="AS19" s="114">
         <v>0</v>
       </c>
-      <c r="AT19" s="7">
+      <c r="AT19" s="114">
         <v>0</v>
       </c>
-      <c r="AU19" s="7">
+      <c r="AU19" s="114">
         <v>0</v>
       </c>
-      <c r="AV19" s="7">
+      <c r="AV19" s="114">
         <v>0</v>
       </c>
-      <c r="AW19" s="7">
+      <c r="AW19" s="114">
         <v>0</v>
       </c>
-      <c r="AX19" s="7">
+      <c r="AX19" s="114">
         <v>0</v>
       </c>
-      <c r="AY19" s="7">
+      <c r="AY19" s="114">
         <v>0</v>
       </c>
-      <c r="AZ19" s="7">
+      <c r="AZ19" s="114">
         <v>0</v>
       </c>
-      <c r="BA19" s="7">
+      <c r="BA19" s="29">
         <v>0</v>
       </c>
       <c r="BB19" s="112"/>
@@ -16553,160 +16557,160 @@
       <c r="A20" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="114">
         <v>0</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="114">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="114">
         <v>0</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="114">
         <v>0</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="114">
         <v>0</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="114">
         <v>0</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="114">
         <v>0</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="114">
         <v>0</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="114">
         <v>0</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="114">
         <v>0</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="114">
         <v>0</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="114">
         <v>0</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="114">
         <v>280</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="114">
         <v>650</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="114">
         <v>650</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="114">
         <v>650</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="114">
         <v>650</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S20" s="114">
         <v>650</v>
       </c>
-      <c r="T20" s="7">
+      <c r="T20" s="114">
         <v>650</v>
       </c>
-      <c r="U20" s="7">
+      <c r="U20" s="114">
         <v>130</v>
       </c>
-      <c r="V20" s="7">
+      <c r="V20" s="114">
         <v>0</v>
       </c>
-      <c r="W20" s="7">
+      <c r="W20" s="114">
         <v>0</v>
       </c>
-      <c r="X20" s="7">
+      <c r="X20" s="114">
         <v>0</v>
       </c>
-      <c r="Y20" s="7">
+      <c r="Y20" s="114">
         <v>0</v>
       </c>
-      <c r="Z20" s="7">
+      <c r="Z20" s="114">
         <v>0</v>
       </c>
-      <c r="AA20" s="7">
+      <c r="AA20" s="114">
         <v>0</v>
       </c>
-      <c r="AB20" s="7">
+      <c r="AB20" s="114">
         <v>0</v>
       </c>
-      <c r="AC20" s="7">
+      <c r="AC20" s="114">
         <v>0</v>
       </c>
-      <c r="AD20" s="7">
+      <c r="AD20" s="114">
         <v>0</v>
       </c>
-      <c r="AE20" s="7">
+      <c r="AE20" s="114">
         <v>0</v>
       </c>
-      <c r="AF20" s="7">
+      <c r="AF20" s="114">
         <v>0</v>
       </c>
-      <c r="AG20" s="7">
+      <c r="AG20" s="114">
         <v>0</v>
       </c>
-      <c r="AH20" s="7">
+      <c r="AH20" s="114">
         <v>0</v>
       </c>
-      <c r="AI20" s="7">
+      <c r="AI20" s="114">
         <v>0</v>
       </c>
-      <c r="AJ20" s="7">
+      <c r="AJ20" s="114">
         <v>0</v>
       </c>
-      <c r="AK20" s="7">
+      <c r="AK20" s="114">
         <v>0</v>
       </c>
-      <c r="AL20" s="7">
+      <c r="AL20" s="114">
         <v>0</v>
       </c>
-      <c r="AM20" s="7">
+      <c r="AM20" s="114">
         <v>0</v>
       </c>
-      <c r="AN20" s="7">
+      <c r="AN20" s="114">
         <v>0</v>
       </c>
-      <c r="AO20" s="7">
+      <c r="AO20" s="114">
         <v>0</v>
       </c>
-      <c r="AP20" s="7">
+      <c r="AP20" s="114">
         <v>0</v>
       </c>
-      <c r="AQ20" s="7">
+      <c r="AQ20" s="114">
         <v>0</v>
       </c>
-      <c r="AR20" s="7">
+      <c r="AR20" s="114">
         <v>0</v>
       </c>
-      <c r="AS20" s="7">
+      <c r="AS20" s="114">
         <v>0</v>
       </c>
-      <c r="AT20" s="7">
+      <c r="AT20" s="114">
         <v>0</v>
       </c>
-      <c r="AU20" s="7">
+      <c r="AU20" s="114">
         <v>0</v>
       </c>
-      <c r="AV20" s="7">
+      <c r="AV20" s="114">
         <v>0</v>
       </c>
-      <c r="AW20" s="7">
+      <c r="AW20" s="114">
         <v>0</v>
       </c>
-      <c r="AX20" s="7">
+      <c r="AX20" s="114">
         <v>0</v>
       </c>
-      <c r="AY20" s="7">
+      <c r="AY20" s="114">
         <v>0</v>
       </c>
-      <c r="AZ20" s="7">
+      <c r="AZ20" s="114">
         <v>0</v>
       </c>
-      <c r="BA20" s="7">
+      <c r="BA20" s="29">
         <v>0</v>
       </c>
     </row>
@@ -16714,160 +16718,160 @@
       <c r="A21" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <v>0</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="8">
         <v>0</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="8">
         <v>0</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="8">
         <v>0</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="8">
         <v>0</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="8">
         <v>0</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="8">
         <v>0</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="8">
         <v>0</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="8">
         <v>0</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="8">
         <v>0</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="8">
         <v>0</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="8">
         <v>0</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="8">
         <v>0</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="8">
         <v>0</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="8">
         <v>0</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="8">
         <v>0</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S21" s="8">
         <v>0</v>
       </c>
-      <c r="T21" s="7">
+      <c r="T21" s="8">
         <v>0</v>
       </c>
-      <c r="U21" s="7">
+      <c r="U21" s="8">
         <v>0</v>
       </c>
-      <c r="V21" s="7">
+      <c r="V21" s="8">
         <v>0</v>
       </c>
-      <c r="W21" s="7">
+      <c r="W21" s="8">
         <v>0</v>
       </c>
-      <c r="X21" s="7">
+      <c r="X21" s="8">
         <v>0</v>
       </c>
-      <c r="Y21" s="7">
+      <c r="Y21" s="8">
         <v>0</v>
       </c>
-      <c r="Z21" s="7">
+      <c r="Z21" s="8">
         <v>0</v>
       </c>
-      <c r="AA21" s="7">
+      <c r="AA21" s="8">
         <v>0</v>
       </c>
-      <c r="AB21" s="7">
+      <c r="AB21" s="8">
         <v>0</v>
       </c>
-      <c r="AC21" s="7">
+      <c r="AC21" s="8">
         <v>0</v>
       </c>
-      <c r="AD21" s="7">
+      <c r="AD21" s="8">
         <v>0</v>
       </c>
-      <c r="AE21" s="7">
+      <c r="AE21" s="8">
         <v>0</v>
       </c>
-      <c r="AF21" s="7">
+      <c r="AF21" s="8">
         <v>0</v>
       </c>
-      <c r="AG21" s="7">
+      <c r="AG21" s="8">
         <v>0</v>
       </c>
-      <c r="AH21" s="7">
+      <c r="AH21" s="8">
         <v>0</v>
       </c>
-      <c r="AI21" s="7">
+      <c r="AI21" s="8">
         <v>0</v>
       </c>
-      <c r="AJ21" s="7">
+      <c r="AJ21" s="8">
         <v>0</v>
       </c>
-      <c r="AK21" s="7">
+      <c r="AK21" s="8">
         <v>150</v>
       </c>
-      <c r="AL21" s="7">
+      <c r="AL21" s="8">
         <v>640</v>
       </c>
-      <c r="AM21" s="7">
+      <c r="AM21" s="8">
         <v>640</v>
       </c>
-      <c r="AN21" s="7">
+      <c r="AN21" s="8">
         <v>640</v>
       </c>
-      <c r="AO21" s="7">
+      <c r="AO21" s="8">
         <v>640</v>
       </c>
-      <c r="AP21" s="7">
+      <c r="AP21" s="8">
         <v>640</v>
       </c>
-      <c r="AQ21" s="7">
+      <c r="AQ21" s="8">
         <v>640</v>
       </c>
-      <c r="AR21" s="7">
+      <c r="AR21" s="8">
         <v>640</v>
       </c>
-      <c r="AS21" s="7">
+      <c r="AS21" s="8">
         <v>640</v>
       </c>
-      <c r="AT21" s="7">
+      <c r="AT21" s="8">
         <v>640</v>
       </c>
-      <c r="AU21" s="7">
+      <c r="AU21" s="8">
         <v>640</v>
       </c>
-      <c r="AV21" s="7">
+      <c r="AV21" s="8">
         <v>640</v>
       </c>
-      <c r="AW21" s="7">
+      <c r="AW21" s="8">
         <v>640</v>
       </c>
-      <c r="AX21" s="7">
+      <c r="AX21" s="8">
         <v>640</v>
       </c>
-      <c r="AY21" s="7">
+      <c r="AY21" s="8">
         <v>640</v>
       </c>
-      <c r="AZ21" s="7">
+      <c r="AZ21" s="8">
         <v>320</v>
       </c>
-      <c r="BA21" s="7">
+      <c r="BA21" s="9">
         <v>160</v>
       </c>
     </row>
@@ -36200,7 +36204,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B3" s="42">
         <v>0</v>

--- a/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
+++ b/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F548836D-57C9-466E-B300-404DABEBAB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB94351-096E-4256-AB92-841E8D2BE68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -110,6 +110,14 @@
     <sheet name="StorageExpansionLeadTime" sheetId="131" r:id="rId95"/>
     <sheet name="PipelineExpansionLeadTime_Dist" sheetId="132" r:id="rId96"/>
     <sheet name="PipelineExpansionLeadTime_Capac" sheetId="133" r:id="rId97"/>
+    <sheet name="SWDDeep" sheetId="137" r:id="rId98"/>
+    <sheet name="SWDAveragePressure" sheetId="138" r:id="rId99"/>
+    <sheet name="SWDProxPAWell" sheetId="139" r:id="rId100"/>
+    <sheet name="SWDProxInactiveWell" sheetId="140" r:id="rId101"/>
+    <sheet name="SWDProxEQ" sheetId="141" r:id="rId102"/>
+    <sheet name="SWDProxFault" sheetId="142" r:id="rId103"/>
+    <sheet name="SWDProxHpOrLpWell" sheetId="143" r:id="rId104"/>
+    <sheet name="SWDRiskFactors" sheetId="144" r:id="rId105"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
@@ -136,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3704" uniqueCount="330">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1064,6 +1072,69 @@
   <si>
     <t>Treatment Sites to Disposal Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
   </si>
+  <si>
+    <t>SWDs - shallow (0) or deep (1)</t>
+  </si>
+  <si>
+    <t>Average pressure/depth in vicinity of well [psi/ft]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to P&amp;A'd well [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to inactive/temporarily abandoned formerly producing well (completed prior to 2000) [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to earthquakes &gt;= 3.0 magnitude [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to fault [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to high pressure or low pressure injection well [miles]</t>
+  </si>
+  <si>
+    <t>SWD risk factors</t>
+  </si>
+  <si>
+    <t>orphan_well_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>orphan_well_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>inactive_well_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>inactive_well_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>EQ_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>EQ_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>fault_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>fault_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_LP_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_LP_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_threshold</t>
+  </si>
+  <si>
+    <t>psi/ft</t>
+  </si>
+  <si>
+    <t>LP_threshold</t>
+  </si>
 </sst>
 </file>
 
@@ -1672,7 +1743,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1950,10 +2021,26 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2982,6 +3069,286 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3C17FB-8AE1-433E-8DD5-E94E473A0403}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366B2BF2-DF03-445B-B19F-2494D55CDF8D}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF2AEE1-5B82-48D4-A3F1-8F6F05F9D6EB}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556B8C51-C30F-47C1-AA2F-2A7E4ABBE49E}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DB7E5A-A35E-4684-8DBE-68CBCA254CD4}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E17D2A-D1E3-4692-9AC3-A124923E3E4C}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="113" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="115" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="116" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="114"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="117" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="118">
+        <v>1.86</v>
+      </c>
+      <c r="C3" s="114"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="117" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="118">
+        <v>2</v>
+      </c>
+      <c r="C4" s="114"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="117" t="s">
+        <v>319</v>
+      </c>
+      <c r="B5" s="118">
+        <v>1.86</v>
+      </c>
+      <c r="C5" s="114"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="117" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" s="118">
+        <v>2</v>
+      </c>
+      <c r="C6" s="114"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="117" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" s="118">
+        <v>5.59</v>
+      </c>
+      <c r="C7" s="114"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="117" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" s="118">
+        <v>1</v>
+      </c>
+      <c r="C8" s="114"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="117" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="118">
+        <v>5.59</v>
+      </c>
+      <c r="C9" s="114"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="117" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="118">
+        <v>1</v>
+      </c>
+      <c r="C10" s="114"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="117" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" s="118">
+        <v>1.86</v>
+      </c>
+      <c r="C11" s="114"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="117" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" s="118">
+        <v>2</v>
+      </c>
+      <c r="C12" s="114"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="117" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" s="118">
+        <v>0.7</v>
+      </c>
+      <c r="C13" s="114" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="119" t="s">
+        <v>329</v>
+      </c>
+      <c r="B14" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="114" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFC53F8-A679-4C96-A30B-3522B67D8CF1}">
   <sheetPr>
@@ -13801,157 +14168,157 @@
       <c r="A3" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="113">
+      <c r="B3" s="34">
         <v>70</v>
       </c>
-      <c r="C3" s="113">
+      <c r="C3" s="34">
         <v>60.517606191550563</v>
       </c>
-      <c r="D3" s="113">
+      <c r="D3" s="34">
         <v>55.577956756392922</v>
       </c>
-      <c r="E3" s="113">
+      <c r="E3" s="34">
         <v>52.319723702222852</v>
       </c>
-      <c r="F3" s="113">
+      <c r="F3" s="34">
         <v>49.924570703576457</v>
       </c>
-      <c r="G3" s="113">
+      <c r="G3" s="34">
         <v>48.049212855920203</v>
       </c>
-      <c r="H3" s="113">
+      <c r="H3" s="34">
         <v>46.518687368204731</v>
       </c>
-      <c r="I3" s="113">
+      <c r="I3" s="34">
         <v>45.232349072312232</v>
       </c>
-      <c r="J3" s="113">
+      <c r="J3" s="34">
         <v>44.127275388792604</v>
       </c>
-      <c r="K3" s="113">
+      <c r="K3" s="34">
         <v>43.161650130303755</v>
       </c>
-      <c r="L3" s="113">
+      <c r="L3" s="34">
         <v>42.306351767253425</v>
       </c>
-      <c r="M3" s="113">
+      <c r="M3" s="34">
         <v>41.540333448979538</v>
       </c>
-      <c r="N3" s="113">
+      <c r="N3" s="34">
         <v>40.847918977390528</v>
       </c>
-      <c r="O3" s="113">
+      <c r="O3" s="34">
         <v>40.217137181383883</v>
       </c>
-      <c r="P3" s="113">
+      <c r="P3" s="34">
         <v>39.638651880640772</v>
       </c>
-      <c r="Q3" s="113">
+      <c r="Q3" s="34">
         <v>39.105049832527698</v>
       </c>
-      <c r="R3" s="113">
+      <c r="R3" s="34">
         <v>38.610352492430636</v>
       </c>
-      <c r="S3" s="113">
+      <c r="S3" s="34">
         <v>38.149672489786461</v>
       </c>
-      <c r="T3" s="113">
+      <c r="T3" s="34">
         <v>37.718966435583724</v>
       </c>
-      <c r="U3" s="113">
+      <c r="U3" s="34">
         <v>37.314853502331573</v>
       </c>
-      <c r="V3" s="113">
+      <c r="V3" s="34">
         <v>36.934479927346352</v>
       </c>
-      <c r="W3" s="113">
+      <c r="W3" s="34">
         <v>36.575416223597891</v>
       </c>
-      <c r="X3" s="113">
+      <c r="X3" s="34">
         <v>36.235578102982899</v>
       </c>
-      <c r="Y3" s="113">
+      <c r="Y3" s="34">
         <v>35.913164867586268</v>
       </c>
-      <c r="Z3" s="113">
+      <c r="Z3" s="34">
         <v>35.606610856234362</v>
       </c>
-      <c r="AA3" s="113">
+      <c r="AA3" s="34">
         <v>35.314546777401212</v>
       </c>
-      <c r="AB3" s="113">
+      <c r="AB3" s="34">
         <v>35.035768619082248</v>
       </c>
-      <c r="AC3" s="113">
+      <c r="AC3" s="34">
         <v>34.76921242992222</v>
       </c>
-      <c r="AD3" s="113">
+      <c r="AD3" s="34">
         <v>34.513933696143681</v>
       </c>
-      <c r="AE3" s="113">
+      <c r="AE3" s="34">
         <v>34.269090349665476</v>
       </c>
-      <c r="AF3" s="113">
+      <c r="AF3" s="34">
         <v>34.033928670196069</v>
       </c>
-      <c r="AG3" s="113">
+      <c r="AG3" s="34">
         <v>33.807771512369591</v>
       </c>
-      <c r="AH3" s="113">
+      <c r="AH3" s="34">
         <v>33.590008414873687</v>
       </c>
-      <c r="AI3" s="113">
+      <c r="AI3" s="34">
         <v>33.380087243626704</v>
       </c>
-      <c r="AJ3" s="113">
+      <c r="AJ3" s="34">
         <v>33.177507093592951</v>
       </c>
-      <c r="AK3" s="113">
+      <c r="AK3" s="34">
         <v>32.981812229621823</v>
       </c>
-      <c r="AL3" s="113">
+      <c r="AL3" s="34">
         <v>32.792586889973059</v>
       </c>
-      <c r="AM3" s="113">
+      <c r="AM3" s="34">
         <v>32.609450810013847</v>
       </c>
-      <c r="AN3" s="113">
+      <c r="AN3" s="34">
         <v>32.432055350200763</v>
       </c>
-      <c r="AO3" s="113">
+      <c r="AO3" s="34">
         <v>32.26008013356433</v>
       </c>
-      <c r="AP3" s="113">
+      <c r="AP3" s="34">
         <v>32.093230114750334</v>
       </c>
-      <c r="AQ3" s="113">
+      <c r="AQ3" s="34">
         <v>31.931233016183935</v>
       </c>
-      <c r="AR3" s="113">
+      <c r="AR3" s="34">
         <v>31.773837077830798</v>
       </c>
-      <c r="AS3" s="113">
+      <c r="AS3" s="34">
         <v>31.620809075882097</v>
       </c>
-      <c r="AT3" s="113">
+      <c r="AT3" s="34">
         <v>31.471932572913797</v>
       </c>
-      <c r="AU3" s="113">
+      <c r="AU3" s="34">
         <v>31.327006367992745</v>
       </c>
-      <c r="AV3" s="113">
+      <c r="AV3" s="34">
         <v>31.185843120080861</v>
       </c>
-      <c r="AW3" s="113">
+      <c r="AW3" s="34">
         <v>31.048268122125929</v>
       </c>
-      <c r="AX3" s="113">
+      <c r="AX3" s="34">
         <v>30.91411820658244</v>
       </c>
-      <c r="AY3" s="113">
+      <c r="AY3" s="34">
         <v>30.783240765905425</v>
       </c>
-      <c r="AZ3" s="113">
+      <c r="AZ3" s="34">
         <v>30.655492873905679</v>
       </c>
       <c r="BA3" s="35">
@@ -13964,157 +14331,157 @@
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="113">
+      <c r="B4" s="34">
         <v>182</v>
       </c>
-      <c r="C4" s="113">
+      <c r="C4" s="34">
         <v>142.79430581720862</v>
       </c>
-      <c r="D4" s="113">
+      <c r="D4" s="34">
         <v>123.90218033801798</v>
       </c>
-      <c r="E4" s="113">
+      <c r="E4" s="34">
         <v>112.03414161438738</v>
       </c>
-      <c r="F4" s="113">
+      <c r="F4" s="34">
         <v>103.61720813537787</v>
       </c>
-      <c r="G4" s="113">
+      <c r="G4" s="34">
         <v>97.211680387944355</v>
       </c>
-      <c r="H4" s="113">
+      <c r="H4" s="34">
         <v>92.105820134502693</v>
       </c>
-      <c r="I4" s="113">
+      <c r="I4" s="34">
         <v>87.900205932160958</v>
       </c>
-      <c r="J4" s="113">
+      <c r="J4" s="34">
         <v>84.350276332498495</v>
       </c>
-      <c r="K4" s="113">
+      <c r="K4" s="34">
         <v>81.296413771475287</v>
       </c>
-      <c r="L4" s="113">
+      <c r="L4" s="34">
         <v>78.62921650265514</v>
       </c>
-      <c r="M4" s="113">
+      <c r="M4" s="34">
         <v>76.270738562202581</v>
       </c>
-      <c r="N4" s="113">
+      <c r="N4" s="34">
         <v>74.163670321702583</v>
       </c>
-      <c r="O4" s="113">
+      <c r="O4" s="34">
         <v>72.264761801269174</v>
       </c>
-      <c r="P4" s="113">
+      <c r="P4" s="34">
         <v>70.540648398415001</v>
       </c>
-      <c r="Q4" s="113">
+      <c r="Q4" s="34">
         <v>68.965103776223117</v>
       </c>
-      <c r="R4" s="113">
+      <c r="R4" s="34">
         <v>67.517175452344063</v>
       </c>
-      <c r="S4" s="113">
+      <c r="S4" s="34">
         <v>66.179885463674992</v>
       </c>
-      <c r="T4" s="113">
+      <c r="T4" s="34">
         <v>64.939303697171056</v>
       </c>
-      <c r="U4" s="113">
+      <c r="U4" s="34">
         <v>63.783873461133943</v>
       </c>
-      <c r="V4" s="113">
+      <c r="V4" s="34">
         <v>62.703911738935162</v>
       </c>
-      <c r="W4" s="113">
+      <c r="W4" s="34">
         <v>61.691232898063987</v>
       </c>
-      <c r="X4" s="113">
+      <c r="X4" s="34">
         <v>60.738861250108314</v>
       </c>
-      <c r="Y4" s="113">
+      <c r="Y4" s="34">
         <v>59.840808610744631</v>
       </c>
-      <c r="Z4" s="113">
+      <c r="Z4" s="34">
         <v>58.991900119616567</v>
       </c>
-      <c r="AA4" s="113">
+      <c r="AA4" s="34">
         <v>58.187636376065029</v>
       </c>
-      <c r="AB4" s="113">
+      <c r="AB4" s="34">
         <v>57.424083240169672</v>
       </c>
-      <c r="AC4" s="113">
+      <c r="AC4" s="34">
         <v>56.697782947572342</v>
       </c>
-      <c r="AD4" s="113">
+      <c r="AD4" s="34">
         <v>56.00568181561912</v>
       </c>
-      <c r="AE4" s="113">
+      <c r="AE4" s="34">
         <v>55.345070988722306</v>
       </c>
-      <c r="AF4" s="113">
+      <c r="AF4" s="34">
         <v>54.713537522426556</v>
       </c>
-      <c r="AG4" s="113">
+      <c r="AG4" s="34">
         <v>54.108923732623808</v>
       </c>
-      <c r="AH4" s="113">
+      <c r="AH4" s="34">
         <v>53.529293203016678</v>
       </c>
-      <c r="AI4" s="113">
+      <c r="AI4" s="34">
         <v>52.972902194814012</v>
       </c>
-      <c r="AJ4" s="113">
+      <c r="AJ4" s="34">
         <v>52.438175468991432</v>
       </c>
-      <c r="AK4" s="113">
+      <c r="AK4" s="34">
         <v>51.923685735427732</v>
       </c>
-      <c r="AL4" s="113">
+      <c r="AL4" s="34">
         <v>51.428136100746876</v>
       </c>
-      <c r="AM4" s="113">
+      <c r="AM4" s="34">
         <v>50.950345009288085</v>
       </c>
-      <c r="AN4" s="113">
+      <c r="AN4" s="34">
         <v>50.489233267741234</v>
       </c>
-      <c r="AO4" s="113">
+      <c r="AO4" s="34">
         <v>50.043812819864264</v>
       </c>
-      <c r="AP4" s="113">
+      <c r="AP4" s="34">
         <v>49.613176997996028</v>
       </c>
-      <c r="AQ4" s="113">
+      <c r="AQ4" s="34">
         <v>49.196492026289917</v>
       </c>
-      <c r="AR4" s="113">
+      <c r="AR4" s="34">
         <v>48.792989589369263</v>
       </c>
-      <c r="AS4" s="113">
+      <c r="AS4" s="34">
         <v>48.401960311465878</v>
       </c>
-      <c r="AT4" s="113">
+      <c r="AT4" s="34">
         <v>48.022748016599643</v>
       </c>
-      <c r="AU4" s="113">
+      <c r="AU4" s="34">
         <v>47.65474466119214</v>
       </c>
-      <c r="AV4" s="113">
+      <c r="AV4" s="34">
         <v>47.297385847613825</v>
       </c>
-      <c r="AW4" s="113">
+      <c r="AW4" s="34">
         <v>46.950146841273195</v>
       </c>
-      <c r="AX4" s="113">
+      <c r="AX4" s="34">
         <v>46.612539025545942</v>
       </c>
-      <c r="AY4" s="113">
+      <c r="AY4" s="34">
         <v>46.284106738564581</v>
       </c>
-      <c r="AZ4" s="113">
+      <c r="AZ4" s="34">
         <v>45.964424444010625</v>
       </c>
       <c r="BA4" s="35">
@@ -14127,157 +14494,157 @@
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="113">
+      <c r="B5" s="34">
         <v>112</v>
       </c>
-      <c r="C5" s="113">
+      <c r="C5" s="34">
         <v>94.180398508416033</v>
       </c>
-      <c r="D5" s="113">
+      <c r="D5" s="34">
         <v>85.101596792978356</v>
       </c>
-      <c r="E5" s="113">
+      <c r="E5" s="34">
         <v>79.195959492893323</v>
       </c>
-      <c r="F5" s="113">
+      <c r="F5" s="34">
         <v>74.898914157359272</v>
       </c>
-      <c r="G5" s="113">
+      <c r="G5" s="34">
         <v>71.561627675582514</v>
       </c>
-      <c r="H5" s="113">
+      <c r="H5" s="34">
         <v>68.856273130541624</v>
       </c>
-      <c r="I5" s="113">
+      <c r="I5" s="34">
         <v>66.595598440152372</v>
       </c>
-      <c r="J5" s="113">
+      <c r="J5" s="34">
         <v>64.663230149238075</v>
       </c>
-      <c r="K5" s="113">
+      <c r="K5" s="34">
         <v>62.982228421319093</v>
       </c>
-      <c r="L5" s="113">
+      <c r="L5" s="34">
         <v>61.499254518924594</v>
       </c>
-      <c r="M5" s="113">
+      <c r="M5" s="34">
         <v>60.17591618211835</v>
       </c>
-      <c r="N5" s="113">
+      <c r="N5" s="34">
         <v>58.983723438967779</v>
       </c>
-      <c r="O5" s="113">
+      <c r="O5" s="34">
         <v>57.900993243203104</v>
       </c>
-      <c r="P5" s="113">
+      <c r="P5" s="34">
         <v>56.910867793316854</v>
       </c>
-      <c r="Q5" s="113">
+      <c r="Q5" s="34">
         <v>56</v>
       </c>
-      <c r="R5" s="113">
+      <c r="R5" s="34">
         <v>55.15765477661067</v>
       </c>
-      <c r="S5" s="113">
+      <c r="S5" s="34">
         <v>54.375078431220224</v>
       </c>
-      <c r="T5" s="113">
+      <c r="T5" s="34">
         <v>53.645046049680367</v>
       </c>
-      <c r="U5" s="113">
+      <c r="U5" s="34">
         <v>52.961530104177847</v>
       </c>
-      <c r="V5" s="113">
+      <c r="V5" s="34">
         <v>52.319453505558414</v>
       </c>
-      <c r="W5" s="113">
+      <c r="W5" s="34">
         <v>51.714502665739495</v>
       </c>
-      <c r="X5" s="113">
+      <c r="X5" s="34">
         <v>51.142983975633911</v>
       </c>
-      <c r="Y5" s="113">
+      <c r="Y5" s="34">
         <v>50.601712202151305</v>
       </c>
-      <c r="Z5" s="113">
+      <c r="Z5" s="34">
         <v>50.087922695995289</v>
       </c>
-      <c r="AA5" s="113">
+      <c r="AA5" s="34">
         <v>49.599201598144511</v>
       </c>
-      <c r="AB5" s="113">
+      <c r="AB5" s="34">
         <v>49.133429816893056</v>
       </c>
-      <c r="AC5" s="113">
+      <c r="AC5" s="34">
         <v>48.688737657839042</v>
       </c>
-      <c r="AD5" s="113">
+      <c r="AD5" s="34">
         <v>48.263467779397473</v>
       </c>
-      <c r="AE5" s="113">
+      <c r="AE5" s="34">
         <v>47.856144716378218</v>
       </c>
-      <c r="AF5" s="113">
+      <c r="AF5" s="34">
         <v>47.465449630482432</v>
       </c>
-      <c r="AG5" s="113">
+      <c r="AG5" s="34">
         <v>47.090199254208017</v>
       </c>
-      <c r="AH5" s="113">
+      <c r="AH5" s="34">
         <v>46.729328224448864</v>
       </c>
-      <c r="AI5" s="113">
+      <c r="AI5" s="34">
         <v>46.381874175453831</v>
       </c>
-      <c r="AJ5" s="113">
+      <c r="AJ5" s="34">
         <v>46.046965092858215</v>
       </c>
-      <c r="AK5" s="113">
+      <c r="AK5" s="34">
         <v>45.723808531952663</v>
       </c>
-      <c r="AL5" s="113">
+      <c r="AL5" s="34">
         <v>45.411682381942228</v>
       </c>
-      <c r="AM5" s="113">
+      <c r="AM5" s="34">
         <v>45.109926919296662</v>
       </c>
-      <c r="AN5" s="113">
+      <c r="AN5" s="34">
         <v>44.817937941531994</v>
       </c>
-      <c r="AO5" s="113">
+      <c r="AO5" s="34">
         <v>44.535160810954835</v>
       </c>
-      <c r="AP5" s="113">
+      <c r="AP5" s="34">
         <v>44.261085268333339</v>
       </c>
-      <c r="AQ5" s="113">
+      <c r="AQ5" s="34">
         <v>43.995240900857453</v>
       </c>
-      <c r="AR5" s="113">
+      <c r="AR5" s="34">
         <v>43.737193168425812</v>
       </c>
-      <c r="AS5" s="113">
+      <c r="AS5" s="34">
         <v>43.486539908249007</v>
       </c>
-      <c r="AT5" s="113">
+      <c r="AT5" s="34">
         <v>43.242908250762049</v>
       </c>
-      <c r="AU5" s="113">
+      <c r="AU5" s="34">
         <v>43.005951890488717</v>
       </c>
-      <c r="AV5" s="113">
+      <c r="AV5" s="34">
         <v>42.77534866426678</v>
       </c>
-      <c r="AW5" s="113">
+      <c r="AW5" s="34">
         <v>42.550798396489178</v>
       </c>
-      <c r="AX5" s="113">
+      <c r="AX5" s="34">
         <v>42.332020977033459</v>
       </c>
-      <c r="AY5" s="113">
+      <c r="AY5" s="34">
         <v>42.118754642567616</v>
       </c>
-      <c r="AZ5" s="113">
+      <c r="AZ5" s="34">
         <v>41.910754436119802</v>
       </c>
       <c r="BA5" s="35">
@@ -14289,157 +14656,157 @@
       <c r="A6" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="113">
+      <c r="B6" s="34">
         <v>28</v>
       </c>
-      <c r="C6" s="113">
+      <c r="C6" s="34">
         <v>27.614515725814059</v>
       </c>
-      <c r="D6" s="113">
+      <c r="D6" s="34">
         <v>27.391486800416793</v>
       </c>
-      <c r="E6" s="113">
+      <c r="E6" s="34">
         <v>27.234338527543994</v>
       </c>
-      <c r="F6" s="113">
+      <c r="F6" s="34">
         <v>27.113066000317634</v>
       </c>
-      <c r="G6" s="113">
+      <c r="G6" s="34">
         <v>27.014380107269201</v>
       </c>
-      <c r="H6" s="113">
+      <c r="H6" s="34">
         <v>26.931222659734384</v>
       </c>
-      <c r="I6" s="113">
+      <c r="I6" s="34">
         <v>26.859395341107401</v>
       </c>
-      <c r="J6" s="113">
+      <c r="J6" s="34">
         <v>26.796198183478836</v>
       </c>
-      <c r="K6" s="113">
+      <c r="K6" s="34">
         <v>26.739792408600206</v>
       </c>
-      <c r="L6" s="113">
+      <c r="L6" s="34">
         <v>26.688869470315883</v>
       </c>
-      <c r="M6" s="113">
+      <c r="M6" s="34">
         <v>26.642465153403709</v>
       </c>
-      <c r="N6" s="113">
+      <c r="N6" s="34">
         <v>26.599848572970323</v>
       </c>
-      <c r="O6" s="113">
+      <c r="O6" s="34">
         <v>26.560452559022682</v>
       </c>
-      <c r="P6" s="113">
+      <c r="P6" s="34">
         <v>26.523828195233211</v>
       </c>
-      <c r="Q6" s="113">
+      <c r="Q6" s="34">
         <v>26.489614108316687</v>
       </c>
-      <c r="R6" s="113">
+      <c r="R6" s="34">
         <v>26.457515115394646</v>
       </c>
-      <c r="S6" s="113">
+      <c r="S6" s="34">
         <v>26.427287004632369</v>
       </c>
-      <c r="T6" s="113">
+      <c r="T6" s="34">
         <v>26.398725450373156</v>
       </c>
-      <c r="U6" s="113">
+      <c r="U6" s="34">
         <v>26.371657784724775</v>
       </c>
-      <c r="V6" s="113">
+      <c r="V6" s="34">
         <v>26.34593678582857</v>
       </c>
-      <c r="W6" s="113">
+      <c r="W6" s="34">
         <v>26.321435917579883</v>
       </c>
-      <c r="X6" s="113">
+      <c r="X6" s="34">
         <v>26.298045632116015</v>
       </c>
-      <c r="Y6" s="113">
+      <c r="Y6" s="34">
         <v>26.275670462611419</v>
       </c>
-      <c r="Z6" s="113">
+      <c r="Z6" s="34">
         <v>26.254226712056433</v>
       </c>
-      <c r="AA6" s="113">
+      <c r="AA6" s="34">
         <v>26.233640597234345</v>
       </c>
-      <c r="AB6" s="113">
+      <c r="AB6" s="34">
         <v>26.213846744432601</v>
       </c>
-      <c r="AC6" s="113">
+      <c r="AC6" s="34">
         <v>26.1947869598525</v>
       </c>
-      <c r="AD6" s="113">
+      <c r="AD6" s="34">
         <v>26.176409216667555</v>
       </c>
-      <c r="AE6" s="113">
+      <c r="AE6" s="34">
         <v>26.158666814502062</v>
       </c>
-      <c r="AF6" s="113">
+      <c r="AF6" s="34">
         <v>26.141517677285716</v>
       </c>
-      <c r="AG6" s="113">
+      <c r="AG6" s="34">
         <v>26.124923763030608</v>
       </c>
-      <c r="AH6" s="113">
+      <c r="AH6" s="34">
         <v>26.108850564793013</v>
       </c>
-      <c r="AI6" s="113">
+      <c r="AI6" s="34">
         <v>26.09326668642959</v>
       </c>
-      <c r="AJ6" s="113">
+      <c r="AJ6" s="34">
         <v>26.078143480093868</v>
       </c>
-      <c r="AK6" s="113">
+      <c r="AK6" s="34">
         <v>26.063454735000789</v>
       </c>
-      <c r="AL6" s="113">
+      <c r="AL6" s="34">
         <v>26.049176409002182</v>
       </c>
-      <c r="AM6" s="113">
+      <c r="AM6" s="34">
         <v>26.035286396099192</v>
       </c>
-      <c r="AN6" s="113">
+      <c r="AN6" s="34">
         <v>26.021764324271505</v>
       </c>
-      <c r="AO6" s="113">
+      <c r="AO6" s="34">
         <v>26.008591379002468</v>
       </c>
-      <c r="AP6" s="113">
+      <c r="AP6" s="34">
         <v>25.99575014867985</v>
       </c>
-      <c r="AQ6" s="113">
+      <c r="AQ6" s="34">
         <v>25.983224488698792</v>
       </c>
-      <c r="AR6" s="113">
+      <c r="AR6" s="34">
         <v>25.970999401617426</v>
       </c>
-      <c r="AS6" s="113">
+      <c r="AS6" s="34">
         <v>25.959060931143451</v>
       </c>
-      <c r="AT6" s="113">
+      <c r="AT6" s="34">
         <v>25.947396068080472</v>
       </c>
-      <c r="AU6" s="113">
+      <c r="AU6" s="34">
         <v>25.935992666651551</v>
       </c>
-      <c r="AV6" s="113">
+      <c r="AV6" s="34">
         <v>25.924839369856429</v>
       </c>
-      <c r="AW6" s="113">
+      <c r="AW6" s="34">
         <v>25.913925542717532</v>
       </c>
-      <c r="AX6" s="113">
+      <c r="AX6" s="34">
         <v>25.903241212435386</v>
       </c>
-      <c r="AY6" s="113">
+      <c r="AY6" s="34">
         <v>25.892777014613209</v>
       </c>
-      <c r="AZ6" s="113">
+      <c r="AZ6" s="34">
         <v>25.882524144827151</v>
       </c>
       <c r="BA6" s="35">
@@ -14451,157 +14818,157 @@
       <c r="A7" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="113">
+      <c r="B7" s="34">
         <v>21</v>
       </c>
-      <c r="C7" s="113">
+      <c r="C7" s="34">
         <v>20.854942404177752</v>
       </c>
-      <c r="D7" s="113">
+      <c r="D7" s="34">
         <v>20.770554087615587</v>
       </c>
-      <c r="E7" s="113">
+      <c r="E7" s="34">
         <v>20.710886794360544</v>
       </c>
-      <c r="F7" s="113">
+      <c r="F7" s="34">
         <v>20.664723310632613</v>
       </c>
-      <c r="G7" s="113">
+      <c r="G7" s="34">
         <v>20.627081390480086</v>
       </c>
-      <c r="H7" s="113">
+      <c r="H7" s="34">
         <v>20.595309099181218</v>
       </c>
-      <c r="I7" s="113">
+      <c r="I7" s="34">
         <v>20.567826249325464</v>
       </c>
-      <c r="J7" s="113">
+      <c r="J7" s="34">
         <v>20.543615100312593</v>
       </c>
-      <c r="K7" s="113">
+      <c r="K7" s="34">
         <v>20.521981640072024</v>
       </c>
-      <c r="L7" s="113">
+      <c r="L7" s="34">
         <v>20.502431420626074</v>
       </c>
-      <c r="M7" s="113">
+      <c r="M7" s="34">
         <v>20.484599731654715</v>
       </c>
-      <c r="N7" s="113">
+      <c r="N7" s="34">
         <v>20.468209863695524</v>
       </c>
-      <c r="O7" s="113">
+      <c r="O7" s="34">
         <v>20.453046907602968</v>
       </c>
-      <c r="P7" s="113">
+      <c r="P7" s="34">
         <v>20.438940629957393</v>
       </c>
-      <c r="Q7" s="113">
+      <c r="Q7" s="34">
         <v>20.425753895657994</v>
       </c>
-      <c r="R7" s="113">
+      <c r="R7" s="34">
         <v>20.413374612431571</v>
       </c>
-      <c r="S7" s="113">
+      <c r="S7" s="34">
         <v>20.401709985267413</v>
       </c>
-      <c r="T7" s="113">
+      <c r="T7" s="34">
         <v>20.39068232902904</v>
       </c>
-      <c r="U7" s="113">
+      <c r="U7" s="34">
         <v>20.380225958252158</v>
       </c>
-      <c r="V7" s="113">
+      <c r="V7" s="34">
         <v>20.370284837890704</v>
       </c>
-      <c r="W7" s="113">
+      <c r="W7" s="34">
         <v>20.360810782036236</v>
       </c>
-      <c r="X7" s="113">
+      <c r="X7" s="34">
         <v>20.351762054078442</v>
       </c>
-      <c r="Y7" s="113">
+      <c r="Y7" s="34">
         <v>20.343102265537819</v>
       </c>
-      <c r="Z7" s="113">
+      <c r="Z7" s="34">
         <v>20.334799500238226</v>
       </c>
-      <c r="AA7" s="113">
+      <c r="AA7" s="34">
         <v>20.326825610666337</v>
       </c>
-      <c r="AB7" s="113">
+      <c r="AB7" s="34">
         <v>20.319155647438048</v>
       </c>
-      <c r="AC7" s="113">
+      <c r="AC7" s="34">
         <v>20.311767392762178</v>
       </c>
-      <c r="AD7" s="113">
+      <c r="AD7" s="34">
         <v>20.304640975957049</v>
       </c>
-      <c r="AE7" s="113">
+      <c r="AE7" s="34">
         <v>20.297758554293807</v>
       </c>
-      <c r="AF7" s="113">
+      <c r="AF7" s="34">
         <v>20.291104046287135</v>
       </c>
-      <c r="AG7" s="113">
+      <c r="AG7" s="34">
         <v>20.284662907421758</v>
       </c>
-      <c r="AH7" s="113">
+      <c r="AH7" s="34">
         <v>20.278421940463957</v>
       </c>
-      <c r="AI7" s="113">
+      <c r="AI7" s="34">
         <v>20.272369134150704</v>
       </c>
-      <c r="AJ7" s="113">
+      <c r="AJ7" s="34">
         <v>20.266493525311141</v>
       </c>
-      <c r="AK7" s="113">
+      <c r="AK7" s="34">
         <v>20.2607850804519</v>
       </c>
-      <c r="AL7" s="113">
+      <c r="AL7" s="34">
         <v>20.255234593600356</v>
       </c>
-      <c r="AM7" s="113">
+      <c r="AM7" s="34">
         <v>20.249833597799324</v>
       </c>
-      <c r="AN7" s="113">
+      <c r="AN7" s="34">
         <v>20.244574288121651</v>
       </c>
-      <c r="AO7" s="113">
+      <c r="AO7" s="34">
         <v>20.239449454451293</v>
       </c>
-      <c r="AP7" s="113">
+      <c r="AP7" s="34">
         <v>20.234452422581334</v>
       </c>
-      <c r="AQ7" s="113">
+      <c r="AQ7" s="34">
         <v>20.229577002424097</v>
       </c>
-      <c r="AR7" s="113">
+      <c r="AR7" s="34">
         <v>20.224817442327495</v>
       </c>
-      <c r="AS7" s="113">
+      <c r="AS7" s="34">
         <v>20.220168388653676</v>
       </c>
-      <c r="AT7" s="113">
+      <c r="AT7" s="34">
         <v>20.215624849909229</v>
       </c>
-      <c r="AU7" s="113">
+      <c r="AU7" s="34">
         <v>20.211182164825537</v>
       </c>
-      <c r="AV7" s="113">
+      <c r="AV7" s="34">
         <v>20.206835973878707</v>
       </c>
-      <c r="AW7" s="113">
+      <c r="AW7" s="34">
         <v>20.202582193813768</v>
       </c>
-      <c r="AX7" s="113">
+      <c r="AX7" s="34">
         <v>20.198416994800787</v>
       </c>
-      <c r="AY7" s="113">
+      <c r="AY7" s="34">
         <v>20.194336779903374</v>
       </c>
-      <c r="AZ7" s="113">
+      <c r="AZ7" s="34">
         <v>20.190338166584226</v>
       </c>
       <c r="BA7" s="35">
@@ -14613,157 +14980,157 @@
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="113">
+      <c r="B8" s="34">
         <v>98</v>
       </c>
-      <c r="C8" s="113">
+      <c r="C8" s="34">
         <v>87.106582754323867</v>
       </c>
-      <c r="D8" s="113">
+      <c r="D8" s="34">
         <v>81.304664562223252</v>
       </c>
-      <c r="E8" s="113">
+      <c r="E8" s="34">
         <v>77.424048562610963</v>
       </c>
-      <c r="F8" s="113">
+      <c r="F8" s="34">
         <v>74.542023006203664</v>
       </c>
-      <c r="G8" s="113">
+      <c r="G8" s="34">
         <v>72.267056040835129</v>
       </c>
-      <c r="H8" s="113">
+      <c r="H8" s="34">
         <v>70.397852140534482</v>
       </c>
-      <c r="I8" s="113">
+      <c r="I8" s="34">
         <v>68.817798911161873</v>
       </c>
-      <c r="J8" s="113">
+      <c r="J8" s="34">
         <v>67.453555914037167</v>
       </c>
-      <c r="K8" s="113">
+      <c r="K8" s="34">
         <v>66.25613158841422</v>
       </c>
-      <c r="L8" s="113">
+      <c r="L8" s="34">
         <v>65.191251618189256</v>
       </c>
-      <c r="M8" s="113">
+      <c r="M8" s="34">
         <v>64.234043851350677</v>
       </c>
-      <c r="N8" s="113">
+      <c r="N8" s="34">
         <v>63.36591432350513</v>
       </c>
-      <c r="O8" s="113">
+      <c r="O8" s="34">
         <v>62.57261564496045</v>
       </c>
-      <c r="P8" s="113">
+      <c r="P8" s="34">
         <v>61.843001799070578</v>
       </c>
-      <c r="Q8" s="113">
+      <c r="Q8" s="34">
         <v>61.168196896178983</v>
       </c>
-      <c r="R8" s="113">
+      <c r="R8" s="34">
         <v>60.541023533455977</v>
       </c>
-      <c r="S8" s="113">
+      <c r="S8" s="34">
         <v>59.955599492851945</v>
       </c>
-      <c r="T8" s="113">
+      <c r="T8" s="34">
         <v>59.407046793072084</v>
       </c>
-      <c r="U8" s="113">
+      <c r="U8" s="34">
         <v>58.891277644771172</v>
       </c>
-      <c r="V8" s="113">
+      <c r="V8" s="34">
         <v>58.404834226399458</v>
       </c>
-      <c r="W8" s="113">
+      <c r="W8" s="34">
         <v>57.944766876915835</v>
       </c>
-      <c r="X8" s="113">
+      <c r="X8" s="34">
         <v>57.508540198314904</v>
       </c>
-      <c r="Y8" s="113">
+      <c r="Y8" s="34">
         <v>57.093959759005585</v>
       </c>
-      <c r="Z8" s="113">
+      <c r="Z8" s="34">
         <v>56.699114223034641</v>
       </c>
-      <c r="AA8" s="113">
+      <c r="AA8" s="34">
         <v>56.322329181875475</v>
       </c>
-      <c r="AB8" s="113">
+      <c r="AB8" s="34">
         <v>55.962129970611855</v>
       </c>
-      <c r="AC8" s="113">
+      <c r="AC8" s="34">
         <v>55.617211457471925</v>
       </c>
-      <c r="AD8" s="113">
+      <c r="AD8" s="34">
         <v>55.286413300502147</v>
       </c>
-      <c r="AE8" s="113">
+      <c r="AE8" s="34">
         <v>54.968699530474915</v>
       </c>
-      <c r="AF8" s="113">
+      <c r="AF8" s="34">
         <v>54.663141586768845</v>
       </c>
-      <c r="AG8" s="113">
+      <c r="AG8" s="34">
         <v>54.368904131324392</v>
       </c>
-      <c r="AH8" s="113">
+      <c r="AH8" s="34">
         <v>54.085233114371128</v>
       </c>
-      <c r="AI8" s="113">
+      <c r="AI8" s="34">
         <v>53.81144567804543</v>
       </c>
-      <c r="AJ8" s="113">
+      <c r="AJ8" s="34">
         <v>53.546921569867813</v>
       </c>
-      <c r="AK8" s="113">
+      <c r="AK8" s="34">
         <v>53.291095804175576</v>
       </c>
-      <c r="AL8" s="113">
+      <c r="AL8" s="34">
         <v>53.04345236096021</v>
       </c>
-      <c r="AM8" s="113">
+      <c r="AM8" s="34">
         <v>52.803518751742082</v>
       </c>
-      <c r="AN8" s="113">
+      <c r="AN8" s="34">
         <v>52.570861313787368</v>
       </c>
-      <c r="AO8" s="113">
+      <c r="AO8" s="34">
         <v>52.345081119103305</v>
       </c>
-      <c r="AP8" s="113">
+      <c r="AP8" s="34">
         <v>52.125810404718678</v>
       </c>
-      <c r="AQ8" s="113">
+      <c r="AQ8" s="34">
         <v>51.912709446881955</v>
       </c>
-      <c r="AR8" s="113">
+      <c r="AR8" s="34">
         <v>51.70546381484025</v>
       </c>
-      <c r="AS8" s="113">
+      <c r="AS8" s="34">
         <v>51.503781950449742</v>
       </c>
-      <c r="AT8" s="113">
+      <c r="AT8" s="34">
         <v>51.307393028514312</v>
       </c>
-      <c r="AU8" s="113">
+      <c r="AU8" s="34">
         <v>51.11604505984571</v>
       </c>
-      <c r="AV8" s="113">
+      <c r="AV8" s="34">
         <v>50.929503204889954</v>
       </c>
-      <c r="AW8" s="113">
+      <c r="AW8" s="34">
         <v>50.747548270610785</v>
       </c>
-      <c r="AX8" s="113">
+      <c r="AX8" s="34">
         <v>50.569975367352612</v>
       </c>
-      <c r="AY8" s="113">
+      <c r="AY8" s="34">
         <v>50.396592705771731</v>
       </c>
-      <c r="AZ8" s="113">
+      <c r="AZ8" s="34">
         <v>50.227220516747984</v>
       </c>
       <c r="BA8" s="35">
@@ -14775,157 +15142,157 @@
       <c r="A9" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="113">
+      <c r="B9" s="34">
         <v>140</v>
       </c>
-      <c r="C9" s="113">
+      <c r="C9" s="34">
         <v>113.71533548987296</v>
       </c>
-      <c r="D9" s="113">
+      <c r="D9" s="34">
         <v>100.69123306548103</v>
       </c>
-      <c r="E9" s="113">
+      <c r="E9" s="34">
         <v>92.365553754102621</v>
       </c>
-      <c r="F9" s="113">
+      <c r="F9" s="34">
         <v>86.384740780801337</v>
       </c>
-      <c r="G9" s="113">
+      <c r="G9" s="34">
         <v>81.786695349501173</v>
       </c>
-      <c r="H9" s="113">
+      <c r="H9" s="34">
         <v>78.090575542454445</v>
       </c>
-      <c r="I9" s="113">
+      <c r="I9" s="34">
         <v>75.024142377540514</v>
       </c>
-      <c r="J9" s="113">
+      <c r="J9" s="34">
         <v>72.419460116050118</v>
       </c>
-      <c r="K9" s="113">
+      <c r="K9" s="34">
         <v>70.166212707818104</v>
       </c>
-      <c r="L9" s="113">
+      <c r="L9" s="34">
         <v>68.188357611615999</v>
       </c>
-      <c r="M9" s="113">
+      <c r="M9" s="34">
         <v>66.431439287689713</v>
       </c>
-      <c r="N9" s="113">
+      <c r="N9" s="34">
         <v>64.855233905051406</v>
       </c>
-      <c r="O9" s="113">
+      <c r="O9" s="34">
         <v>63.429257117196265</v>
       </c>
-      <c r="P9" s="113">
+      <c r="P9" s="34">
         <v>62.1299004804345</v>
       </c>
-      <c r="Q9" s="113">
+      <c r="Q9" s="34">
         <v>60.938539430728696</v>
       </c>
-      <c r="R9" s="113">
+      <c r="R9" s="34">
         <v>59.840244490356326</v>
       </c>
-      <c r="S9" s="113">
+      <c r="S9" s="34">
         <v>58.82288002208653</v>
       </c>
-      <c r="T9" s="113">
+      <c r="T9" s="34">
         <v>57.876459420616506</v>
       </c>
-      <c r="U9" s="113">
+      <c r="U9" s="34">
         <v>56.992674415166618</v>
       </c>
-      <c r="V9" s="113">
+      <c r="V9" s="34">
         <v>56.164545301163088</v>
       </c>
-      <c r="W9" s="113">
+      <c r="W9" s="34">
         <v>55.386156873631037</v>
       </c>
-      <c r="X9" s="113">
+      <c r="X9" s="34">
         <v>54.652456201512216</v>
       </c>
-      <c r="Y9" s="113">
+      <c r="Y9" s="34">
         <v>53.959095754819742</v>
       </c>
-      <c r="Z9" s="113">
+      <c r="Z9" s="34">
         <v>53.302310284044609</v>
       </c>
-      <c r="AA9" s="113">
+      <c r="AA9" s="34">
         <v>52.678819155622179</v>
       </c>
-      <c r="AB9" s="113">
+      <c r="AB9" s="34">
         <v>52.085748121582213</v>
       </c>
-      <c r="AC9" s="113">
+      <c r="AC9" s="34">
         <v>51.520566092538473</v>
       </c>
-      <c r="AD9" s="113">
+      <c r="AD9" s="34">
         <v>50.981033612919759</v>
       </c>
-      <c r="AE9" s="113">
+      <c r="AE9" s="34">
         <v>50.465160550607365</v>
       </c>
-      <c r="AF9" s="113">
+      <c r="AF9" s="34">
         <v>49.971171106028024</v>
       </c>
-      <c r="AG9" s="113">
+      <c r="AG9" s="34">
         <v>49.497474683058336</v>
       </c>
-      <c r="AH9" s="113">
+      <c r="AH9" s="34">
         <v>49.042641490168528</v>
       </c>
-      <c r="AI9" s="113">
+      <c r="AI9" s="34">
         <v>48.605381985834953</v>
       </c>
-      <c r="AJ9" s="113">
+      <c r="AJ9" s="34">
         <v>48.184529468989389</v>
       </c>
-      <c r="AK9" s="113">
+      <c r="AK9" s="34">
         <v>47.779025258515126</v>
       </c>
-      <c r="AL9" s="113">
+      <c r="AL9" s="34">
         <v>47.387906016587571</v>
       </c>
-      <c r="AM9" s="113">
+      <c r="AM9" s="34">
         <v>47.010292857010178</v>
       </c>
-      <c r="AN9" s="113">
+      <c r="AN9" s="34">
         <v>46.645381947498691</v>
       </c>
-      <c r="AO9" s="113">
+      <c r="AO9" s="34">
         <v>46.292436368469808</v>
       </c>
-      <c r="AP9" s="113">
+      <c r="AP9" s="34">
         <v>45.950779033544492</v>
       </c>
-      <c r="AQ9" s="113">
+      <c r="AQ9" s="34">
         <v>45.619786511128062</v>
       </c>
-      <c r="AR9" s="113">
+      <c r="AR9" s="34">
         <v>45.298883613931302</v>
       </c>
-      <c r="AS9" s="113">
+      <c r="AS9" s="34">
         <v>44.987538645569209</v>
       </c>
-      <c r="AT9" s="113">
+      <c r="AT9" s="34">
         <v>44.685259211504082</v>
       </c>
-      <c r="AU9" s="113">
+      <c r="AU9" s="34">
         <v>44.391588516432506</v>
       </c>
-      <c r="AV9" s="113">
+      <c r="AV9" s="34">
         <v>44.106102082408995</v>
       </c>
-      <c r="AW9" s="113">
+      <c r="AW9" s="34">
         <v>43.828404832067903</v>
       </c>
-      <c r="AX9" s="113">
+      <c r="AX9" s="34">
         <v>43.558128489655594</v>
       </c>
-      <c r="AY9" s="113">
+      <c r="AY9" s="34">
         <v>43.29492925953884</v>
       </c>
-      <c r="AZ9" s="113">
+      <c r="AZ9" s="34">
         <v>43.038485747670251</v>
       </c>
       <c r="BA9" s="35">
@@ -14937,157 +15304,157 @@
       <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="113">
+      <c r="B10" s="34">
         <v>56</v>
       </c>
-      <c r="C10" s="113">
+      <c r="C10" s="34">
         <v>52.613273955984667</v>
       </c>
-      <c r="D10" s="113">
+      <c r="D10" s="34">
         <v>50.727926868401262</v>
       </c>
-      <c r="E10" s="113">
+      <c r="E10" s="34">
         <v>49.431367792276681</v>
       </c>
-      <c r="F10" s="113">
+      <c r="F10" s="34">
         <v>48.448543628421504</v>
       </c>
-      <c r="G10" s="113">
+      <c r="G10" s="34">
         <v>47.660041313327689</v>
       </c>
-      <c r="H10" s="113">
+      <c r="H10" s="34">
         <v>47.003392376097217</v>
       </c>
-      <c r="I10" s="113">
+      <c r="I10" s="34">
         <v>46.441894565608735</v>
       </c>
-      <c r="J10" s="113">
+      <c r="J10" s="34">
         <v>45.952188649390486</v>
       </c>
-      <c r="K10" s="113">
+      <c r="K10" s="34">
         <v>45.518508905189556</v>
       </c>
-      <c r="L10" s="113">
+      <c r="L10" s="34">
         <v>45.12972481364114</v>
       </c>
-      <c r="M10" s="113">
+      <c r="M10" s="34">
         <v>44.777693042351018</v>
       </c>
-      <c r="N10" s="113">
+      <c r="N10" s="34">
         <v>44.456280633208564</v>
       </c>
-      <c r="O10" s="113">
+      <c r="O10" s="34">
         <v>44.160756427575777</v>
       </c>
-      <c r="P10" s="113">
+      <c r="P10" s="34">
         <v>43.887396036841317</v>
       </c>
-      <c r="Q10" s="113">
+      <c r="Q10" s="34">
         <v>43.633216460987995</v>
       </c>
-      <c r="R10" s="113">
+      <c r="R10" s="34">
         <v>43.395792515969809</v>
       </c>
-      <c r="S10" s="113">
+      <c r="S10" s="34">
         <v>43.173126612276249</v>
       </c>
-      <c r="T10" s="113">
+      <c r="T10" s="34">
         <v>42.963554331341889</v>
       </c>
-      <c r="U10" s="113">
+      <c r="U10" s="34">
         <v>42.765674626726174</v>
       </c>
-      <c r="V10" s="113">
+      <c r="V10" s="34">
         <v>42.578297339668381</v>
       </c>
-      <c r="W10" s="113">
+      <c r="W10" s="34">
         <v>42.400403128183932</v>
       </c>
-      <c r="X10" s="113">
+      <c r="X10" s="34">
         <v>42.231112452332333</v>
       </c>
-      <c r="Y10" s="113">
+      <c r="Y10" s="34">
         <v>42.069661270610752</v>
       </c>
-      <c r="Z10" s="113">
+      <c r="Z10" s="34">
         <v>41.915381780626092</v>
       </c>
-      <c r="AA10" s="113">
+      <c r="AA10" s="34">
         <v>41.767687000341745</v>
       </c>
-      <c r="AB10" s="113">
+      <c r="AB10" s="34">
         <v>41.626058308022486</v>
       </c>
-      <c r="AC10" s="113">
+      <c r="AC10" s="34">
         <v>41.490035286206336</v>
       </c>
-      <c r="AD10" s="113">
+      <c r="AD10" s="34">
         <v>41.359207377779938</v>
       </c>
-      <c r="AE10" s="113">
+      <c r="AE10" s="34">
         <v>41.233206980377282</v>
       </c>
-      <c r="AF10" s="113">
+      <c r="AF10" s="34">
         <v>41.111703692147515</v>
       </c>
-      <c r="AG10" s="113">
+      <c r="AG10" s="34">
         <v>40.994399486477512</v>
       </c>
-      <c r="AH10" s="113">
+      <c r="AH10" s="34">
         <v>40.881024641740389</v>
       </c>
-      <c r="AI10" s="113">
+      <c r="AI10" s="34">
         <v>40.771334288924791</v>
       </c>
-      <c r="AJ10" s="113">
+      <c r="AJ10" s="34">
         <v>40.665105468163581</v>
       </c>
-      <c r="AK10" s="113">
+      <c r="AK10" s="34">
         <v>40.5621346069304</v>
       </c>
-      <c r="AL10" s="113">
+      <c r="AL10" s="34">
         <v>40.462235349604718</v>
       </c>
-      <c r="AM10" s="113">
+      <c r="AM10" s="34">
         <v>40.365236681387891</v>
       </c>
-      <c r="AN10" s="113">
+      <c r="AN10" s="34">
         <v>40.270981300045143</v>
       </c>
-      <c r="AO10" s="113">
+      <c r="AO10" s="34">
         <v>40.179324197293681</v>
       </c>
-      <c r="AP10" s="113">
+      <c r="AP10" s="34">
         <v>40.090131418336199</v>
       </c>
-      <c r="AQ10" s="113">
+      <c r="AQ10" s="34">
         <v>40.003278973416883</v>
       </c>
-      <c r="AR10" s="113">
+      <c r="AR10" s="34">
         <v>39.918651879632165</v>
       </c>
-      <c r="AS10" s="113">
+      <c r="AS10" s="34">
         <v>39.836143314773757</v>
       </c>
-      <c r="AT10" s="113">
+      <c r="AT10" s="34">
         <v>39.755653867883034</v>
       </c>
-      <c r="AU10" s="113">
+      <c r="AU10" s="34">
         <v>39.677090873581363</v>
       </c>
-      <c r="AV10" s="113">
+      <c r="AV10" s="34">
         <v>39.600367819212252</v>
       </c>
-      <c r="AW10" s="113">
+      <c r="AW10" s="34">
         <v>39.525403815466447</v>
       </c>
-      <c r="AX10" s="113">
+      <c r="AX10" s="34">
         <v>39.452123122524185</v>
       </c>
-      <c r="AY10" s="113">
+      <c r="AY10" s="34">
         <v>39.380454724888729</v>
       </c>
-      <c r="AZ10" s="113">
+      <c r="AZ10" s="34">
         <v>39.310331949043416</v>
       </c>
       <c r="BA10" s="35">
@@ -15099,157 +15466,157 @@
       <c r="A11" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="113">
+      <c r="B11" s="34">
         <v>70</v>
       </c>
-      <c r="C11" s="113">
+      <c r="C11" s="34">
         <v>60.517606191550563</v>
       </c>
-      <c r="D11" s="113">
+      <c r="D11" s="34">
         <v>55.577956756392922</v>
       </c>
-      <c r="E11" s="113">
+      <c r="E11" s="34">
         <v>52.319723702222852</v>
       </c>
-      <c r="F11" s="113">
+      <c r="F11" s="34">
         <v>49.924570703576457</v>
       </c>
-      <c r="G11" s="113">
+      <c r="G11" s="34">
         <v>48.049212855920203</v>
       </c>
-      <c r="H11" s="113">
+      <c r="H11" s="34">
         <v>46.518687368204731</v>
       </c>
-      <c r="I11" s="113">
+      <c r="I11" s="34">
         <v>45.232349072312232</v>
       </c>
-      <c r="J11" s="113">
+      <c r="J11" s="34">
         <v>44.127275388792604</v>
       </c>
-      <c r="K11" s="113">
+      <c r="K11" s="34">
         <v>43.161650130303755</v>
       </c>
-      <c r="L11" s="113">
+      <c r="L11" s="34">
         <v>42.306351767253425</v>
       </c>
-      <c r="M11" s="113">
+      <c r="M11" s="34">
         <v>41.540333448979538</v>
       </c>
-      <c r="N11" s="113">
+      <c r="N11" s="34">
         <v>40.847918977390528</v>
       </c>
-      <c r="O11" s="113">
+      <c r="O11" s="34">
         <v>40.217137181383883</v>
       </c>
-      <c r="P11" s="113">
+      <c r="P11" s="34">
         <v>39.638651880640772</v>
       </c>
-      <c r="Q11" s="113">
+      <c r="Q11" s="34">
         <v>39.105049832527698</v>
       </c>
-      <c r="R11" s="113">
+      <c r="R11" s="34">
         <v>38.610352492430636</v>
       </c>
-      <c r="S11" s="113">
+      <c r="S11" s="34">
         <v>38.149672489786461</v>
       </c>
-      <c r="T11" s="113">
+      <c r="T11" s="34">
         <v>37.718966435583724</v>
       </c>
-      <c r="U11" s="113">
+      <c r="U11" s="34">
         <v>37.314853502331573</v>
       </c>
-      <c r="V11" s="113">
+      <c r="V11" s="34">
         <v>36.934479927346352</v>
       </c>
-      <c r="W11" s="113">
+      <c r="W11" s="34">
         <v>36.575416223597891</v>
       </c>
-      <c r="X11" s="113">
+      <c r="X11" s="34">
         <v>36.235578102982899</v>
       </c>
-      <c r="Y11" s="113">
+      <c r="Y11" s="34">
         <v>35.913164867586268</v>
       </c>
-      <c r="Z11" s="113">
+      <c r="Z11" s="34">
         <v>35.606610856234362</v>
       </c>
-      <c r="AA11" s="113">
+      <c r="AA11" s="34">
         <v>35.314546777401212</v>
       </c>
-      <c r="AB11" s="113">
+      <c r="AB11" s="34">
         <v>35.035768619082248</v>
       </c>
-      <c r="AC11" s="113">
+      <c r="AC11" s="34">
         <v>34.76921242992222</v>
       </c>
-      <c r="AD11" s="113">
+      <c r="AD11" s="34">
         <v>34.513933696143681</v>
       </c>
-      <c r="AE11" s="113">
+      <c r="AE11" s="34">
         <v>34.269090349665476</v>
       </c>
-      <c r="AF11" s="113">
+      <c r="AF11" s="34">
         <v>34.033928670196069</v>
       </c>
-      <c r="AG11" s="113">
+      <c r="AG11" s="34">
         <v>33.807771512369591</v>
       </c>
-      <c r="AH11" s="113">
+      <c r="AH11" s="34">
         <v>33.590008414873687</v>
       </c>
-      <c r="AI11" s="113">
+      <c r="AI11" s="34">
         <v>33.380087243626704</v>
       </c>
-      <c r="AJ11" s="113">
+      <c r="AJ11" s="34">
         <v>33.177507093592951</v>
       </c>
-      <c r="AK11" s="113">
+      <c r="AK11" s="34">
         <v>32.981812229621823</v>
       </c>
-      <c r="AL11" s="113">
+      <c r="AL11" s="34">
         <v>32.792586889973059</v>
       </c>
-      <c r="AM11" s="113">
+      <c r="AM11" s="34">
         <v>32.609450810013847</v>
       </c>
-      <c r="AN11" s="113">
+      <c r="AN11" s="34">
         <v>32.432055350200763</v>
       </c>
-      <c r="AO11" s="113">
+      <c r="AO11" s="34">
         <v>32.26008013356433</v>
       </c>
-      <c r="AP11" s="113">
+      <c r="AP11" s="34">
         <v>32.093230114750334</v>
       </c>
-      <c r="AQ11" s="113">
+      <c r="AQ11" s="34">
         <v>31.931233016183935</v>
       </c>
-      <c r="AR11" s="113">
+      <c r="AR11" s="34">
         <v>31.773837077830798</v>
       </c>
-      <c r="AS11" s="113">
+      <c r="AS11" s="34">
         <v>31.620809075882097</v>
       </c>
-      <c r="AT11" s="113">
+      <c r="AT11" s="34">
         <v>31.471932572913797</v>
       </c>
-      <c r="AU11" s="113">
+      <c r="AU11" s="34">
         <v>31.327006367992745</v>
       </c>
-      <c r="AV11" s="113">
+      <c r="AV11" s="34">
         <v>31.185843120080861</v>
       </c>
-      <c r="AW11" s="113">
+      <c r="AW11" s="34">
         <v>31.048268122125929</v>
       </c>
-      <c r="AX11" s="113">
+      <c r="AX11" s="34">
         <v>30.91411820658244</v>
       </c>
-      <c r="AY11" s="113">
+      <c r="AY11" s="34">
         <v>30.783240765905425</v>
       </c>
-      <c r="AZ11" s="113">
+      <c r="AZ11" s="34">
         <v>30.655492873905679</v>
       </c>
       <c r="BA11" s="35">
@@ -15261,157 +15628,157 @@
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="113">
+      <c r="B12" s="34">
         <v>84</v>
       </c>
-      <c r="C12" s="113">
+      <c r="C12" s="34">
         <v>73.126247316874441</v>
       </c>
-      <c r="D12" s="113">
+      <c r="D12" s="34">
         <v>67.430291187859368</v>
       </c>
-      <c r="E12" s="113">
+      <c r="E12" s="34">
         <v>63.660095793436724</v>
       </c>
-      <c r="F12" s="113">
+      <c r="F12" s="34">
         <v>60.881491748926429</v>
       </c>
-      <c r="G12" s="113">
+      <c r="G12" s="34">
         <v>58.701477976812654</v>
       </c>
-      <c r="H12" s="113">
+      <c r="H12" s="34">
         <v>56.9193167256404</v>
       </c>
-      <c r="I12" s="113">
+      <c r="I12" s="34">
         <v>55.419332252461565</v>
       </c>
-      <c r="J12" s="113">
+      <c r="J12" s="34">
         <v>54.129097258089359</v>
       </c>
-      <c r="K12" s="113">
+      <c r="K12" s="34">
         <v>53.000416936336229</v>
       </c>
-      <c r="L12" s="113">
+      <c r="L12" s="34">
         <v>51.999689337443023</v>
       </c>
-      <c r="M12" s="113">
+      <c r="M12" s="34">
         <v>51.10260471902928</v>
       </c>
-      <c r="N12" s="113">
+      <c r="N12" s="34">
         <v>50.291039865485807</v>
       </c>
-      <c r="O12" s="113">
+      <c r="O12" s="34">
         <v>49.551143237936756</v>
       </c>
-      <c r="P12" s="113">
+      <c r="P12" s="34">
         <v>48.872103768825795</v>
       </c>
-      <c r="Q12" s="113">
+      <c r="Q12" s="34">
         <v>48.245330909875477</v>
       </c>
-      <c r="R12" s="113">
+      <c r="R12" s="34">
         <v>47.66389199641273</v>
       </c>
-      <c r="S12" s="113">
+      <c r="S12" s="34">
         <v>47.122116108740386</v>
       </c>
-      <c r="T12" s="113">
+      <c r="T12" s="34">
         <v>46.615308837581765</v>
       </c>
-      <c r="U12" s="113">
+      <c r="U12" s="34">
         <v>46.139542818856953</v>
       </c>
-      <c r="V12" s="113">
+      <c r="V12" s="34">
         <v>45.691501202665798</v>
       </c>
-      <c r="W12" s="113">
+      <c r="W12" s="34">
         <v>45.268358843934486</v>
       </c>
-      <c r="X12" s="113">
+      <c r="X12" s="34">
         <v>44.867690854914393</v>
       </c>
-      <c r="Y12" s="113">
+      <c r="Y12" s="34">
         <v>44.487401324050111</v>
       </c>
-      <c r="Z12" s="113">
+      <c r="Z12" s="34">
         <v>44.12566711398329</v>
       </c>
-      <c r="AA12" s="113">
+      <c r="AA12" s="34">
         <v>43.780893083646518</v>
       </c>
-      <c r="AB12" s="113">
+      <c r="AB12" s="34">
         <v>43.451676069630075</v>
       </c>
-      <c r="AC12" s="113">
+      <c r="AC12" s="34">
         <v>43.136775657752764</v>
       </c>
-      <c r="AD12" s="113">
+      <c r="AD12" s="34">
         <v>42.835090271859663</v>
       </c>
-      <c r="AE12" s="113">
+      <c r="AE12" s="34">
         <v>42.545637465417933</v>
       </c>
-      <c r="AF12" s="113">
+      <c r="AF12" s="34">
         <v>42.267537563875166</v>
       </c>
-      <c r="AG12" s="113">
+      <c r="AG12" s="34">
         <v>42</v>
       </c>
-      <c r="AH12" s="113">
+      <c r="AH12" s="34">
         <v>41.742311829785834</v>
       </c>
-      <c r="AI12" s="113">
+      <c r="AI12" s="34">
         <v>41.493828026362721</v>
       </c>
-      <c r="AJ12" s="113">
+      <c r="AJ12" s="34">
         <v>41.25396323317387</v>
       </c>
-      <c r="AK12" s="113">
+      <c r="AK12" s="34">
         <v>41.022184722169307</v>
       </c>
-      <c r="AL12" s="113">
+      <c r="AL12" s="34">
         <v>40.79800635280786</v>
       </c>
-      <c r="AM12" s="113">
+      <c r="AM12" s="34">
         <v>40.580983366779598</v>
       </c>
-      <c r="AN12" s="113">
+      <c r="AN12" s="34">
         <v>40.370707884166102</v>
       </c>
-      <c r="AO12" s="113">
+      <c r="AO12" s="34">
         <v>40.166804991181557</v>
       </c>
-      <c r="AP12" s="113">
+      <c r="AP12" s="34">
         <v>39.968929329125636</v>
       </c>
-      <c r="AQ12" s="113">
+      <c r="AQ12" s="34">
         <v>39.776762109826237</v>
       </c>
-      <c r="AR12" s="113">
+      <c r="AR12" s="34">
         <v>39.590008495482891</v>
       </c>
-      <c r="AS12" s="113">
+      <c r="AS12" s="34">
         <v>39.408395291078257</v>
       </c>
-      <c r="AT12" s="113">
+      <c r="AT12" s="34">
         <v>39.231668905895276</v>
       </c>
-      <c r="AU12" s="113">
+      <c r="AU12" s="34">
         <v>39.059593547542079</v>
       </c>
-      <c r="AV12" s="113">
+      <c r="AV12" s="34">
         <v>38.891949617542565</v>
       </c>
-      <c r="AW12" s="113">
+      <c r="AW12" s="34">
         <v>38.728532282232564</v>
       </c>
-      <c r="AX12" s="113">
+      <c r="AX12" s="34">
         <v>38.569150196592467</v>
       </c>
-      <c r="AY12" s="113">
+      <c r="AY12" s="34">
         <v>38.413624361895408</v>
       </c>
-      <c r="AZ12" s="113">
+      <c r="AZ12" s="34">
         <v>38.261787100771315</v>
       </c>
       <c r="BA12" s="35">
@@ -15423,157 +15790,157 @@
       <c r="A13" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="113">
+      <c r="B13" s="34">
         <v>24.5</v>
       </c>
-      <c r="C13" s="113">
+      <c r="C13" s="34">
         <v>23.830046211600994</v>
       </c>
-      <c r="D13" s="113">
+      <c r="D13" s="34">
         <v>23.44667341054398</v>
       </c>
-      <c r="E13" s="113">
+      <c r="E13" s="34">
         <v>23.178412344777101</v>
       </c>
-      <c r="F13" s="113">
+      <c r="F13" s="34">
         <v>22.972448373049378</v>
       </c>
-      <c r="G13" s="113">
+      <c r="G13" s="34">
         <v>22.805522893125691</v>
       </c>
-      <c r="H13" s="113">
+      <c r="H13" s="34">
         <v>22.665336060880964</v>
       </c>
-      <c r="I13" s="113">
+      <c r="I13" s="34">
         <v>22.544597440309442</v>
       </c>
-      <c r="J13" s="113">
+      <c r="J13" s="34">
         <v>22.438632409008573</v>
       </c>
-      <c r="K13" s="113">
+      <c r="K13" s="34">
         <v>22.344265564219786</v>
       </c>
-      <c r="L13" s="113">
+      <c r="L13" s="34">
         <v>22.259242300111225</v>
       </c>
-      <c r="M13" s="113">
+      <c r="M13" s="34">
         <v>22.18190467032284</v>
       </c>
-      <c r="N13" s="113">
+      <c r="N13" s="34">
         <v>22.110998253279732</v>
       </c>
-      <c r="O13" s="113">
+      <c r="O13" s="34">
         <v>22.045551254377951</v>
       </c>
-      <c r="P13" s="113">
+      <c r="P13" s="34">
         <v>21.984795691570252</v>
       </c>
-      <c r="Q13" s="113">
+      <c r="Q13" s="34">
         <v>21.928114237735322</v>
       </c>
-      <c r="R13" s="113">
+      <c r="R13" s="34">
         <v>21.875003315041759</v>
       </c>
-      <c r="S13" s="113">
+      <c r="S13" s="34">
         <v>21.825046825787844</v>
       </c>
-      <c r="T13" s="113">
+      <c r="T13" s="34">
         <v>21.777897043880607</v>
       </c>
-      <c r="U13" s="113">
+      <c r="U13" s="34">
         <v>21.733260447332345</v>
       </c>
-      <c r="V13" s="113">
+      <c r="V13" s="34">
         <v>21.690887035089848</v>
       </c>
-      <c r="W13" s="113">
+      <c r="W13" s="34">
         <v>21.650562148852</v>
       </c>
-      <c r="X13" s="113">
+      <c r="X13" s="34">
         <v>21.612100127151752</v>
       </c>
-      <c r="Y13" s="113">
+      <c r="Y13" s="34">
         <v>21.575339320617193</v>
       </c>
-      <c r="Z13" s="113">
+      <c r="Z13" s="34">
         <v>21.540138132751803</v>
       </c>
-      <c r="AA13" s="113">
+      <c r="AA13" s="34">
         <v>21.506371843276938</v>
       </c>
-      <c r="AB13" s="113">
+      <c r="AB13" s="34">
         <v>21.473930035643747</v>
       </c>
-      <c r="AC13" s="113">
+      <c r="AC13" s="34">
         <v>21.44271449600183</v>
       </c>
-      <c r="AD13" s="113">
+      <c r="AD13" s="34">
         <v>21.412637483701189</v>
       </c>
-      <c r="AE13" s="113">
+      <c r="AE13" s="34">
         <v>21.383620297254108</v>
       </c>
-      <c r="AF13" s="113">
+      <c r="AF13" s="34">
         <v>21.355592077245049</v>
       </c>
-      <c r="AG13" s="113">
+      <c r="AG13" s="34">
         <v>21.328488800755039</v>
       </c>
-      <c r="AH13" s="113">
+      <c r="AH13" s="34">
         <v>21.302252431709132</v>
       </c>
-      <c r="AI13" s="113">
+      <c r="AI13" s="34">
         <v>21.276830199035512</v>
       </c>
-      <c r="AJ13" s="113">
+      <c r="AJ13" s="34">
         <v>21.252173980261318</v>
       </c>
-      <c r="AK13" s="113">
+      <c r="AK13" s="34">
         <v>21.228239772607342</v>
       </c>
-      <c r="AL13" s="113">
+      <c r="AL13" s="34">
         <v>21.204987237103634</v>
       </c>
-      <c r="AM13" s="113">
+      <c r="AM13" s="34">
         <v>21.18237930396586</v>
       </c>
-      <c r="AN13" s="113">
+      <c r="AN13" s="34">
         <v>21.160381829622793</v>
       </c>
-      <c r="AO13" s="113">
+      <c r="AO13" s="34">
         <v>21.138963297497543</v>
       </c>
-      <c r="AP13" s="113">
+      <c r="AP13" s="34">
         <v>21.118094556018391</v>
       </c>
-      <c r="AQ13" s="113">
+      <c r="AQ13" s="34">
         <v>21.097748588441142</v>
       </c>
-      <c r="AR13" s="113">
+      <c r="AR13" s="34">
         <v>21.077900309962892</v>
       </c>
-      <c r="AS13" s="113">
+      <c r="AS13" s="34">
         <v>21.058526388338066</v>
       </c>
-      <c r="AT13" s="113">
+      <c r="AT13" s="34">
         <v>21.039605084807437</v>
       </c>
-      <c r="AU13" s="113">
+      <c r="AU13" s="34">
         <v>21.021116112643838</v>
       </c>
-      <c r="AV13" s="113">
+      <c r="AV13" s="34">
         <v>21.003040511026811</v>
       </c>
-      <c r="AW13" s="113">
+      <c r="AW13" s="34">
         <v>20.985360532297133</v>
       </c>
-      <c r="AX13" s="113">
+      <c r="AX13" s="34">
         <v>20.968059540925346</v>
       </c>
-      <c r="AY13" s="113">
+      <c r="AY13" s="34">
         <v>20.951121922765068</v>
       </c>
-      <c r="AZ13" s="113">
+      <c r="AZ13" s="34">
         <v>20.934533003361267</v>
       </c>
       <c r="BA13" s="35">
@@ -15585,157 +15952,157 @@
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="113">
+      <c r="B14" s="34">
         <v>30.8</v>
       </c>
-      <c r="C14" s="113">
+      <c r="C14" s="34">
         <v>29.138575519148358</v>
       </c>
-      <c r="D14" s="113">
+      <c r="D14" s="34">
         <v>28.20856645703935</v>
       </c>
-      <c r="E14" s="113">
+      <c r="E14" s="34">
         <v>27.566772184581549</v>
       </c>
-      <c r="F14" s="113">
+      <c r="F14" s="34">
         <v>27.079030795459406</v>
       </c>
-      <c r="G14" s="113">
+      <c r="G14" s="34">
         <v>26.686929999849234</v>
       </c>
-      <c r="H14" s="113">
+      <c r="H14" s="34">
         <v>26.359846280020435</v>
       </c>
-      <c r="I14" s="113">
+      <c r="I14" s="34">
         <v>26.079755620765837</v>
       </c>
-      <c r="J14" s="113">
+      <c r="J14" s="34">
         <v>25.835169531207978</v>
       </c>
-      <c r="K14" s="113">
+      <c r="K14" s="34">
         <v>25.618324149962266</v>
       </c>
-      <c r="L14" s="113">
+      <c r="L14" s="34">
         <v>25.423731990790294</v>
       </c>
-      <c r="M14" s="113">
+      <c r="M14" s="34">
         <v>25.247374193988069</v>
       </c>
-      <c r="N14" s="113">
+      <c r="N14" s="34">
         <v>25.086221253979872</v>
       </c>
-      <c r="O14" s="113">
+      <c r="O14" s="34">
         <v>24.937934139724586</v>
       </c>
-      <c r="P14" s="113">
+      <c r="P14" s="34">
         <v>24.800670122919865</v>
       </c>
-      <c r="Q14" s="113">
+      <c r="Q14" s="34">
         <v>24.672952229760362</v>
       </c>
-      <c r="R14" s="113">
+      <c r="R14" s="34">
         <v>24.553578870502466</v>
       </c>
-      <c r="S14" s="113">
+      <c r="S14" s="34">
         <v>24.441559689451434</v>
       </c>
-      <c r="T14" s="113">
+      <c r="T14" s="34">
         <v>24.336069020139952</v>
       </c>
-      <c r="U14" s="113">
+      <c r="U14" s="34">
         <v>24.236411458366806</v>
       </c>
-      <c r="V14" s="113">
+      <c r="V14" s="34">
         <v>24.141995960626556</v>
       </c>
-      <c r="W14" s="113">
+      <c r="W14" s="34">
         <v>24.052316058189312</v>
       </c>
-      <c r="X14" s="113">
+      <c r="X14" s="34">
         <v>23.966934535120057</v>
       </c>
-      <c r="Y14" s="113">
+      <c r="Y14" s="34">
         <v>23.885471415964894</v>
       </c>
-      <c r="Z14" s="113">
+      <c r="Z14" s="34">
         <v>23.807594442254508</v>
       </c>
-      <c r="AA14" s="113">
+      <c r="AA14" s="34">
         <v>23.733011444777823</v>
       </c>
-      <c r="AB14" s="113">
+      <c r="AB14" s="34">
         <v>23.661464176946701</v>
       </c>
-      <c r="AC14" s="113">
+      <c r="AC14" s="34">
         <v>23.592723286425738</v>
       </c>
-      <c r="AD14" s="113">
+      <c r="AD14" s="34">
         <v>23.526584182355492</v>
       </c>
-      <c r="AE14" s="113">
+      <c r="AE14" s="34">
         <v>23.462863613707363</v>
       </c>
-      <c r="AF14" s="113">
+      <c r="AF14" s="34">
         <v>23.401396817103706</v>
       </c>
-      <c r="AG14" s="113">
+      <c r="AG14" s="34">
         <v>23.342035124260132</v>
       </c>
-      <c r="AH14" s="113">
+      <c r="AH14" s="34">
         <v>23.284643943122255</v>
       </c>
-      <c r="AI14" s="113">
+      <c r="AI14" s="34">
         <v>23.229101044918881</v>
       </c>
-      <c r="AJ14" s="113">
+      <c r="AJ14" s="34">
         <v>23.17529510325485</v>
       </c>
-      <c r="AK14" s="113">
+      <c r="AK14" s="34">
         <v>23.12312444210561</v>
       </c>
-      <c r="AL14" s="113">
+      <c r="AL14" s="34">
         <v>23.072495957938219</v>
       </c>
-      <c r="AM14" s="113">
+      <c r="AM14" s="34">
         <v>23.023324187745274</v>
       </c>
-      <c r="AN14" s="113">
+      <c r="AN14" s="34">
         <v>22.975530499963771</v>
       </c>
-      <c r="AO14" s="113">
+      <c r="AO14" s="34">
         <v>22.92904238937577</v>
       </c>
-      <c r="AP14" s="113">
+      <c r="AP14" s="34">
         <v>22.883792860390752</v>
       </c>
-      <c r="AQ14" s="113">
+      <c r="AQ14" s="34">
         <v>22.839719885769203</v>
       </c>
-      <c r="AR14" s="113">
+      <c r="AR14" s="34">
         <v>22.796765930001499</v>
       </c>
-      <c r="AS14" s="113">
+      <c r="AS14" s="34">
         <v>22.754877528310846</v>
       </c>
-      <c r="AT14" s="113">
+      <c r="AT14" s="34">
         <v>22.714004913684917</v>
       </c>
-      <c r="AU14" s="113">
+      <c r="AU14" s="34">
         <v>22.674101685522096</v>
       </c>
-      <c r="AV14" s="113">
+      <c r="AV14" s="34">
         <v>22.635124514454418</v>
       </c>
-      <c r="AW14" s="113">
+      <c r="AW14" s="34">
         <v>22.597032878719233</v>
       </c>
-      <c r="AX14" s="113">
+      <c r="AX14" s="34">
         <v>22.559788828126852</v>
       </c>
-      <c r="AY14" s="113">
+      <c r="AY14" s="34">
         <v>22.523356772236678</v>
       </c>
-      <c r="AZ14" s="113">
+      <c r="AZ14" s="34">
         <v>22.487703289828765</v>
       </c>
       <c r="BA14" s="35">
@@ -15747,157 +16114,157 @@
       <c r="A15" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="113">
+      <c r="B15" s="34">
         <v>22.400000000000002</v>
       </c>
-      <c r="C15" s="113">
+      <c r="C15" s="34">
         <v>21.939014665947159</v>
       </c>
-      <c r="D15" s="113">
+      <c r="D15" s="34">
         <v>21.673766023933918</v>
       </c>
-      <c r="E15" s="113">
+      <c r="E15" s="34">
         <v>21.487516272885923</v>
       </c>
-      <c r="F15" s="113">
+      <c r="F15" s="34">
         <v>21.344152647599405</v>
       </c>
-      <c r="G15" s="113">
+      <c r="G15" s="34">
         <v>21.227726368990783</v>
       </c>
-      <c r="H15" s="113">
+      <c r="H15" s="34">
         <v>21.129784956042016</v>
       </c>
-      <c r="I15" s="113">
+      <c r="I15" s="34">
         <v>21.04530958239387</v>
       </c>
-      <c r="J15" s="113">
+      <c r="J15" s="34">
         <v>20.971077395546082</v>
       </c>
-      <c r="K15" s="113">
+      <c r="K15" s="34">
         <v>20.904896337852598</v>
       </c>
-      <c r="L15" s="113">
+      <c r="L15" s="34">
         <v>20.845208228921614</v>
       </c>
-      <c r="M15" s="113">
+      <c r="M15" s="34">
         <v>20.790866077410808</v>
       </c>
-      <c r="N15" s="113">
+      <c r="N15" s="34">
         <v>20.741001254631563</v>
       </c>
-      <c r="O15" s="113">
+      <c r="O15" s="34">
         <v>20.69494026959444</v>
       </c>
-      <c r="P15" s="113">
+      <c r="P15" s="34">
         <v>20.652150467107106</v>
       </c>
-      <c r="Q15" s="113">
+      <c r="Q15" s="34">
         <v>20.612203373997204</v>
       </c>
-      <c r="R15" s="113">
+      <c r="R15" s="34">
         <v>20.574749232937965</v>
       </c>
-      <c r="S15" s="113">
+      <c r="S15" s="34">
         <v>20.539498863464221</v>
       </c>
-      <c r="T15" s="113">
+      <c r="T15" s="34">
         <v>20.506210459040503</v>
       </c>
-      <c r="U15" s="113">
+      <c r="U15" s="34">
         <v>20.474679792243453</v>
       </c>
-      <c r="V15" s="113">
+      <c r="V15" s="34">
         <v>20.444732824700605</v>
       </c>
-      <c r="W15" s="113">
+      <c r="W15" s="34">
         <v>20.41622004683186</v>
       </c>
-      <c r="X15" s="113">
+      <c r="X15" s="34">
         <v>20.389012083509414</v>
       </c>
-      <c r="Y15" s="113">
+      <c r="Y15" s="34">
         <v>20.362996240627634</v>
       </c>
-      <c r="Z15" s="113">
+      <c r="Z15" s="34">
         <v>20.338073760893952</v>
       </c>
-      <c r="AA15" s="113">
+      <c r="AA15" s="34">
         <v>20.314157621062066</v>
       </c>
-      <c r="AB15" s="113">
+      <c r="AB15" s="34">
         <v>20.291170747360507</v>
       </c>
-      <c r="AC15" s="113">
+      <c r="AC15" s="34">
         <v>20.269044557389865</v>
       </c>
-      <c r="AD15" s="113">
+      <c r="AD15" s="34">
         <v>20.24771775939687</v>
       </c>
-      <c r="AE15" s="113">
+      <c r="AE15" s="34">
         <v>20.227135356304029</v>
       </c>
-      <c r="AF15" s="113">
+      <c r="AF15" s="34">
         <v>20.207247814006049</v>
       </c>
-      <c r="AG15" s="113">
+      <c r="AG15" s="34">
         <v>20.188010362482597</v>
       </c>
-      <c r="AH15" s="113">
+      <c r="AH15" s="34">
         <v>20.169382405081652</v>
       </c>
-      <c r="AI15" s="113">
+      <c r="AI15" s="34">
         <v>20.151327016500499</v>
       </c>
-      <c r="AJ15" s="113">
+      <c r="AJ15" s="34">
         <v>20.133810513960277</v>
       </c>
-      <c r="AK15" s="113">
+      <c r="AK15" s="34">
         <v>20.116802089140478</v>
       </c>
-      <c r="AL15" s="113">
+      <c r="AL15" s="34">
         <v>20.100273490835022</v>
       </c>
-      <c r="AM15" s="113">
+      <c r="AM15" s="34">
         <v>20.084198750173602</v>
       </c>
-      <c r="AN15" s="113">
+      <c r="AN15" s="34">
         <v>20.068553941741261</v>
       </c>
-      <c r="AO15" s="113">
+      <c r="AO15" s="34">
         <v>20.053316975116118</v>
       </c>
-      <c r="AP15" s="113">
+      <c r="AP15" s="34">
         <v>20.038467412296157</v>
       </c>
-      <c r="AQ15" s="113">
+      <c r="AQ15" s="34">
         <v>20.023986307253477</v>
       </c>
-      <c r="AR15" s="113">
+      <c r="AR15" s="34">
         <v>20.00985606447653</v>
       </c>
-      <c r="AS15" s="113">
+      <c r="AS15" s="34">
         <v>19.996060313868242</v>
       </c>
-      <c r="AT15" s="113">
+      <c r="AT15" s="34">
         <v>19.982583799783793</v>
       </c>
-      <c r="AU15" s="113">
+      <c r="AU15" s="34">
         <v>19.969412282334236</v>
       </c>
-      <c r="AV15" s="113">
+      <c r="AV15" s="34">
         <v>19.956532449365408</v>
       </c>
-      <c r="AW15" s="113">
+      <c r="AW15" s="34">
         <v>19.943931837756995</v>
       </c>
-      <c r="AX15" s="113">
+      <c r="AX15" s="34">
         <v>19.931598762883016</v>
       </c>
-      <c r="AY15" s="113">
+      <c r="AY15" s="34">
         <v>19.919522255239624</v>
       </c>
-      <c r="AZ15" s="113">
+      <c r="AZ15" s="34">
         <v>19.907692003384433</v>
       </c>
       <c r="BA15" s="35">
@@ -15909,157 +16276,157 @@
       <c r="A16" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="113">
+      <c r="B16" s="34">
         <v>44.800000000000004</v>
       </c>
-      <c r="C16" s="113">
+      <c r="C16" s="34">
         <v>40.939648970277148</v>
       </c>
-      <c r="D16" s="113">
+      <c r="D16" s="34">
         <v>38.837588051505755</v>
       </c>
-      <c r="E16" s="113">
+      <c r="E16" s="34">
         <v>37.411938790390955</v>
       </c>
-      <c r="F16" s="113">
+      <c r="F16" s="34">
         <v>36.342258522558147</v>
       </c>
-      <c r="G16" s="113">
+      <c r="G16" s="34">
         <v>35.491009412519531</v>
       </c>
-      <c r="H16" s="113">
+      <c r="H16" s="34">
         <v>34.786863157736931</v>
       </c>
-      <c r="I16" s="113">
+      <c r="I16" s="34">
         <v>34.188206280716528</v>
       </c>
-      <c r="J16" s="113">
+      <c r="J16" s="34">
         <v>33.66871084059067</v>
       </c>
-      <c r="K16" s="113">
+      <c r="K16" s="34">
         <v>33.210698810281102</v>
       </c>
-      <c r="L16" s="113">
+      <c r="L16" s="34">
         <v>32.801746271483424</v>
       </c>
-      <c r="M16" s="113">
+      <c r="M16" s="34">
         <v>32.432800601548031</v>
       </c>
-      <c r="N16" s="113">
+      <c r="N16" s="34">
         <v>32.09706917316533</v>
       </c>
-      <c r="O16" s="113">
+      <c r="O16" s="34">
         <v>31.789329608366447</v>
       </c>
-      <c r="P16" s="113">
+      <c r="P16" s="34">
         <v>31.505483601795479</v>
       </c>
-      <c r="Q16" s="113">
+      <c r="Q16" s="34">
         <v>31.24225812624908</v>
       </c>
-      <c r="R16" s="113">
+      <c r="R16" s="34">
         <v>30.996999351696449</v>
       </c>
-      <c r="S16" s="113">
+      <c r="S16" s="34">
         <v>30.767526854811315</v>
       </c>
-      <c r="T16" s="113">
+      <c r="T16" s="34">
         <v>30.552028175253362</v>
       </c>
-      <c r="U16" s="113">
+      <c r="U16" s="34">
         <v>30.348981056931009</v>
       </c>
-      <c r="V16" s="113">
+      <c r="V16" s="34">
         <v>30.157095109917172</v>
       </c>
-      <c r="W16" s="113">
+      <c r="W16" s="34">
         <v>29.975267365326538</v>
       </c>
-      <c r="X16" s="113">
+      <c r="X16" s="34">
         <v>29.802547944516306</v>
       </c>
-      <c r="Y16" s="113">
+      <c r="Y16" s="34">
         <v>29.638113208713616</v>
       </c>
-      <c r="Z16" s="113">
+      <c r="Z16" s="34">
         <v>29.481244520545768</v>
       </c>
-      <c r="AA16" s="113">
+      <c r="AA16" s="34">
         <v>29.331311270627062</v>
       </c>
-      <c r="AB16" s="113">
+      <c r="AB16" s="34">
         <v>29.187757184199242</v>
       </c>
-      <c r="AC16" s="113">
+      <c r="AC16" s="34">
         <v>29.050089177833929</v>
       </c>
-      <c r="AD16" s="113">
+      <c r="AD16" s="34">
         <v>28.917868218567229</v>
       </c>
-      <c r="AE16" s="113">
+      <c r="AE16" s="34">
         <v>28.79070177000736</v>
       </c>
-      <c r="AF16" s="113">
+      <c r="AF16" s="34">
         <v>28.668237506941111</v>
       </c>
-      <c r="AG16" s="113">
+      <c r="AG16" s="34">
         <v>28.55015805195147</v>
       </c>
-      <c r="AH16" s="113">
+      <c r="AH16" s="34">
         <v>28.436176541560002</v>
       </c>
-      <c r="AI16" s="113">
+      <c r="AI16" s="34">
         <v>28.32603287032055</v>
       </c>
-      <c r="AJ16" s="113">
+      <c r="AJ16" s="34">
         <v>28.219490492574312</v>
       </c>
-      <c r="AK16" s="113">
+      <c r="AK16" s="34">
         <v>28.116333685704248</v>
       </c>
-      <c r="AL16" s="113">
+      <c r="AL16" s="34">
         <v>28.016365197487396</v>
       </c>
-      <c r="AM16" s="113">
+      <c r="AM16" s="34">
         <v>27.91940421484129</v>
       </c>
-      <c r="AN16" s="113">
+      <c r="AN16" s="34">
         <v>27.825284602858915</v>
       </c>
-      <c r="AO16" s="113">
+      <c r="AO16" s="34">
         <v>27.733853372239871</v>
       </c>
-      <c r="AP16" s="113">
+      <c r="AP16" s="34">
         <v>27.64496934059191</v>
       </c>
-      <c r="AQ16" s="113">
+      <c r="AQ16" s="34">
         <v>27.558501959001575</v>
       </c>
-      <c r="AR16" s="113">
+      <c r="AR16" s="34">
         <v>27.474330280065281</v>
       </c>
-      <c r="AS16" s="113">
+      <c r="AS16" s="34">
         <v>27.392342047470372</v>
       </c>
-      <c r="AT16" s="113">
+      <c r="AT16" s="34">
         <v>27.312432890401837</v>
       </c>
-      <c r="AU16" s="113">
+      <c r="AU16" s="34">
         <v>27.234505608668574</v>
       </c>
-      <c r="AV16" s="113">
+      <c r="AV16" s="34">
         <v>27.158469536603342</v>
       </c>
-      <c r="AW16" s="113">
+      <c r="AW16" s="34">
         <v>27.084239975581909</v>
       </c>
-      <c r="AX16" s="113">
+      <c r="AX16" s="34">
         <v>27.011737686498105</v>
       </c>
-      <c r="AY16" s="113">
+      <c r="AY16" s="34">
         <v>26.940888434777907</v>
       </c>
-      <c r="AZ16" s="113">
+      <c r="AZ16" s="34">
         <v>26.871622581561994</v>
       </c>
       <c r="BA16" s="35">
@@ -16233,157 +16600,157 @@
       <c r="A18" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="114">
+      <c r="B18" s="7">
         <v>0</v>
       </c>
-      <c r="C18" s="114">
+      <c r="C18" s="7">
         <v>630</v>
       </c>
-      <c r="D18" s="114">
+      <c r="D18" s="7">
         <v>700</v>
       </c>
-      <c r="E18" s="114">
+      <c r="E18" s="7">
         <v>700</v>
       </c>
-      <c r="F18" s="114">
+      <c r="F18" s="7">
         <v>700</v>
       </c>
-      <c r="G18" s="114">
+      <c r="G18" s="7">
         <v>700</v>
       </c>
-      <c r="H18" s="114">
+      <c r="H18" s="7">
         <v>700</v>
       </c>
-      <c r="I18" s="114">
+      <c r="I18" s="7">
         <v>700</v>
       </c>
-      <c r="J18" s="114">
+      <c r="J18" s="7">
         <v>700</v>
       </c>
-      <c r="K18" s="114">
+      <c r="K18" s="7">
         <v>700</v>
       </c>
-      <c r="L18" s="114">
+      <c r="L18" s="7">
         <v>520</v>
       </c>
-      <c r="M18" s="114">
+      <c r="M18" s="7">
         <v>0</v>
       </c>
-      <c r="N18" s="114">
+      <c r="N18" s="7">
         <v>0</v>
       </c>
-      <c r="O18" s="114">
+      <c r="O18" s="7">
         <v>0</v>
       </c>
-      <c r="P18" s="114">
+      <c r="P18" s="7">
         <v>0</v>
       </c>
-      <c r="Q18" s="114">
+      <c r="Q18" s="7">
         <v>0</v>
       </c>
-      <c r="R18" s="114">
+      <c r="R18" s="7">
         <v>0</v>
       </c>
-      <c r="S18" s="114">
+      <c r="S18" s="7">
         <v>0</v>
       </c>
-      <c r="T18" s="114">
+      <c r="T18" s="7">
         <v>0</v>
       </c>
-      <c r="U18" s="114">
+      <c r="U18" s="7">
         <v>0</v>
       </c>
-      <c r="V18" s="114">
+      <c r="V18" s="7">
         <v>0</v>
       </c>
-      <c r="W18" s="114">
+      <c r="W18" s="7">
         <v>0</v>
       </c>
-      <c r="X18" s="114">
+      <c r="X18" s="7">
         <v>0</v>
       </c>
-      <c r="Y18" s="114">
+      <c r="Y18" s="7">
         <v>0</v>
       </c>
-      <c r="Z18" s="114">
+      <c r="Z18" s="7">
         <v>0</v>
       </c>
-      <c r="AA18" s="114">
+      <c r="AA18" s="7">
         <v>0</v>
       </c>
-      <c r="AB18" s="114">
+      <c r="AB18" s="7">
         <v>0</v>
       </c>
-      <c r="AC18" s="114">
+      <c r="AC18" s="7">
         <v>0</v>
       </c>
-      <c r="AD18" s="114">
+      <c r="AD18" s="7">
         <v>0</v>
       </c>
-      <c r="AE18" s="114">
+      <c r="AE18" s="7">
         <v>0</v>
       </c>
-      <c r="AF18" s="114">
+      <c r="AF18" s="7">
         <v>0</v>
       </c>
-      <c r="AG18" s="114">
+      <c r="AG18" s="7">
         <v>0</v>
       </c>
-      <c r="AH18" s="114">
+      <c r="AH18" s="7">
         <v>0</v>
       </c>
-      <c r="AI18" s="114">
+      <c r="AI18" s="7">
         <v>0</v>
       </c>
-      <c r="AJ18" s="114">
+      <c r="AJ18" s="7">
         <v>0</v>
       </c>
-      <c r="AK18" s="114">
+      <c r="AK18" s="7">
         <v>0</v>
       </c>
-      <c r="AL18" s="114">
+      <c r="AL18" s="7">
         <v>0</v>
       </c>
-      <c r="AM18" s="114">
+      <c r="AM18" s="7">
         <v>0</v>
       </c>
-      <c r="AN18" s="114">
+      <c r="AN18" s="7">
         <v>0</v>
       </c>
-      <c r="AO18" s="114">
+      <c r="AO18" s="7">
         <v>0</v>
       </c>
-      <c r="AP18" s="114">
+      <c r="AP18" s="7">
         <v>0</v>
       </c>
-      <c r="AQ18" s="114">
+      <c r="AQ18" s="7">
         <v>0</v>
       </c>
-      <c r="AR18" s="114">
+      <c r="AR18" s="7">
         <v>0</v>
       </c>
-      <c r="AS18" s="114">
+      <c r="AS18" s="7">
         <v>0</v>
       </c>
-      <c r="AT18" s="114">
+      <c r="AT18" s="7">
         <v>0</v>
       </c>
-      <c r="AU18" s="114">
+      <c r="AU18" s="7">
         <v>0</v>
       </c>
-      <c r="AV18" s="114">
+      <c r="AV18" s="7">
         <v>0</v>
       </c>
-      <c r="AW18" s="114">
+      <c r="AW18" s="7">
         <v>0</v>
       </c>
-      <c r="AX18" s="114">
+      <c r="AX18" s="7">
         <v>0</v>
       </c>
-      <c r="AY18" s="114">
+      <c r="AY18" s="7">
         <v>0</v>
       </c>
-      <c r="AZ18" s="114">
+      <c r="AZ18" s="7">
         <v>0</v>
       </c>
       <c r="BA18" s="29">
@@ -16395,157 +16762,157 @@
       <c r="A19" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="114">
+      <c r="B19" s="7">
         <v>0</v>
       </c>
-      <c r="C19" s="114">
+      <c r="C19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="114">
+      <c r="D19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="114">
+      <c r="E19" s="7">
         <v>0</v>
       </c>
-      <c r="F19" s="114">
+      <c r="F19" s="7">
         <v>0</v>
       </c>
-      <c r="G19" s="114">
+      <c r="G19" s="7">
         <v>0</v>
       </c>
-      <c r="H19" s="114">
+      <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="I19" s="114">
+      <c r="I19" s="7">
         <v>0</v>
       </c>
-      <c r="J19" s="114">
+      <c r="J19" s="7">
         <v>0</v>
       </c>
-      <c r="K19" s="114">
+      <c r="K19" s="7">
         <v>0</v>
       </c>
-      <c r="L19" s="114">
+      <c r="L19" s="7">
         <v>0</v>
       </c>
-      <c r="M19" s="114">
+      <c r="M19" s="7">
         <v>0</v>
       </c>
-      <c r="N19" s="114">
+      <c r="N19" s="7">
         <v>0</v>
       </c>
-      <c r="O19" s="114">
+      <c r="O19" s="7">
         <v>0</v>
       </c>
-      <c r="P19" s="114">
+      <c r="P19" s="7">
         <v>0</v>
       </c>
-      <c r="Q19" s="114">
+      <c r="Q19" s="7">
         <v>0</v>
       </c>
-      <c r="R19" s="114">
+      <c r="R19" s="7">
         <v>0</v>
       </c>
-      <c r="S19" s="114">
+      <c r="S19" s="7">
         <v>0</v>
       </c>
-      <c r="T19" s="114">
+      <c r="T19" s="7">
         <v>0</v>
       </c>
-      <c r="U19" s="114">
+      <c r="U19" s="7">
         <v>0</v>
       </c>
-      <c r="V19" s="114">
+      <c r="V19" s="7">
         <v>0</v>
       </c>
-      <c r="W19" s="114">
+      <c r="W19" s="7">
         <v>560</v>
       </c>
-      <c r="X19" s="114">
+      <c r="X19" s="7">
         <v>600</v>
       </c>
-      <c r="Y19" s="114">
+      <c r="Y19" s="7">
         <v>600</v>
       </c>
-      <c r="Z19" s="114">
+      <c r="Z19" s="7">
         <v>600</v>
       </c>
-      <c r="AA19" s="114">
+      <c r="AA19" s="7">
         <v>600</v>
       </c>
-      <c r="AB19" s="114">
+      <c r="AB19" s="7">
         <v>600</v>
       </c>
-      <c r="AC19" s="114">
+      <c r="AC19" s="7">
         <v>600</v>
       </c>
-      <c r="AD19" s="114">
+      <c r="AD19" s="7">
         <v>600</v>
       </c>
-      <c r="AE19" s="114">
+      <c r="AE19" s="7">
         <v>600</v>
       </c>
-      <c r="AF19" s="114">
+      <c r="AF19" s="7">
         <v>600</v>
       </c>
-      <c r="AG19" s="114">
+      <c r="AG19" s="7">
         <v>600</v>
       </c>
-      <c r="AH19" s="114">
+      <c r="AH19" s="7">
         <v>600</v>
       </c>
-      <c r="AI19" s="114">
+      <c r="AI19" s="7">
         <v>600</v>
       </c>
-      <c r="AJ19" s="114">
+      <c r="AJ19" s="7">
         <v>300</v>
       </c>
-      <c r="AK19" s="114">
+      <c r="AK19" s="7">
         <v>0</v>
       </c>
-      <c r="AL19" s="114">
+      <c r="AL19" s="7">
         <v>0</v>
       </c>
-      <c r="AM19" s="114">
+      <c r="AM19" s="7">
         <v>0</v>
       </c>
-      <c r="AN19" s="114">
+      <c r="AN19" s="7">
         <v>0</v>
       </c>
-      <c r="AO19" s="114">
+      <c r="AO19" s="7">
         <v>0</v>
       </c>
-      <c r="AP19" s="114">
+      <c r="AP19" s="7">
         <v>0</v>
       </c>
-      <c r="AQ19" s="114">
+      <c r="AQ19" s="7">
         <v>0</v>
       </c>
-      <c r="AR19" s="114">
+      <c r="AR19" s="7">
         <v>0</v>
       </c>
-      <c r="AS19" s="114">
+      <c r="AS19" s="7">
         <v>0</v>
       </c>
-      <c r="AT19" s="114">
+      <c r="AT19" s="7">
         <v>0</v>
       </c>
-      <c r="AU19" s="114">
+      <c r="AU19" s="7">
         <v>0</v>
       </c>
-      <c r="AV19" s="114">
+      <c r="AV19" s="7">
         <v>0</v>
       </c>
-      <c r="AW19" s="114">
+      <c r="AW19" s="7">
         <v>0</v>
       </c>
-      <c r="AX19" s="114">
+      <c r="AX19" s="7">
         <v>0</v>
       </c>
-      <c r="AY19" s="114">
+      <c r="AY19" s="7">
         <v>0</v>
       </c>
-      <c r="AZ19" s="114">
+      <c r="AZ19" s="7">
         <v>0</v>
       </c>
       <c r="BA19" s="29">
@@ -16557,157 +16924,157 @@
       <c r="A20" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="114">
+      <c r="B20" s="7">
         <v>0</v>
       </c>
-      <c r="C20" s="114">
+      <c r="C20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="114">
+      <c r="D20" s="7">
         <v>0</v>
       </c>
-      <c r="E20" s="114">
+      <c r="E20" s="7">
         <v>0</v>
       </c>
-      <c r="F20" s="114">
+      <c r="F20" s="7">
         <v>0</v>
       </c>
-      <c r="G20" s="114">
+      <c r="G20" s="7">
         <v>0</v>
       </c>
-      <c r="H20" s="114">
+      <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="I20" s="114">
+      <c r="I20" s="7">
         <v>0</v>
       </c>
-      <c r="J20" s="114">
+      <c r="J20" s="7">
         <v>0</v>
       </c>
-      <c r="K20" s="114">
+      <c r="K20" s="7">
         <v>0</v>
       </c>
-      <c r="L20" s="114">
+      <c r="L20" s="7">
         <v>0</v>
       </c>
-      <c r="M20" s="114">
+      <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="114">
+      <c r="N20" s="7">
         <v>280</v>
       </c>
-      <c r="O20" s="114">
+      <c r="O20" s="7">
         <v>650</v>
       </c>
-      <c r="P20" s="114">
+      <c r="P20" s="7">
         <v>650</v>
       </c>
-      <c r="Q20" s="114">
+      <c r="Q20" s="7">
         <v>650</v>
       </c>
-      <c r="R20" s="114">
+      <c r="R20" s="7">
         <v>650</v>
       </c>
-      <c r="S20" s="114">
+      <c r="S20" s="7">
         <v>650</v>
       </c>
-      <c r="T20" s="114">
+      <c r="T20" s="7">
         <v>650</v>
       </c>
-      <c r="U20" s="114">
+      <c r="U20" s="7">
         <v>130</v>
       </c>
-      <c r="V20" s="114">
+      <c r="V20" s="7">
         <v>0</v>
       </c>
-      <c r="W20" s="114">
+      <c r="W20" s="7">
         <v>0</v>
       </c>
-      <c r="X20" s="114">
+      <c r="X20" s="7">
         <v>0</v>
       </c>
-      <c r="Y20" s="114">
+      <c r="Y20" s="7">
         <v>0</v>
       </c>
-      <c r="Z20" s="114">
+      <c r="Z20" s="7">
         <v>0</v>
       </c>
-      <c r="AA20" s="114">
+      <c r="AA20" s="7">
         <v>0</v>
       </c>
-      <c r="AB20" s="114">
+      <c r="AB20" s="7">
         <v>0</v>
       </c>
-      <c r="AC20" s="114">
+      <c r="AC20" s="7">
         <v>0</v>
       </c>
-      <c r="AD20" s="114">
+      <c r="AD20" s="7">
         <v>0</v>
       </c>
-      <c r="AE20" s="114">
+      <c r="AE20" s="7">
         <v>0</v>
       </c>
-      <c r="AF20" s="114">
+      <c r="AF20" s="7">
         <v>0</v>
       </c>
-      <c r="AG20" s="114">
+      <c r="AG20" s="7">
         <v>0</v>
       </c>
-      <c r="AH20" s="114">
+      <c r="AH20" s="7">
         <v>0</v>
       </c>
-      <c r="AI20" s="114">
+      <c r="AI20" s="7">
         <v>0</v>
       </c>
-      <c r="AJ20" s="114">
+      <c r="AJ20" s="7">
         <v>0</v>
       </c>
-      <c r="AK20" s="114">
+      <c r="AK20" s="7">
         <v>0</v>
       </c>
-      <c r="AL20" s="114">
+      <c r="AL20" s="7">
         <v>0</v>
       </c>
-      <c r="AM20" s="114">
+      <c r="AM20" s="7">
         <v>0</v>
       </c>
-      <c r="AN20" s="114">
+      <c r="AN20" s="7">
         <v>0</v>
       </c>
-      <c r="AO20" s="114">
+      <c r="AO20" s="7">
         <v>0</v>
       </c>
-      <c r="AP20" s="114">
+      <c r="AP20" s="7">
         <v>0</v>
       </c>
-      <c r="AQ20" s="114">
+      <c r="AQ20" s="7">
         <v>0</v>
       </c>
-      <c r="AR20" s="114">
+      <c r="AR20" s="7">
         <v>0</v>
       </c>
-      <c r="AS20" s="114">
+      <c r="AS20" s="7">
         <v>0</v>
       </c>
-      <c r="AT20" s="114">
+      <c r="AT20" s="7">
         <v>0</v>
       </c>
-      <c r="AU20" s="114">
+      <c r="AU20" s="7">
         <v>0</v>
       </c>
-      <c r="AV20" s="114">
+      <c r="AV20" s="7">
         <v>0</v>
       </c>
-      <c r="AW20" s="114">
+      <c r="AW20" s="7">
         <v>0</v>
       </c>
-      <c r="AX20" s="114">
+      <c r="AX20" s="7">
         <v>0</v>
       </c>
-      <c r="AY20" s="114">
+      <c r="AY20" s="7">
         <v>0</v>
       </c>
-      <c r="AZ20" s="114">
+      <c r="AZ20" s="7">
         <v>0</v>
       </c>
       <c r="BA20" s="29">
@@ -36240,4 +36607,56 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9486776A-E90B-444A-9ED6-8C774044BDC1}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B5C8F5-3B29-43A3-876D-0A4D4D13D93C}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
+++ b/pareto/tests/strategic_small_case_study_load_removaleff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B80AA8-06AF-405C-B500-23495572CA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C89805-F8DA-408C-83B3-C89AD57BD9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="10920" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3848" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="341">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1175,21 +1175,6 @@
   </si>
   <si>
     <t>1000g</t>
-  </si>
-  <si>
-    <t>Trucking (g/hour)</t>
-  </si>
-  <si>
-    <t>Pipeline Operations (g/(bbl-mile))</t>
-  </si>
-  <si>
-    <t>Pipeline Installation (g/mile)</t>
-  </si>
-  <si>
-    <t>Disposal (g/bbl)</t>
-  </si>
-  <si>
-    <t>Storage (g/bbl-week)</t>
   </si>
 </sst>
 </file>
@@ -3464,9 +3449,7 @@
   </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7599,7 +7582,7 @@
   <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -40161,8 +40144,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>341</v>
+      <c r="A3" s="25" t="str">
+        <f>_xlfn.CONCAT("Trucking [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/hour]")</f>
+        <v>Trucking [g/hour]</v>
       </c>
       <c r="B3" s="126">
         <v>2035000</v>
@@ -40176,13 +40160,14 @@
       <c r="E3" s="126">
         <v>770.00000000000011</v>
       </c>
-      <c r="F3" s="126">
+      <c r="F3" s="127">
         <v>120.99999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>342</v>
+      <c r="A4" s="25" t="str">
+        <f>_xlfn.CONCAT("Pipeline Operations [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/(", VLOOKUP("volume", Units!A2:B12, 2, FALSE), "*", VLOOKUP("distance", Units!A2:B12, 2, FALSE), ")]")</f>
+        <v>Pipeline Operations [g/(bbl*mile)]</v>
       </c>
       <c r="B4" s="126">
         <v>22</v>
@@ -40201,8 +40186,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>343</v>
+      <c r="A5" s="25" t="str">
+        <f>_xlfn.CONCAT("Pipeline Installation [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/", VLOOKUP("distance", Units!A2:B12, 2, FALSE), "]")</f>
+        <v>Pipeline Installation [g/mile]</v>
       </c>
       <c r="B5" s="126">
         <v>310000000</v>
@@ -40221,8 +40207,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>344</v>
+      <c r="A6" s="25" t="str">
+        <f>_xlfn.CONCAT("Disposal [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/", VLOOKUP("volume", Units!A2:B12, 2, FALSE), "]")</f>
+        <v>Disposal [g/bbl]</v>
       </c>
       <c r="B6" s="126">
         <v>970</v>
@@ -40241,8 +40228,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>345</v>
+      <c r="A7" s="26" t="str">
+        <f>_xlfn.CONCAT("Storage [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/(", VLOOKUP("volume", Units!A2:B12, 2, FALSE), "*", VLOOKUP("decision period", Units!A2:B12, 2, FALSE), ")]")</f>
+        <v>Storage [g/(bbl*week)]</v>
       </c>
       <c r="B7" s="128">
         <v>1000</v>
@@ -40283,8 +40271,8 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Air Emissions Coefficients  for Treatment Technologies [emissions/volume time]")</f>
-        <v>Table of Air Emissions Coefficients  for Treatment Technologies [emissions/volume time]</v>
+        <f>_xlfn.CONCAT("Table of Air Emissions Coefficients for Treatment Technologies [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/", VLOOKUP("volume", Units!A2:B12, 2, FALSE), "]")</f>
+        <v>Table of Air Emissions Coefficients for Treatment Technologies [g/bbl]</v>
       </c>
       <c r="B1" s="1"/>
     </row>
